--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7542,13 +7542,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F722"/>
+  <dimension ref="A1:F723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B686" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B697" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G719" sqref="G719"/>
+      <selection pane="bottomRight" activeCell="G722" sqref="G722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21220,18 +21220,18 @@
         <v>43101</v>
       </c>
       <c r="B698" s="4">
-        <v>17757</v>
+        <v>17756</v>
       </c>
       <c r="C698" s="4">
         <v>130</v>
       </c>
       <c r="D698" s="7">
         <f t="shared" si="20"/>
-        <v>7.3210564847665709E-3</v>
+        <v>7.3214687992791171E-3</v>
       </c>
       <c r="E698" s="8">
         <f t="shared" si="21"/>
-        <v>73.210564847665708</v>
+        <v>73.21468799279117</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
@@ -21258,18 +21258,18 @@
         <v>43160</v>
       </c>
       <c r="B700" s="4">
-        <v>19114</v>
+        <v>19113</v>
       </c>
       <c r="C700" s="4">
         <v>498</v>
       </c>
       <c r="D700" s="7">
         <f t="shared" si="20"/>
-        <v>2.6054201109134666E-2</v>
+        <v>2.6055564275623919E-2</v>
       </c>
       <c r="E700" s="8">
         <f t="shared" si="21"/>
-        <v>260.54201109134664</v>
+        <v>260.55564275623919</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
@@ -21505,18 +21505,18 @@
         <v>43556</v>
       </c>
       <c r="B713" s="4">
-        <v>20725</v>
+        <v>20727</v>
       </c>
       <c r="C713" s="4">
         <v>189</v>
       </c>
       <c r="D713" s="7">
         <f t="shared" si="22"/>
-        <v>9.1194209891435462E-3</v>
+        <v>9.11854103343465E-3</v>
       </c>
       <c r="E713" s="8">
         <f t="shared" si="23"/>
-        <v>91.194209891435463</v>
+        <v>91.1854103343465</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
@@ -21524,18 +21524,18 @@
         <v>43586</v>
       </c>
       <c r="B714" s="4">
-        <v>21328</v>
+        <v>21333</v>
       </c>
       <c r="C714" s="4">
         <v>405</v>
       </c>
       <c r="D714" s="7">
         <f t="shared" si="22"/>
-        <v>1.8989122280570144E-2</v>
+        <v>1.8984671635494305E-2</v>
       </c>
       <c r="E714" s="8">
         <f t="shared" si="23"/>
-        <v>189.89122280570143</v>
+        <v>189.84671635494303</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
@@ -21543,18 +21543,18 @@
         <v>43617</v>
       </c>
       <c r="B715" s="4">
-        <v>20320</v>
+        <v>20325</v>
       </c>
       <c r="C715" s="4">
         <v>541</v>
       </c>
       <c r="D715" s="7">
         <f t="shared" si="22"/>
-        <v>2.6624015748031495E-2</v>
+        <v>2.6617466174661746E-2</v>
       </c>
       <c r="E715" s="8">
         <f t="shared" si="23"/>
-        <v>266.24015748031496</v>
+        <v>266.17466174661746</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
@@ -21562,18 +21562,18 @@
         <v>43647</v>
       </c>
       <c r="B716" s="4">
-        <v>19310</v>
+        <v>19342</v>
       </c>
       <c r="C716" s="4">
         <v>281</v>
       </c>
       <c r="D716" s="7">
         <f t="shared" si="22"/>
-        <v>1.4552045572242361E-2</v>
+        <v>1.4527970220246097E-2</v>
       </c>
       <c r="E716" s="8">
         <f t="shared" si="23"/>
-        <v>145.52045572242361</v>
+        <v>145.27970220246095</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
@@ -21581,18 +21581,18 @@
         <v>43678</v>
       </c>
       <c r="B717" s="4">
-        <v>19664</v>
+        <v>19754</v>
       </c>
       <c r="C717" s="4">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D717" s="7">
         <f t="shared" si="22"/>
-        <v>2.5478030919446705E-2</v>
+        <v>2.546319732712362E-2</v>
       </c>
       <c r="E717" s="8">
         <f t="shared" si="23"/>
-        <v>254.78030919446707</v>
+        <v>254.63197327123618</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
@@ -21600,18 +21600,18 @@
         <v>43709</v>
       </c>
       <c r="B718" s="4">
-        <v>20008</v>
+        <v>20059</v>
       </c>
       <c r="C718" s="4">
         <v>275</v>
       </c>
       <c r="D718" s="7">
         <f t="shared" ref="D718" si="24">C718/B718</f>
-        <v>1.3744502199120353E-2</v>
+        <v>1.3709556807418116E-2</v>
       </c>
       <c r="E718" s="8">
         <f t="shared" ref="E718" si="25">D718/0.01*100</f>
-        <v>137.44502199120353</v>
+        <v>137.09556807418116</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
@@ -21619,18 +21619,18 @@
         <v>43739</v>
       </c>
       <c r="B719" s="4">
-        <v>20545</v>
+        <v>20587</v>
       </c>
       <c r="C719" s="4">
         <v>287</v>
       </c>
       <c r="D719" s="7">
         <f t="shared" ref="D719" si="26">C719/B719</f>
-        <v>1.3969335604770016E-2</v>
+        <v>1.3940836450187011E-2</v>
       </c>
       <c r="E719" s="8">
         <f t="shared" ref="E719" si="27">D719/0.01*100</f>
-        <v>139.69335604770018</v>
+        <v>139.4083645018701</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
@@ -21638,18 +21638,18 @@
         <v>43770</v>
       </c>
       <c r="B720" s="4">
-        <v>19098</v>
+        <v>19150</v>
       </c>
       <c r="C720" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D720" s="7">
         <f t="shared" ref="D720" si="28">C720/B720</f>
-        <v>1.199078437532726E-2</v>
+        <v>1.2010443864229765E-2</v>
       </c>
       <c r="E720" s="8">
         <f t="shared" ref="E720" si="29">D720/0.01*100</f>
-        <v>119.90784375327259</v>
+        <v>120.10443864229765</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
@@ -21657,18 +21657,18 @@
         <v>43800</v>
       </c>
       <c r="B721" s="4">
-        <v>18484</v>
+        <v>18563</v>
       </c>
       <c r="C721" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D721" s="7">
         <f t="shared" ref="D721:D722" si="30">C721/B721</f>
-        <v>1.4607227872754815E-2</v>
+        <v>1.4652803964876367E-2</v>
       </c>
       <c r="E721" s="8">
         <f t="shared" ref="E721:E722" si="31">D721/0.01*100</f>
-        <v>146.07227872754817</v>
+        <v>146.52803964876367</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
@@ -21676,18 +21676,37 @@
         <v>43831</v>
       </c>
       <c r="B722" s="4">
-        <v>5739</v>
+        <v>19333</v>
       </c>
       <c r="C722" s="4">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="D722" s="7">
         <f t="shared" si="30"/>
-        <v>1.097752221641401E-2</v>
+        <v>1.401748306005276E-2</v>
       </c>
       <c r="E722" s="8">
         <f t="shared" si="31"/>
-        <v>109.7752221641401</v>
+        <v>140.1748306005276</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A723" s="9">
+        <v>43862</v>
+      </c>
+      <c r="B723" s="4">
+        <v>6183</v>
+      </c>
+      <c r="C723" s="4">
+        <v>72</v>
+      </c>
+      <c r="D723" s="7">
+        <f t="shared" ref="D723" si="32">C723/B723</f>
+        <v>1.1644832605531296E-2</v>
+      </c>
+      <c r="E723" s="8">
+        <f t="shared" ref="E723" si="33">D723/0.01*100</f>
+        <v>116.44832605531296</v>
       </c>
     </row>
   </sheetData>
@@ -21698,13 +21717,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2202"/>
+  <dimension ref="A1:G2233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2164" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2188" sqref="J2188"/>
+      <selection pane="bottomRight" activeCell="J2211" sqref="J2211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76730,26 +76749,26 @@
         <v>20190807</v>
       </c>
       <c r="B2046" s="4">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2046" s="4">
         <v>24</v>
       </c>
       <c r="D2046" s="7">
         <f t="shared" si="124"/>
-        <v>3.1830238726790451E-2</v>
+        <v>3.1872509960159362E-2</v>
       </c>
       <c r="E2046" s="17">
         <f t="shared" si="127"/>
-        <v>1.6685628952846181E-2</v>
+        <v>1.6687037993958476E-2</v>
       </c>
       <c r="F2046">
         <f t="shared" si="125"/>
-        <v>318.30238726790452</v>
+        <v>318.72509960159363</v>
       </c>
       <c r="G2046">
         <f t="shared" si="126"/>
-        <v>166.85628952846182</v>
+        <v>166.87037993958475</v>
       </c>
     </row>
     <row r="2047" spans="1:7" x14ac:dyDescent="0.3">
@@ -76768,7 +76787,7 @@
       </c>
       <c r="E2047" s="17">
         <f t="shared" si="127"/>
-        <v>1.7033755476719741E-2</v>
+        <v>1.7035164517832036E-2</v>
       </c>
       <c r="F2047">
         <f t="shared" si="125"/>
@@ -76776,7 +76795,7 @@
       </c>
       <c r="G2047">
         <f t="shared" si="126"/>
-        <v>170.33755476719742</v>
+        <v>170.35164517832035</v>
       </c>
     </row>
     <row r="2048" spans="1:7" x14ac:dyDescent="0.3">
@@ -76795,7 +76814,7 @@
       </c>
       <c r="E2048" s="17">
         <f t="shared" si="127"/>
-        <v>1.7504949954045279E-2</v>
+        <v>1.7506358995157574E-2</v>
       </c>
       <c r="F2048">
         <f t="shared" si="125"/>
@@ -76803,7 +76822,7 @@
       </c>
       <c r="G2048">
         <f t="shared" si="126"/>
-        <v>175.04949954045279</v>
+        <v>175.06358995157575</v>
       </c>
     </row>
     <row r="2049" spans="1:7" x14ac:dyDescent="0.3">
@@ -76822,7 +76841,7 @@
       </c>
       <c r="E2049" s="17">
         <f t="shared" ref="E2049:E2062" si="129">AVERAGE(D2020:D2049)</f>
-        <v>1.7218003870078036E-2</v>
+        <v>1.7219412911190331E-2</v>
       </c>
       <c r="F2049">
         <f t="shared" si="125"/>
@@ -76830,7 +76849,7 @@
       </c>
       <c r="G2049">
         <f t="shared" si="126"/>
-        <v>172.18003870078036</v>
+        <v>172.19412911190329</v>
       </c>
     </row>
     <row r="2050" spans="1:7" x14ac:dyDescent="0.3">
@@ -76849,7 +76868,7 @@
       </c>
       <c r="E2050" s="17">
         <f t="shared" si="129"/>
-        <v>1.7095225099777268E-2</v>
+        <v>1.7096634140889563E-2</v>
       </c>
       <c r="F2050">
         <f t="shared" si="125"/>
@@ -76857,7 +76876,7 @@
       </c>
       <c r="G2050">
         <f t="shared" si="126"/>
-        <v>170.95225099777267</v>
+        <v>170.96634140889563</v>
       </c>
     </row>
     <row r="2051" spans="1:7" x14ac:dyDescent="0.3">
@@ -76876,7 +76895,7 @@
       </c>
       <c r="E2051" s="17">
         <f t="shared" si="129"/>
-        <v>1.7283280646727472E-2</v>
+        <v>1.7284689687839767E-2</v>
       </c>
       <c r="F2051">
         <f t="shared" ref="F2051:F2065" si="130">D2051/0.01*100</f>
@@ -76884,7 +76903,7 @@
       </c>
       <c r="G2051">
         <f t="shared" ref="G2051:G2065" si="131">E2051/0.01*100</f>
-        <v>172.83280646727474</v>
+        <v>172.84689687839767</v>
       </c>
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.3">
@@ -76903,7 +76922,7 @@
       </c>
       <c r="E2052" s="17">
         <f t="shared" si="129"/>
-        <v>1.7725837340060595E-2</v>
+        <v>1.772724638117289E-2</v>
       </c>
       <c r="F2052">
         <f t="shared" si="130"/>
@@ -76911,7 +76930,7 @@
       </c>
       <c r="G2052">
         <f t="shared" si="131"/>
-        <v>177.25837340060596</v>
+        <v>177.2724638117289</v>
       </c>
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.3">
@@ -76930,7 +76949,7 @@
       </c>
       <c r="E2053" s="17">
         <f t="shared" si="129"/>
-        <v>1.8667690500305836E-2</v>
+        <v>1.8669099541418134E-2</v>
       </c>
       <c r="F2053">
         <f t="shared" si="130"/>
@@ -76938,7 +76957,7 @@
       </c>
       <c r="G2053">
         <f t="shared" si="131"/>
-        <v>186.67690500305835</v>
+        <v>186.69099541418132</v>
       </c>
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.3">
@@ -76957,7 +76976,7 @@
       </c>
       <c r="E2054" s="17">
         <f t="shared" si="129"/>
-        <v>1.9003109041689538E-2</v>
+        <v>1.9004518082801833E-2</v>
       </c>
       <c r="F2054">
         <f t="shared" si="130"/>
@@ -76965,7 +76984,7 @@
       </c>
       <c r="G2054">
         <f t="shared" si="131"/>
-        <v>190.03109041689535</v>
+        <v>190.04518082801835</v>
       </c>
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.3">
@@ -76984,7 +77003,7 @@
       </c>
       <c r="E2055" s="17">
         <f t="shared" si="129"/>
-        <v>1.9419485313745929E-2</v>
+        <v>1.9420894354858224E-2</v>
       </c>
       <c r="F2055">
         <f t="shared" si="130"/>
@@ -76992,7 +77011,7 @@
       </c>
       <c r="G2055">
         <f t="shared" si="131"/>
-        <v>194.19485313745929</v>
+        <v>194.20894354858223</v>
       </c>
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.3">
@@ -77011,7 +77030,7 @@
       </c>
       <c r="E2056" s="17">
         <f t="shared" si="129"/>
-        <v>1.9869574179716909E-2</v>
+        <v>1.9870983220829204E-2</v>
       </c>
       <c r="F2056">
         <f t="shared" si="130"/>
@@ -77019,7 +77038,7 @@
       </c>
       <c r="G2056">
         <f t="shared" si="131"/>
-        <v>198.69574179716909</v>
+        <v>198.70983220829203</v>
       </c>
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.3">
@@ -77038,7 +77057,7 @@
       </c>
       <c r="E2057" s="17">
         <f t="shared" si="129"/>
-        <v>2.0245468375985634E-2</v>
+        <v>2.0246877417097929E-2</v>
       </c>
       <c r="F2057">
         <f t="shared" si="130"/>
@@ -77046,7 +77065,7 @@
       </c>
       <c r="G2057">
         <f t="shared" si="131"/>
-        <v>202.45468375985632</v>
+        <v>202.46877417097929</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.3">
@@ -77065,7 +77084,7 @@
       </c>
       <c r="E2058" s="17">
         <f t="shared" si="129"/>
-        <v>2.0516417551675811E-2</v>
+        <v>2.0517826592788106E-2</v>
       </c>
       <c r="F2058">
         <f t="shared" si="130"/>
@@ -77073,7 +77092,7 @@
       </c>
       <c r="G2058">
         <f t="shared" si="131"/>
-        <v>205.16417551675809</v>
+        <v>205.17826592788106</v>
       </c>
     </row>
     <row r="2059" spans="1:7" x14ac:dyDescent="0.3">
@@ -77092,7 +77111,7 @@
       </c>
       <c r="E2059" s="17">
         <f t="shared" si="129"/>
-        <v>2.105727587031191E-2</v>
+        <v>2.1058684911424205E-2</v>
       </c>
       <c r="F2059">
         <f t="shared" si="130"/>
@@ -77100,7 +77119,7 @@
       </c>
       <c r="G2059">
         <f t="shared" si="131"/>
-        <v>210.57275870311912</v>
+        <v>210.58684911424206</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.3">
@@ -77119,7 +77138,7 @@
       </c>
       <c r="E2060" s="17">
         <f t="shared" si="129"/>
-        <v>2.1708499070539414E-2</v>
+        <v>2.1709908111651709E-2</v>
       </c>
       <c r="F2060">
         <f t="shared" si="130"/>
@@ -77127,7 +77146,7 @@
       </c>
       <c r="G2060">
         <f t="shared" si="131"/>
-        <v>217.08499070539412</v>
+        <v>217.09908111651708</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.3">
@@ -77146,7 +77165,7 @@
       </c>
       <c r="E2061" s="17">
         <f t="shared" si="129"/>
-        <v>2.2221864431465749E-2</v>
+        <v>2.2223273472578044E-2</v>
       </c>
       <c r="F2061">
         <f t="shared" si="130"/>
@@ -77154,7 +77173,7 @@
       </c>
       <c r="G2061">
         <f t="shared" si="131"/>
-        <v>222.21864431465747</v>
+        <v>222.23273472578043</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.3">
@@ -77173,7 +77192,7 @@
       </c>
       <c r="E2062" s="17">
         <f t="shared" si="129"/>
-        <v>2.2270967949362473E-2</v>
+        <v>2.2272376990474772E-2</v>
       </c>
       <c r="F2062">
         <f t="shared" si="130"/>
@@ -77181,7 +77200,7 @@
       </c>
       <c r="G2062">
         <f t="shared" si="131"/>
-        <v>222.70967949362475</v>
+        <v>222.72376990474768</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.3">
@@ -77200,7 +77219,7 @@
       </c>
       <c r="E2063" s="17">
         <f t="shared" ref="E2063:E2065" si="133">AVERAGE(D2034:D2063)</f>
-        <v>2.3143835753200424E-2</v>
+        <v>2.3145244794312719E-2</v>
       </c>
       <c r="F2063">
         <f t="shared" si="130"/>
@@ -77208,7 +77227,7 @@
       </c>
       <c r="G2063">
         <f t="shared" si="131"/>
-        <v>231.4383575320042</v>
+        <v>231.45244794312717</v>
       </c>
     </row>
     <row r="2064" spans="1:7" x14ac:dyDescent="0.3">
@@ -77227,7 +77246,7 @@
       </c>
       <c r="E2064" s="17">
         <f t="shared" si="133"/>
-        <v>2.3892350225119149E-2</v>
+        <v>2.3893759266231444E-2</v>
       </c>
       <c r="F2064">
         <f t="shared" si="130"/>
@@ -77235,7 +77254,7 @@
       </c>
       <c r="G2064">
         <f t="shared" si="131"/>
-        <v>238.92350225119148</v>
+        <v>238.93759266231442</v>
       </c>
     </row>
     <row r="2065" spans="1:7" x14ac:dyDescent="0.3">
@@ -77254,7 +77273,7 @@
       </c>
       <c r="E2065" s="17">
         <f t="shared" si="133"/>
-        <v>2.3916621648984893E-2</v>
+        <v>2.3918030690097191E-2</v>
       </c>
       <c r="F2065">
         <f t="shared" si="130"/>
@@ -77262,7 +77281,7 @@
       </c>
       <c r="G2065">
         <f t="shared" si="131"/>
-        <v>239.16621648984892</v>
+        <v>239.18030690097191</v>
       </c>
     </row>
     <row r="2066" spans="1:7" x14ac:dyDescent="0.3">
@@ -77281,7 +77300,7 @@
       </c>
       <c r="E2066" s="17">
         <f t="shared" ref="E2066" si="135">AVERAGE(D2037:D2066)</f>
-        <v>2.476419268882073E-2</v>
+        <v>2.4765601729933029E-2</v>
       </c>
       <c r="F2066">
         <f t="shared" ref="F2066" si="136">D2066/0.01*100</f>
@@ -77289,7 +77308,7 @@
       </c>
       <c r="G2066">
         <f t="shared" ref="G2066" si="137">E2066/0.01*100</f>
-        <v>247.64192688820731</v>
+        <v>247.6560172993303</v>
       </c>
     </row>
     <row r="2067" spans="1:7" x14ac:dyDescent="0.3">
@@ -77308,7 +77327,7 @@
       </c>
       <c r="E2067" s="17">
         <f t="shared" ref="E2067:E2076" si="139">AVERAGE(D2038:D2067)</f>
-        <v>2.4975560018590345E-2</v>
+        <v>2.497696905970264E-2</v>
       </c>
       <c r="F2067">
         <f t="shared" ref="F2067:F2076" si="140">D2067/0.01*100</f>
@@ -77316,7 +77335,7 @@
       </c>
       <c r="G2067">
         <f t="shared" ref="G2067:G2076" si="141">E2067/0.01*100</f>
-        <v>249.75560018590346</v>
+        <v>249.7696905970264</v>
       </c>
     </row>
     <row r="2068" spans="1:7" x14ac:dyDescent="0.3">
@@ -77335,7 +77354,7 @@
       </c>
       <c r="E2068" s="17">
         <f t="shared" si="139"/>
-        <v>2.5157117839961506E-2</v>
+        <v>2.5158526881073801E-2</v>
       </c>
       <c r="F2068">
         <f t="shared" si="140"/>
@@ -77343,7 +77362,7 @@
       </c>
       <c r="G2068">
         <f t="shared" si="141"/>
-        <v>251.57117839961506</v>
+        <v>251.58526881073803</v>
       </c>
     </row>
     <row r="2069" spans="1:7" x14ac:dyDescent="0.3">
@@ -77362,7 +77381,7 @@
       </c>
       <c r="E2069" s="17">
         <f t="shared" si="139"/>
-        <v>2.5066718493963292E-2</v>
+        <v>2.5068127535075591E-2</v>
       </c>
       <c r="F2069">
         <f t="shared" si="140"/>
@@ -77370,7 +77389,7 @@
       </c>
       <c r="G2069">
         <f t="shared" si="141"/>
-        <v>250.6671849396329</v>
+        <v>250.6812753507559</v>
       </c>
     </row>
     <row r="2070" spans="1:7" x14ac:dyDescent="0.3">
@@ -77389,7 +77408,7 @@
       </c>
       <c r="E2070" s="17">
         <f t="shared" si="139"/>
-        <v>2.4899163471138065E-2</v>
+        <v>2.4900572512250363E-2</v>
       </c>
       <c r="F2070">
         <f t="shared" si="140"/>
@@ -77397,7 +77416,7 @@
       </c>
       <c r="G2070">
         <f t="shared" si="141"/>
-        <v>248.99163471138067</v>
+        <v>249.00572512250361</v>
       </c>
     </row>
     <row r="2071" spans="1:7" x14ac:dyDescent="0.3">
@@ -77416,7 +77435,7 @@
       </c>
       <c r="E2071" s="17">
         <f t="shared" si="139"/>
-        <v>2.4036955957831445E-2</v>
+        <v>2.403836499894374E-2</v>
       </c>
       <c r="F2071">
         <f t="shared" si="140"/>
@@ -77424,7 +77443,7 @@
       </c>
       <c r="G2071">
         <f t="shared" si="141"/>
-        <v>240.36955957831447</v>
+        <v>240.3836499894374</v>
       </c>
     </row>
     <row r="2072" spans="1:7" x14ac:dyDescent="0.3">
@@ -77443,7 +77462,7 @@
       </c>
       <c r="E2072" s="17">
         <f t="shared" si="139"/>
-        <v>2.3395188269695708E-2</v>
+        <v>2.3396597310808002E-2</v>
       </c>
       <c r="F2072">
         <f t="shared" si="140"/>
@@ -77451,7 +77470,7 @@
       </c>
       <c r="G2072">
         <f t="shared" si="141"/>
-        <v>233.95188269695706</v>
+        <v>233.96597310807999</v>
       </c>
     </row>
     <row r="2073" spans="1:7" x14ac:dyDescent="0.3">
@@ -77470,7 +77489,7 @@
       </c>
       <c r="E2073" s="17">
         <f t="shared" si="139"/>
-        <v>2.3915532511836094E-2</v>
+        <v>2.3916941552948393E-2</v>
       </c>
       <c r="F2073">
         <f t="shared" si="140"/>
@@ -77478,7 +77497,7 @@
       </c>
       <c r="G2073">
         <f t="shared" si="141"/>
-        <v>239.15532511836096</v>
+        <v>239.16941552948396</v>
       </c>
     </row>
     <row r="2074" spans="1:7" x14ac:dyDescent="0.3">
@@ -77497,7 +77516,7 @@
       </c>
       <c r="E2074" s="17">
         <f t="shared" si="139"/>
-        <v>2.4295731590951893E-2</v>
+        <v>2.4297140632064188E-2</v>
       </c>
       <c r="F2074">
         <f t="shared" si="140"/>
@@ -77505,7 +77524,7 @@
       </c>
       <c r="G2074">
         <f t="shared" si="141"/>
-        <v>242.95731590951891</v>
+        <v>242.9714063206419</v>
       </c>
     </row>
     <row r="2075" spans="1:7" x14ac:dyDescent="0.3">
@@ -77524,7 +77543,7 @@
       </c>
       <c r="E2075" s="17">
         <f t="shared" si="139"/>
-        <v>2.3475132770503816E-2</v>
+        <v>2.3476541811616115E-2</v>
       </c>
       <c r="F2075">
         <f t="shared" si="140"/>
@@ -77532,7 +77551,7 @@
       </c>
       <c r="G2075">
         <f t="shared" si="141"/>
-        <v>234.75132770503814</v>
+        <v>234.76541811616113</v>
       </c>
     </row>
     <row r="2076" spans="1:7" x14ac:dyDescent="0.3">
@@ -78215,26 +78234,26 @@
         <v>20191001</v>
       </c>
       <c r="B2101" s="4">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C2101" s="4">
         <v>4</v>
       </c>
       <c r="D2101" s="7">
         <f t="shared" si="146"/>
-        <v>5.9523809523809521E-3</v>
+        <v>5.9435364041604752E-3</v>
       </c>
       <c r="E2101" s="17">
         <f t="shared" si="147"/>
-        <v>1.3778395750655951E-2</v>
+        <v>1.3778100932381935E-2</v>
       </c>
       <c r="F2101">
         <f t="shared" si="148"/>
-        <v>59.523809523809526</v>
+        <v>59.435364041604757</v>
       </c>
       <c r="G2101">
         <f t="shared" si="149"/>
-        <v>137.78395750655952</v>
+        <v>137.78100932381935</v>
       </c>
     </row>
     <row r="2102" spans="1:7" x14ac:dyDescent="0.3">
@@ -78253,7 +78272,7 @@
       </c>
       <c r="E2102" s="17">
         <f t="shared" si="147"/>
-        <v>1.4028533547339576E-2</v>
+        <v>1.402823872906556E-2</v>
       </c>
       <c r="F2102">
         <f t="shared" si="148"/>
@@ -78261,7 +78280,7 @@
       </c>
       <c r="G2102">
         <f t="shared" si="149"/>
-        <v>140.28533547339575</v>
+        <v>140.28238729065558</v>
       </c>
     </row>
     <row r="2103" spans="1:7" x14ac:dyDescent="0.3">
@@ -78269,26 +78288,26 @@
         <v>20191003</v>
       </c>
       <c r="B2103" s="4">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C2103" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2103" s="7">
         <f t="shared" si="146"/>
-        <v>2.3529411764705882E-2</v>
+        <v>2.4739583333333332E-2</v>
       </c>
       <c r="E2103" s="17">
         <f t="shared" si="147"/>
-        <v>1.3905406256495834E-2</v>
+        <v>1.3945450490509399E-2</v>
       </c>
       <c r="F2103">
         <f t="shared" si="148"/>
-        <v>235.29411764705884</v>
+        <v>247.39583333333331</v>
       </c>
       <c r="G2103">
         <f t="shared" si="149"/>
-        <v>139.05406256495834</v>
+        <v>139.45450490509398</v>
       </c>
     </row>
     <row r="2104" spans="1:7" x14ac:dyDescent="0.3">
@@ -78296,26 +78315,26 @@
         <v>20191004</v>
       </c>
       <c r="B2104" s="4">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C2104" s="4">
         <v>17</v>
       </c>
       <c r="D2104" s="7">
         <f t="shared" si="146"/>
-        <v>2.1879021879021878E-2</v>
+        <v>2.1907216494845359E-2</v>
       </c>
       <c r="E2104" s="17">
         <f t="shared" si="147"/>
-        <v>1.3797886902114555E-2</v>
+        <v>1.3838870956655569E-2</v>
       </c>
       <c r="F2104">
         <f t="shared" si="148"/>
-        <v>218.79021879021877</v>
+        <v>219.07216494845358</v>
       </c>
       <c r="G2104">
         <f t="shared" si="149"/>
-        <v>137.97886902114556</v>
+        <v>138.38870956655569</v>
       </c>
     </row>
     <row r="2105" spans="1:7" x14ac:dyDescent="0.3">
@@ -78323,26 +78342,26 @@
         <v>20191005</v>
       </c>
       <c r="B2105" s="4">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C2105" s="4">
         <v>14</v>
       </c>
       <c r="D2105" s="7">
         <f t="shared" si="146"/>
-        <v>2.3102310231023101E-2</v>
+        <v>2.3217247097844111E-2</v>
       </c>
       <c r="E2105" s="17">
         <f t="shared" si="147"/>
-        <v>1.4247010218847882E-2</v>
+        <v>1.4291825502282928E-2</v>
       </c>
       <c r="F2105">
         <f t="shared" si="148"/>
-        <v>231.02310231023102</v>
+        <v>232.17247097844108</v>
       </c>
       <c r="G2105">
         <f t="shared" si="149"/>
-        <v>142.47010218847882</v>
+        <v>142.9182550228293</v>
       </c>
     </row>
     <row r="2106" spans="1:7" x14ac:dyDescent="0.3">
@@ -78350,26 +78369,26 @@
         <v>20191006</v>
       </c>
       <c r="B2106" s="4">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C2106" s="4">
         <v>6</v>
       </c>
       <c r="D2106" s="7">
         <f t="shared" si="146"/>
-        <v>7.3619631901840491E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E2106" s="17">
         <f t="shared" si="147"/>
-        <v>1.389798740977811E-2</v>
+        <v>1.3942501959422709E-2</v>
       </c>
       <c r="F2106">
         <f t="shared" si="148"/>
-        <v>73.619631901840492</v>
+        <v>73.52941176470587</v>
       </c>
       <c r="G2106">
         <f t="shared" si="149"/>
-        <v>138.97987409778111</v>
+        <v>139.42501959422708</v>
       </c>
     </row>
     <row r="2107" spans="1:7" x14ac:dyDescent="0.3">
@@ -78377,26 +78396,26 @@
         <v>20191007</v>
       </c>
       <c r="B2107" s="4">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C2107" s="4">
         <v>5</v>
       </c>
       <c r="D2107" s="7">
         <f t="shared" si="146"/>
-        <v>8.2372322899505763E-3</v>
+        <v>8.2101806239737278E-3</v>
       </c>
       <c r="E2107" s="17">
         <f t="shared" si="147"/>
-        <v>1.3380361941320036E-2</v>
+        <v>1.3423974768765407E-2</v>
       </c>
       <c r="F2107">
         <f t="shared" si="148"/>
-        <v>82.372322899505761</v>
+        <v>82.101806239737272</v>
       </c>
       <c r="G2107">
         <f t="shared" si="149"/>
-        <v>133.80361941320035</v>
+        <v>134.23974768765407</v>
       </c>
     </row>
     <row r="2108" spans="1:7" x14ac:dyDescent="0.3">
@@ -78404,26 +78423,26 @@
         <v>20191008</v>
       </c>
       <c r="B2108" s="4">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2108" s="4">
         <v>7</v>
       </c>
       <c r="D2108" s="7">
         <f t="shared" si="146"/>
-        <v>1.1326860841423949E-2</v>
+        <v>1.1308562197092083E-2</v>
       </c>
       <c r="E2108" s="17">
         <f t="shared" si="147"/>
-        <v>1.3373456456872303E-2</v>
+        <v>1.3416459329506612E-2</v>
       </c>
       <c r="F2108">
         <f t="shared" si="148"/>
-        <v>113.26860841423949</v>
+        <v>113.08562197092083</v>
       </c>
       <c r="G2108">
         <f t="shared" si="149"/>
-        <v>133.73456456872302</v>
+        <v>134.16459329506611</v>
       </c>
     </row>
     <row r="2109" spans="1:7" x14ac:dyDescent="0.3">
@@ -78442,7 +78461,7 @@
       </c>
       <c r="E2109" s="17">
         <f t="shared" si="147"/>
-        <v>1.3237517355006775E-2</v>
+        <v>1.3280520227641084E-2</v>
       </c>
       <c r="F2109">
         <f t="shared" si="148"/>
@@ -78450,7 +78469,7 @@
       </c>
       <c r="G2109">
         <f t="shared" si="149"/>
-        <v>132.37517355006773</v>
+        <v>132.80520227641085</v>
       </c>
     </row>
     <row r="2110" spans="1:7" x14ac:dyDescent="0.3">
@@ -78469,7 +78488,7 @@
       </c>
       <c r="E2110" s="17">
         <f t="shared" si="147"/>
-        <v>1.3000638389858881E-2</v>
+        <v>1.304364126249319E-2</v>
       </c>
       <c r="F2110">
         <f t="shared" si="148"/>
@@ -78477,7 +78496,7 @@
       </c>
       <c r="G2110">
         <f t="shared" si="149"/>
-        <v>130.00638389858881</v>
+        <v>130.4364126249319</v>
       </c>
     </row>
     <row r="2111" spans="1:7" x14ac:dyDescent="0.3">
@@ -78485,26 +78504,26 @@
         <v>20191011</v>
       </c>
       <c r="B2111" s="4">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C2111" s="4">
         <v>10</v>
       </c>
       <c r="D2111" s="7">
         <f t="shared" ref="D2111:D2143" si="150">C2111/B2111</f>
-        <v>1.2953367875647668E-2</v>
+        <v>1.2936610608020699E-2</v>
       </c>
       <c r="E2111" s="17">
         <f t="shared" ref="E2111:E2143" si="151">AVERAGE(D2082:D2111)</f>
-        <v>1.3011069004440398E-2</v>
+        <v>1.3053513301487138E-2</v>
       </c>
       <c r="F2111">
         <f t="shared" ref="F2111:F2143" si="152">D2111/0.01*100</f>
-        <v>129.53367875647669</v>
+        <v>129.366106080207</v>
       </c>
       <c r="G2111">
         <f t="shared" ref="G2111:G2143" si="153">E2111/0.01*100</f>
-        <v>130.11069004440395</v>
+        <v>130.53513301487138</v>
       </c>
     </row>
     <row r="2112" spans="1:7" x14ac:dyDescent="0.3">
@@ -78512,26 +78531,26 @@
         <v>20191012</v>
       </c>
       <c r="B2112" s="4">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C2112" s="4">
         <v>14</v>
       </c>
       <c r="D2112" s="7">
         <f t="shared" si="150"/>
-        <v>2.3140495867768594E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E2112" s="17">
         <f t="shared" si="151"/>
-        <v>1.3260101677715495E-2</v>
+        <v>1.3306389910952895E-2</v>
       </c>
       <c r="F2112">
         <f t="shared" si="152"/>
-        <v>231.40495867768593</v>
+        <v>232.55813953488374</v>
       </c>
       <c r="G2112">
         <f t="shared" si="153"/>
-        <v>132.60101677715494</v>
+        <v>133.06389910952893</v>
       </c>
     </row>
     <row r="2113" spans="1:7" x14ac:dyDescent="0.3">
@@ -78550,7 +78569,7 @@
       </c>
       <c r="E2113" s="17">
         <f t="shared" si="151"/>
-        <v>1.2684060372278745E-2</v>
+        <v>1.2730348605516147E-2</v>
       </c>
       <c r="F2113">
         <f t="shared" si="152"/>
@@ -78558,7 +78577,7 @@
       </c>
       <c r="G2113">
         <f t="shared" si="153"/>
-        <v>126.84060372278745</v>
+        <v>127.30348605516146</v>
       </c>
     </row>
     <row r="2114" spans="1:7" x14ac:dyDescent="0.3">
@@ -78566,26 +78585,26 @@
         <v>20191014</v>
       </c>
       <c r="B2114" s="4">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C2114" s="4">
         <v>8</v>
       </c>
       <c r="D2114" s="7">
         <f t="shared" si="150"/>
-        <v>1.3201320132013201E-2</v>
+        <v>1.3157894736842105E-2</v>
       </c>
       <c r="E2114" s="17">
         <f t="shared" si="151"/>
-        <v>1.2402082716029364E-2</v>
+        <v>1.2446923436094397E-2</v>
       </c>
       <c r="F2114">
         <f t="shared" si="152"/>
-        <v>132.013201320132</v>
+        <v>131.57894736842104</v>
       </c>
       <c r="G2114">
         <f t="shared" si="153"/>
-        <v>124.02082716029363</v>
+        <v>124.46923436094397</v>
       </c>
     </row>
     <row r="2115" spans="1:7" x14ac:dyDescent="0.3">
@@ -78593,26 +78612,26 @@
         <v>20191015</v>
       </c>
       <c r="B2115" s="4">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C2115" s="4">
         <v>17</v>
       </c>
       <c r="D2115" s="7">
         <f t="shared" si="150"/>
-        <v>2.800658978583196E-2</v>
+        <v>2.7868852459016394E-2</v>
       </c>
       <c r="E2115" s="17">
         <f t="shared" si="151"/>
-        <v>1.3076376449631172E-2</v>
+        <v>1.3116625925469017E-2</v>
       </c>
       <c r="F2115">
         <f t="shared" si="152"/>
-        <v>280.0658978583196</v>
+        <v>278.68852459016392</v>
       </c>
       <c r="G2115">
         <f t="shared" si="153"/>
-        <v>130.76376449631169</v>
+        <v>131.16625925469017</v>
       </c>
     </row>
     <row r="2116" spans="1:7" x14ac:dyDescent="0.3">
@@ -78620,26 +78639,26 @@
         <v>20191016</v>
       </c>
       <c r="B2116" s="4">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2116" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2116" s="7">
         <f t="shared" si="150"/>
-        <v>1.4285714285714285E-2</v>
+        <v>1.2875536480686695E-2</v>
       </c>
       <c r="E2116" s="17">
         <f t="shared" si="151"/>
-        <v>1.32591396957747E-2</v>
+        <v>1.3252383244778291E-2</v>
       </c>
       <c r="F2116">
         <f t="shared" si="152"/>
-        <v>142.85714285714286</v>
+        <v>128.75536480686696</v>
       </c>
       <c r="G2116">
         <f t="shared" si="153"/>
-        <v>132.59139695774701</v>
+        <v>132.52383244778289</v>
       </c>
     </row>
     <row r="2117" spans="1:7" x14ac:dyDescent="0.3">
@@ -78647,26 +78666,26 @@
         <v>20191017</v>
       </c>
       <c r="B2117" s="4">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C2117" s="4">
         <v>13</v>
       </c>
       <c r="D2117" s="7">
         <f t="shared" si="150"/>
-        <v>1.793103448275862E-2</v>
+        <v>1.790633608815427E-2</v>
       </c>
       <c r="E2117" s="17">
         <f t="shared" si="151"/>
-        <v>1.359312776503121E-2</v>
+        <v>1.3585548034214658E-2</v>
       </c>
       <c r="F2117">
         <f t="shared" si="152"/>
-        <v>179.31034482758619</v>
+        <v>179.06336088154271</v>
       </c>
       <c r="G2117">
         <f t="shared" si="153"/>
-        <v>135.9312776503121</v>
+        <v>135.85548034214659</v>
       </c>
     </row>
     <row r="2118" spans="1:7" x14ac:dyDescent="0.3">
@@ -78674,26 +78693,26 @@
         <v>20191018</v>
       </c>
       <c r="B2118" s="4">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C2118" s="4">
         <v>12</v>
       </c>
       <c r="D2118" s="7">
         <f t="shared" si="150"/>
-        <v>1.8072289156626505E-2</v>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="E2118" s="17">
         <f t="shared" si="151"/>
-        <v>1.3918144893183208E-2</v>
+        <v>1.3908756124413037E-2</v>
       </c>
       <c r="F2118">
         <f t="shared" si="152"/>
-        <v>180.72289156626505</v>
+        <v>180.18018018018017</v>
       </c>
       <c r="G2118">
         <f t="shared" si="153"/>
-        <v>139.18144893183208</v>
+        <v>139.08756124413034</v>
       </c>
     </row>
     <row r="2119" spans="1:7" x14ac:dyDescent="0.3">
@@ -78701,26 +78720,26 @@
         <v>20191019</v>
       </c>
       <c r="B2119" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C2119" s="4">
         <v>10</v>
       </c>
       <c r="D2119" s="7">
         <f t="shared" si="150"/>
-        <v>1.7482517482517484E-2</v>
+        <v>1.7513134851138354E-2</v>
       </c>
       <c r="E2119" s="17">
         <f t="shared" si="151"/>
-        <v>1.3935124613133227E-2</v>
+        <v>1.3926756423317085E-2</v>
       </c>
       <c r="F2119">
         <f t="shared" si="152"/>
-        <v>174.82517482517483</v>
+        <v>175.13134851138355</v>
       </c>
       <c r="G2119">
         <f t="shared" si="153"/>
-        <v>139.35124613133226</v>
+        <v>139.26756423317084</v>
       </c>
     </row>
     <row r="2120" spans="1:7" x14ac:dyDescent="0.3">
@@ -78728,26 +78747,26 @@
         <v>20191020</v>
       </c>
       <c r="B2120" s="4">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C2120" s="4">
         <v>5</v>
       </c>
       <c r="D2120" s="7">
         <f t="shared" si="150"/>
-        <v>6.1881188118811884E-3</v>
+        <v>6.1576354679802959E-3</v>
       </c>
       <c r="E2120" s="17">
         <f t="shared" si="151"/>
-        <v>1.3670706322780442E-2</v>
+        <v>1.366132202150094E-2</v>
       </c>
       <c r="F2120">
         <f t="shared" si="152"/>
-        <v>61.881188118811878</v>
+        <v>61.576354679802961</v>
       </c>
       <c r="G2120">
         <f t="shared" si="153"/>
-        <v>136.70706322780441</v>
+        <v>136.61322021500939</v>
       </c>
     </row>
     <row r="2121" spans="1:7" x14ac:dyDescent="0.3">
@@ -78755,26 +78774,26 @@
         <v>20191021</v>
       </c>
       <c r="B2121" s="4">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C2121" s="4">
         <v>5</v>
       </c>
       <c r="D2121" s="7">
         <f t="shared" si="150"/>
-        <v>8.8495575221238937E-3</v>
+        <v>8.8183421516754845E-3</v>
       </c>
       <c r="E2121" s="17">
         <f t="shared" si="151"/>
-        <v>1.3214680597203637E-2</v>
+        <v>1.3204255783575852E-2</v>
       </c>
       <c r="F2121">
         <f t="shared" si="152"/>
-        <v>88.495575221238937</v>
+        <v>88.183421516754848</v>
       </c>
       <c r="G2121">
         <f t="shared" si="153"/>
-        <v>132.14680597203636</v>
+        <v>132.04255783575852</v>
       </c>
     </row>
     <row r="2122" spans="1:7" x14ac:dyDescent="0.3">
@@ -78782,26 +78801,26 @@
         <v>20191022</v>
       </c>
       <c r="B2122" s="4">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C2122" s="4">
         <v>4</v>
       </c>
       <c r="D2122" s="7">
         <f t="shared" si="150"/>
-        <v>6.2402496099843996E-3</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E2122" s="17">
         <f t="shared" si="151"/>
-        <v>1.3260719367811797E-2</v>
+        <v>1.3249325571325321E-2</v>
       </c>
       <c r="F2122">
         <f t="shared" si="152"/>
-        <v>62.402496099843994</v>
+        <v>62.11180124223602</v>
       </c>
       <c r="G2122">
         <f t="shared" si="153"/>
-        <v>132.60719367811797</v>
+        <v>132.49325571325321</v>
       </c>
     </row>
     <row r="2123" spans="1:7" x14ac:dyDescent="0.3">
@@ -78809,26 +78828,26 @@
         <v>20191023</v>
       </c>
       <c r="B2123" s="4">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C2123" s="4">
         <v>5</v>
       </c>
       <c r="D2123" s="7">
         <f t="shared" si="150"/>
-        <v>7.2886297376093291E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="E2123" s="17">
         <f t="shared" si="151"/>
-        <v>1.3279960045866339E-2</v>
+        <v>1.3267157818512688E-2</v>
       </c>
       <c r="F2123">
         <f t="shared" si="152"/>
-        <v>72.886297376093296</v>
+        <v>72.463768115942031</v>
       </c>
       <c r="G2123">
         <f t="shared" si="153"/>
-        <v>132.79960045866341</v>
+        <v>132.67157818512686</v>
       </c>
     </row>
     <row r="2124" spans="1:7" x14ac:dyDescent="0.3">
@@ -78836,26 +78855,26 @@
         <v>20191024</v>
       </c>
       <c r="B2124" s="4">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C2124" s="4">
         <v>10</v>
       </c>
       <c r="D2124" s="7">
         <f t="shared" si="150"/>
-        <v>1.3774104683195593E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="E2124" s="17">
         <f t="shared" si="151"/>
-        <v>1.3281779795468792E-2</v>
+        <v>1.3269610860284487E-2</v>
       </c>
       <c r="F2124">
         <f t="shared" si="152"/>
-        <v>137.74104683195591</v>
+        <v>137.93103448275861</v>
       </c>
       <c r="G2124">
         <f t="shared" si="153"/>
-        <v>132.8177979546879</v>
+        <v>132.69610860284487</v>
       </c>
     </row>
     <row r="2125" spans="1:7" x14ac:dyDescent="0.3">
@@ -78874,7 +78893,7 @@
       </c>
       <c r="E2125" s="17">
         <f t="shared" si="151"/>
-        <v>1.2965136326125885E-2</v>
+        <v>1.2952967390941579E-2</v>
       </c>
       <c r="F2125">
         <f t="shared" si="152"/>
@@ -78882,7 +78901,7 @@
       </c>
       <c r="G2125">
         <f t="shared" si="153"/>
-        <v>129.65136326125887</v>
+        <v>129.52967390941578</v>
       </c>
     </row>
     <row r="2126" spans="1:7" x14ac:dyDescent="0.3">
@@ -78890,26 +78909,26 @@
         <v>20191026</v>
       </c>
       <c r="B2126" s="4">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C2126" s="4">
         <v>9</v>
       </c>
       <c r="D2126" s="7">
         <f t="shared" si="150"/>
-        <v>1.4851485148514851E-2</v>
+        <v>1.4827018121911038E-2</v>
       </c>
       <c r="E2126" s="17">
         <f t="shared" si="151"/>
-        <v>1.3236472184543942E-2</v>
+        <v>1.3223487681806177E-2</v>
       </c>
       <c r="F2126">
         <f t="shared" si="152"/>
-        <v>148.51485148514851</v>
+        <v>148.27018121911038</v>
       </c>
       <c r="G2126">
         <f t="shared" si="153"/>
-        <v>132.36472184543942</v>
+        <v>132.23487681806176</v>
       </c>
     </row>
     <row r="2127" spans="1:7" x14ac:dyDescent="0.3">
@@ -78917,26 +78936,26 @@
         <v>20191027</v>
       </c>
       <c r="B2127" s="4">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C2127" s="4">
         <v>6</v>
       </c>
       <c r="D2127" s="7">
         <f t="shared" si="150"/>
-        <v>7.3619631901840491E-3</v>
+        <v>7.2815533980582527E-3</v>
       </c>
       <c r="E2127" s="17">
         <f t="shared" si="151"/>
-        <v>1.3145170620849743E-2</v>
+        <v>1.3129505791707784E-2</v>
       </c>
       <c r="F2127">
         <f t="shared" si="152"/>
-        <v>73.619631901840492</v>
+        <v>72.815533980582529</v>
       </c>
       <c r="G2127">
         <f t="shared" si="153"/>
-        <v>131.45170620849743</v>
+        <v>131.29505791707783</v>
       </c>
     </row>
     <row r="2128" spans="1:7" x14ac:dyDescent="0.3">
@@ -78944,26 +78963,26 @@
         <v>20191028</v>
       </c>
       <c r="B2128" s="4">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C2128" s="4">
         <v>7</v>
       </c>
       <c r="D2128" s="7">
         <f t="shared" si="150"/>
-        <v>1.2173913043478261E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="E2128" s="17">
         <f t="shared" si="151"/>
-        <v>1.3252816261356857E-2</v>
+        <v>1.3235744856473306E-2</v>
       </c>
       <c r="F2128">
         <f t="shared" si="152"/>
-        <v>121.7391304347826</v>
+        <v>121.31715771230502</v>
       </c>
       <c r="G2128">
         <f t="shared" si="153"/>
-        <v>132.52816261356855</v>
+        <v>132.35744856473306</v>
       </c>
     </row>
     <row r="2129" spans="1:7" x14ac:dyDescent="0.3">
@@ -78971,26 +78990,26 @@
         <v>20191029</v>
       </c>
       <c r="B2129" s="4">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C2129" s="4">
         <v>9</v>
       </c>
       <c r="D2129" s="7">
         <f t="shared" si="150"/>
-        <v>1.3782542113323124E-2</v>
+        <v>1.3761467889908258E-2</v>
       </c>
       <c r="E2129" s="17">
         <f t="shared" si="151"/>
-        <v>1.3468331892776571E-2</v>
+        <v>1.3450558013779191E-2</v>
       </c>
       <c r="F2129">
         <f t="shared" si="152"/>
-        <v>137.82542113323123</v>
+        <v>137.61467889908258</v>
       </c>
       <c r="G2129">
         <f t="shared" si="153"/>
-        <v>134.6833189277657</v>
+        <v>134.5055801377919</v>
       </c>
     </row>
     <row r="2130" spans="1:7" x14ac:dyDescent="0.3">
@@ -78998,26 +79017,26 @@
         <v>20191030</v>
       </c>
       <c r="B2130" s="4">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C2130" s="4">
         <v>7</v>
       </c>
       <c r="D2130" s="7">
         <f t="shared" si="150"/>
-        <v>1.0028653295128941E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E2130" s="17">
         <f t="shared" si="151"/>
-        <v>1.351226028948993E-2</v>
+        <v>1.3493531300654919E-2</v>
       </c>
       <c r="F2130">
         <f t="shared" si="152"/>
-        <v>100.2865329512894</v>
+        <v>100</v>
       </c>
       <c r="G2130">
         <f t="shared" si="153"/>
-        <v>135.1226028948993</v>
+        <v>134.93531300654919</v>
       </c>
     </row>
     <row r="2131" spans="1:7" x14ac:dyDescent="0.3">
@@ -79025,26 +79044,26 @@
         <v>20191031</v>
       </c>
       <c r="B2131" s="4">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C2131" s="4">
         <v>13</v>
       </c>
       <c r="D2131" s="7">
         <f t="shared" si="150"/>
-        <v>1.8387553041018388E-2</v>
+        <v>1.8207282913165267E-2</v>
       </c>
       <c r="E2131" s="17">
         <f t="shared" si="151"/>
-        <v>1.3926766025777842E-2</v>
+        <v>1.3902322850955079E-2</v>
       </c>
       <c r="F2131">
         <f t="shared" si="152"/>
-        <v>183.87553041018387</v>
+        <v>182.07282913165267</v>
       </c>
       <c r="G2131">
         <f t="shared" si="153"/>
-        <v>139.2676602577784</v>
+        <v>139.02322850955079</v>
       </c>
     </row>
     <row r="2132" spans="1:7" x14ac:dyDescent="0.3">
@@ -79052,26 +79071,26 @@
         <v>20191101</v>
       </c>
       <c r="B2132" s="4">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C2132" s="4">
         <v>11</v>
       </c>
       <c r="D2132" s="7">
         <f t="shared" si="150"/>
-        <v>1.4397905759162303E-2</v>
+        <v>1.4379084967320261E-2</v>
       </c>
       <c r="E2132" s="17">
         <f t="shared" si="151"/>
-        <v>1.3642608347644858E-2</v>
+        <v>1.3617537813094023E-2</v>
       </c>
       <c r="F2132">
         <f t="shared" si="152"/>
-        <v>143.97905759162305</v>
+        <v>143.79084967320262</v>
       </c>
       <c r="G2132">
         <f t="shared" si="153"/>
-        <v>136.42608347644858</v>
+        <v>136.17537813094023</v>
       </c>
     </row>
     <row r="2133" spans="1:7" x14ac:dyDescent="0.3">
@@ -79079,26 +79098,26 @@
         <v>20191102</v>
       </c>
       <c r="B2133" s="4">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C2133" s="4">
         <v>6</v>
       </c>
       <c r="D2133" s="7">
         <f t="shared" si="150"/>
-        <v>1.0434782608695653E-2</v>
+        <v>1.0471204188481676E-2</v>
       </c>
       <c r="E2133" s="17">
         <f t="shared" si="151"/>
-        <v>1.3206120709111183E-2</v>
+        <v>1.3141925174932305E-2</v>
       </c>
       <c r="F2133">
         <f t="shared" si="152"/>
-        <v>104.34782608695652</v>
+        <v>104.71204188481676</v>
       </c>
       <c r="G2133">
         <f t="shared" si="153"/>
-        <v>132.06120709111181</v>
+        <v>131.41925174932305</v>
       </c>
     </row>
     <row r="2134" spans="1:7" x14ac:dyDescent="0.3">
@@ -79106,26 +79125,26 @@
         <v>20191103</v>
       </c>
       <c r="B2134" s="4">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="C2134" s="4">
         <v>6</v>
       </c>
       <c r="D2134" s="7">
         <f t="shared" si="150"/>
-        <v>7.3800738007380072E-3</v>
+        <v>7.3170731707317077E-3</v>
       </c>
       <c r="E2134" s="17">
         <f t="shared" si="151"/>
-        <v>1.2722822439835054E-2</v>
+        <v>1.2655587064128514E-2</v>
       </c>
       <c r="F2134">
         <f t="shared" si="152"/>
-        <v>73.800738007380076</v>
+        <v>73.170731707317074</v>
       </c>
       <c r="G2134">
         <f t="shared" si="153"/>
-        <v>127.22822439835053</v>
+        <v>126.55587064128515</v>
       </c>
     </row>
     <row r="2135" spans="1:7" x14ac:dyDescent="0.3">
@@ -79133,26 +79152,26 @@
         <v>20191104</v>
       </c>
       <c r="B2135" s="4">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C2135" s="4">
         <v>3</v>
       </c>
       <c r="D2135" s="7">
         <f t="shared" si="150"/>
-        <v>4.8622366288492711E-3</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="E2135" s="17">
         <f t="shared" si="151"/>
-        <v>1.2114819986429258E-2</v>
+        <v>1.2042709423346917E-2</v>
       </c>
       <c r="F2135">
         <f t="shared" si="152"/>
-        <v>48.622366288492707</v>
+        <v>48.309178743961354</v>
       </c>
       <c r="G2135">
         <f t="shared" si="153"/>
-        <v>121.14819986429256</v>
+        <v>120.42709423346916</v>
       </c>
     </row>
     <row r="2136" spans="1:7" x14ac:dyDescent="0.3">
@@ -79160,26 +79179,26 @@
         <v>20191105</v>
       </c>
       <c r="B2136" s="4">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C2136" s="4">
         <v>11</v>
       </c>
       <c r="D2136" s="7">
         <f t="shared" si="150"/>
-        <v>1.7799352750809062E-2</v>
+        <v>1.7741935483870968E-2</v>
       </c>
       <c r="E2136" s="17">
         <f t="shared" si="151"/>
-        <v>1.2462732971783427E-2</v>
+        <v>1.2389009233593597E-2</v>
       </c>
       <c r="F2136">
         <f t="shared" si="152"/>
-        <v>177.99352750809061</v>
+        <v>177.41935483870967</v>
       </c>
       <c r="G2136">
         <f t="shared" si="153"/>
-        <v>124.62732971783426</v>
+        <v>123.89009233593598</v>
       </c>
     </row>
     <row r="2137" spans="1:7" x14ac:dyDescent="0.3">
@@ -79187,26 +79206,26 @@
         <v>20191106</v>
       </c>
       <c r="B2137" s="4">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2137" s="4">
         <v>11</v>
       </c>
       <c r="D2137" s="7">
         <f t="shared" si="150"/>
-        <v>1.6467065868263474E-2</v>
+        <v>1.6491754122938532E-2</v>
       </c>
       <c r="E2137" s="17">
         <f t="shared" si="151"/>
-        <v>1.2737060757727186E-2</v>
+        <v>1.2665061683559091E-2</v>
       </c>
       <c r="F2137">
         <f t="shared" si="152"/>
-        <v>164.67065868263475</v>
+        <v>164.91754122938531</v>
       </c>
       <c r="G2137">
         <f t="shared" si="153"/>
-        <v>127.37060757727185</v>
+        <v>126.65061683559091</v>
       </c>
     </row>
     <row r="2138" spans="1:7" x14ac:dyDescent="0.3">
@@ -79214,26 +79233,26 @@
         <v>20191107</v>
       </c>
       <c r="B2138" s="4">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C2138" s="4">
         <v>9</v>
       </c>
       <c r="D2138" s="7">
         <f t="shared" si="150"/>
-        <v>1.3177159590043924E-2</v>
+        <v>1.3138686131386862E-2</v>
       </c>
       <c r="E2138" s="17">
         <f t="shared" si="151"/>
-        <v>1.2798737382681188E-2</v>
+        <v>1.2726065814702247E-2</v>
       </c>
       <c r="F2138">
         <f t="shared" si="152"/>
-        <v>131.77159590043922</v>
+        <v>131.38686131386862</v>
       </c>
       <c r="G2138">
         <f t="shared" si="153"/>
-        <v>127.98737382681186</v>
+        <v>127.26065814702245</v>
       </c>
     </row>
     <row r="2139" spans="1:7" x14ac:dyDescent="0.3">
@@ -79241,26 +79260,26 @@
         <v>20191108</v>
       </c>
       <c r="B2139" s="4">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C2139" s="4">
         <v>12</v>
       </c>
       <c r="D2139" s="7">
         <f t="shared" si="150"/>
-        <v>1.5345268542199489E-2</v>
+        <v>1.532567049808429E-2</v>
       </c>
       <c r="E2139" s="17">
         <f t="shared" si="151"/>
-        <v>1.2829938937353926E-2</v>
+        <v>1.2756614101237814E-2</v>
       </c>
       <c r="F2139">
         <f t="shared" si="152"/>
-        <v>153.45268542199489</v>
+        <v>153.2567049808429</v>
       </c>
       <c r="G2139">
         <f t="shared" si="153"/>
-        <v>128.29938937353927</v>
+        <v>127.56614101237813</v>
       </c>
     </row>
     <row r="2140" spans="1:7" x14ac:dyDescent="0.3">
@@ -79268,26 +79287,26 @@
         <v>20191109</v>
       </c>
       <c r="B2140" s="4">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C2140" s="4">
         <v>14</v>
       </c>
       <c r="D2140" s="7">
         <f t="shared" si="150"/>
-        <v>2.491103202846975E-2</v>
+        <v>2.4955436720142603E-2</v>
       </c>
       <c r="E2140" s="17">
         <f t="shared" si="151"/>
-        <v>1.3320665720641585E-2</v>
+        <v>1.3248821040914571E-2</v>
       </c>
       <c r="F2140">
         <f t="shared" si="152"/>
-        <v>249.11032028469751</v>
+        <v>249.55436720142603</v>
       </c>
       <c r="G2140">
         <f t="shared" si="153"/>
-        <v>133.20665720641585</v>
+        <v>132.48821040914572</v>
       </c>
     </row>
     <row r="2141" spans="1:7" x14ac:dyDescent="0.3">
@@ -79295,26 +79314,26 @@
         <v>20191110</v>
       </c>
       <c r="B2141" s="4">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C2141" s="4">
         <v>11</v>
       </c>
       <c r="D2141" s="7">
         <f t="shared" si="150"/>
-        <v>1.3301088270858524E-2</v>
+        <v>1.3189448441247002E-2</v>
       </c>
       <c r="E2141" s="17">
         <f t="shared" si="151"/>
-        <v>1.3332256400481949E-2</v>
+        <v>1.3257248968688783E-2</v>
       </c>
       <c r="F2141">
         <f t="shared" si="152"/>
-        <v>133.01088270858523</v>
+        <v>131.89448441247004</v>
       </c>
       <c r="G2141">
         <f t="shared" si="153"/>
-        <v>133.32256400481947</v>
+        <v>132.57248968688782</v>
       </c>
     </row>
     <row r="2142" spans="1:7" x14ac:dyDescent="0.3">
@@ -79322,26 +79341,26 @@
         <v>20191111</v>
       </c>
       <c r="B2142" s="4">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C2142" s="4">
         <v>6</v>
       </c>
       <c r="D2142" s="7">
         <f t="shared" si="150"/>
-        <v>1.0507880910683012E-2</v>
+        <v>1.0471204188481676E-2</v>
       </c>
       <c r="E2142" s="17">
         <f t="shared" si="151"/>
-        <v>1.2911169235245764E-2</v>
+        <v>1.2831095309855224E-2</v>
       </c>
       <c r="F2142">
         <f t="shared" si="152"/>
-        <v>105.07880910683012</v>
+        <v>104.71204188481676</v>
       </c>
       <c r="G2142">
         <f t="shared" si="153"/>
-        <v>129.11169235245762</v>
+        <v>128.31095309855223</v>
       </c>
     </row>
     <row r="2143" spans="1:7" x14ac:dyDescent="0.3">
@@ -79349,26 +79368,26 @@
         <v>20191112</v>
       </c>
       <c r="B2143" s="4">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C2143" s="4">
         <v>10</v>
       </c>
       <c r="D2143" s="7">
         <f t="shared" si="150"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5772870662460567E-2</v>
       </c>
       <c r="E2143" s="17">
         <f t="shared" si="151"/>
-        <v>1.3203302939701742E-2</v>
+        <v>1.3119890840626027E-2</v>
       </c>
       <c r="F2143">
         <f t="shared" si="152"/>
-        <v>158.73015873015873</v>
+        <v>157.72870662460568</v>
       </c>
       <c r="G2143">
         <f t="shared" si="153"/>
-        <v>132.03302939701743</v>
+        <v>131.19890840626027</v>
       </c>
     </row>
     <row r="2144" spans="1:7" x14ac:dyDescent="0.3">
@@ -79376,26 +79395,26 @@
         <v>20191113</v>
       </c>
       <c r="B2144" s="4">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C2144" s="4">
         <v>9</v>
       </c>
       <c r="D2144" s="7">
         <f t="shared" ref="D2144:D2202" si="154">C2144/B2144</f>
-        <v>1.2987012987012988E-2</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="E2144" s="17">
         <f t="shared" ref="E2144:E2202" si="155">AVERAGE(D2115:D2144)</f>
-        <v>1.3196159368201737E-2</v>
+        <v>1.3112328832156578E-2</v>
       </c>
       <c r="F2144">
         <f t="shared" ref="F2144:F2202" si="156">D2144/0.01*100</f>
-        <v>129.87012987012986</v>
+        <v>129.31034482758622</v>
       </c>
       <c r="G2144">
         <f t="shared" ref="G2144:G2202" si="157">E2144/0.01*100</f>
-        <v>131.96159368201737</v>
+        <v>131.12328832156578</v>
       </c>
     </row>
     <row r="2145" spans="1:7" x14ac:dyDescent="0.3">
@@ -79403,26 +79422,26 @@
         <v>20191114</v>
       </c>
       <c r="B2145" s="4">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C2145" s="4">
         <v>8</v>
       </c>
       <c r="D2145" s="7">
         <f t="shared" si="154"/>
-        <v>1.2987012987012988E-2</v>
+        <v>1.2965964343598054E-2</v>
       </c>
       <c r="E2145" s="17">
         <f t="shared" si="155"/>
-        <v>1.2695506808241103E-2</v>
+        <v>1.2615565894975967E-2</v>
       </c>
       <c r="F2145">
         <f t="shared" si="156"/>
-        <v>129.87012987012986</v>
+        <v>129.65964343598054</v>
       </c>
       <c r="G2145">
         <f t="shared" si="157"/>
-        <v>126.95506808241103</v>
+        <v>126.15565894975967</v>
       </c>
     </row>
     <row r="2146" spans="1:7" x14ac:dyDescent="0.3">
@@ -79441,7 +79460,7 @@
       </c>
       <c r="E2146" s="17">
         <f t="shared" si="155"/>
-        <v>1.2520975457239165E-2</v>
+        <v>1.248804047080828E-2</v>
       </c>
       <c r="F2146">
         <f t="shared" si="156"/>
@@ -79449,7 +79468,7 @@
       </c>
       <c r="G2146">
         <f t="shared" si="157"/>
-        <v>125.20975457239165</v>
+        <v>124.88040470808279</v>
       </c>
     </row>
     <row r="2147" spans="1:7" x14ac:dyDescent="0.3">
@@ -79457,26 +79476,26 @@
         <v>20191116</v>
       </c>
       <c r="B2147" s="4">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C2147" s="4">
         <v>2</v>
       </c>
       <c r="D2147" s="7">
         <f t="shared" si="154"/>
-        <v>3.3613445378151263E-3</v>
+        <v>3.3783783783783786E-3</v>
       </c>
       <c r="E2147" s="17">
         <f t="shared" si="155"/>
-        <v>1.2035319125741049E-2</v>
+        <v>1.2003775213815749E-2</v>
       </c>
       <c r="F2147">
         <f t="shared" si="156"/>
-        <v>33.613445378151262</v>
+        <v>33.783783783783782</v>
       </c>
       <c r="G2147">
         <f t="shared" si="157"/>
-        <v>120.35319125741049</v>
+        <v>120.03775213815749</v>
       </c>
     </row>
     <row r="2148" spans="1:7" x14ac:dyDescent="0.3">
@@ -79484,26 +79503,26 @@
         <v>20191117</v>
       </c>
       <c r="B2148" s="4">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C2148" s="4">
         <v>6</v>
       </c>
       <c r="D2148" s="7">
         <f t="shared" si="154"/>
-        <v>6.9767441860465115E-3</v>
+        <v>6.9044879171461446E-3</v>
       </c>
       <c r="E2148" s="17">
         <f t="shared" si="155"/>
-        <v>1.1665467626721715E-2</v>
+        <v>1.1633324210453353E-2</v>
       </c>
       <c r="F2148">
         <f t="shared" si="156"/>
-        <v>69.767441860465112</v>
+        <v>69.044879171461446</v>
       </c>
       <c r="G2148">
         <f t="shared" si="157"/>
-        <v>116.65467626721716</v>
+        <v>116.33324210453353</v>
       </c>
     </row>
     <row r="2149" spans="1:7" x14ac:dyDescent="0.3">
@@ -79511,26 +79530,26 @@
         <v>20191118</v>
       </c>
       <c r="B2149" s="4">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C2149" s="4">
         <v>5</v>
       </c>
       <c r="D2149" s="7">
         <f t="shared" si="154"/>
-        <v>8.9766606822262122E-3</v>
+        <v>8.8967971530249119E-3</v>
       </c>
       <c r="E2149" s="17">
         <f t="shared" si="155"/>
-        <v>1.1381939066712006E-2</v>
+        <v>1.1346112953849574E-2</v>
       </c>
       <c r="F2149">
         <f t="shared" si="156"/>
-        <v>89.766606822262119</v>
+        <v>88.967971530249116</v>
       </c>
       <c r="G2149">
         <f t="shared" si="157"/>
-        <v>113.81939066712006</v>
+        <v>113.46112953849574</v>
       </c>
     </row>
     <row r="2150" spans="1:7" x14ac:dyDescent="0.3">
@@ -79538,26 +79557,26 @@
         <v>20191119</v>
       </c>
       <c r="B2150" s="4">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C2150" s="4">
         <v>6</v>
       </c>
       <c r="D2150" s="7">
         <f t="shared" si="154"/>
-        <v>1.0135135135135136E-2</v>
+        <v>1.0067114093959731E-2</v>
       </c>
       <c r="E2150" s="17">
         <f t="shared" si="155"/>
-        <v>1.1513506277487139E-2</v>
+        <v>1.1476428908048888E-2</v>
       </c>
       <c r="F2150">
         <f t="shared" si="156"/>
-        <v>101.35135135135135</v>
+        <v>100.67114093959731</v>
       </c>
       <c r="G2150">
         <f t="shared" si="157"/>
-        <v>115.13506277487137</v>
+        <v>114.76428908048888</v>
       </c>
     </row>
     <row r="2151" spans="1:7" x14ac:dyDescent="0.3">
@@ -79565,26 +79584,26 @@
         <v>20191120</v>
       </c>
       <c r="B2151" s="4">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C2151" s="4">
         <v>8</v>
       </c>
       <c r="D2151" s="7">
         <f t="shared" si="154"/>
-        <v>1.1080332409972299E-2</v>
+        <v>1.1049723756906077E-2</v>
       </c>
       <c r="E2151" s="17">
         <f t="shared" si="155"/>
-        <v>1.1587865440415419E-2</v>
+        <v>1.1550808294889907E-2</v>
       </c>
       <c r="F2151">
         <f t="shared" si="156"/>
-        <v>110.803324099723</v>
+        <v>110.49723756906076</v>
       </c>
       <c r="G2151">
         <f t="shared" si="157"/>
-        <v>115.87865440415419</v>
+        <v>115.50808294889907</v>
       </c>
     </row>
     <row r="2152" spans="1:7" x14ac:dyDescent="0.3">
@@ -79592,26 +79611,26 @@
         <v>20191121</v>
       </c>
       <c r="B2152" s="4">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C2152" s="4">
         <v>7</v>
       </c>
       <c r="D2152" s="7">
         <f t="shared" si="154"/>
-        <v>1.0189228529839884E-2</v>
+        <v>1.0144927536231883E-2</v>
       </c>
       <c r="E2152" s="17">
         <f t="shared" si="155"/>
-        <v>1.1719498071077269E-2</v>
+        <v>1.1681933208623518E-2</v>
       </c>
       <c r="F2152">
         <f t="shared" si="156"/>
-        <v>101.89228529839885</v>
+        <v>101.44927536231883</v>
       </c>
       <c r="G2152">
         <f t="shared" si="157"/>
-        <v>117.19498071077268</v>
+        <v>116.81933208623518</v>
       </c>
     </row>
     <row r="2153" spans="1:7" x14ac:dyDescent="0.3">
@@ -79619,26 +79638,26 @@
         <v>20191122</v>
       </c>
       <c r="B2153" s="4">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C2153" s="4">
         <v>5</v>
       </c>
       <c r="D2153" s="7">
         <f t="shared" si="154"/>
-        <v>6.7024128686327079E-3</v>
+        <v>6.6844919786096255E-3</v>
       </c>
       <c r="E2153" s="17">
         <f t="shared" si="155"/>
-        <v>1.1699957508778048E-2</v>
+        <v>1.1663203714190698E-2</v>
       </c>
       <c r="F2153">
         <f t="shared" si="156"/>
-        <v>67.024128686327074</v>
+        <v>66.844919786096256</v>
       </c>
       <c r="G2153">
         <f t="shared" si="157"/>
-        <v>116.99957508778047</v>
+        <v>116.63203714190698</v>
       </c>
     </row>
     <row r="2154" spans="1:7" x14ac:dyDescent="0.3">
@@ -79646,26 +79665,26 @@
         <v>20191123</v>
       </c>
       <c r="B2154" s="4">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C2154" s="4">
         <v>7</v>
       </c>
       <c r="D2154" s="7">
         <f t="shared" si="154"/>
-        <v>1.2006861063464836E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="E2154" s="17">
         <f t="shared" si="155"/>
-        <v>1.1641049388120354E-2</v>
+        <v>1.1605732449822883E-2</v>
       </c>
       <c r="F2154">
         <f t="shared" si="156"/>
-        <v>120.06861063464835</v>
+        <v>120.68965517241379</v>
       </c>
       <c r="G2154">
         <f t="shared" si="157"/>
-        <v>116.41049388120355</v>
+        <v>116.05732449822884</v>
       </c>
     </row>
     <row r="2155" spans="1:7" x14ac:dyDescent="0.3">
@@ -79673,26 +79692,26 @@
         <v>20191124</v>
       </c>
       <c r="B2155" s="4">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C2155" s="4">
         <v>10</v>
       </c>
       <c r="D2155" s="7">
         <f t="shared" si="154"/>
-        <v>1.1947431302270013E-2</v>
+        <v>1.1848341232227487E-2</v>
       </c>
       <c r="E2155" s="17">
         <f t="shared" si="155"/>
-        <v>1.1914764096950692E-2</v>
+        <v>1.1876144156318469E-2</v>
       </c>
       <c r="F2155">
         <f t="shared" si="156"/>
-        <v>119.47431302270013</v>
+        <v>118.48341232227486</v>
       </c>
       <c r="G2155">
         <f t="shared" si="157"/>
-        <v>119.14764096950692</v>
+        <v>118.76144156318469</v>
       </c>
     </row>
     <row r="2156" spans="1:7" x14ac:dyDescent="0.3">
@@ -79700,26 +79719,26 @@
         <v>20191125</v>
       </c>
       <c r="B2156" s="4">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C2156" s="4">
         <v>2</v>
       </c>
       <c r="D2156" s="7">
         <f t="shared" si="154"/>
-        <v>3.5273368606701938E-3</v>
+        <v>3.5149384885764497E-3</v>
       </c>
       <c r="E2156" s="17">
         <f t="shared" si="155"/>
-        <v>1.153729248735587E-2</v>
+        <v>1.1499074835207316E-2</v>
       </c>
       <c r="F2156">
         <f t="shared" si="156"/>
-        <v>35.273368606701936</v>
+        <v>35.149384885764498</v>
       </c>
       <c r="G2156">
         <f t="shared" si="157"/>
-        <v>115.3729248735587</v>
+        <v>114.99074835207317</v>
       </c>
     </row>
     <row r="2157" spans="1:7" x14ac:dyDescent="0.3">
@@ -79727,26 +79746,26 @@
         <v>20191126</v>
       </c>
       <c r="B2157" s="4">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C2157" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2157" s="7">
         <f t="shared" si="154"/>
-        <v>1.4516129032258065E-2</v>
+        <v>1.610305958132045E-2</v>
       </c>
       <c r="E2157" s="17">
         <f t="shared" si="155"/>
-        <v>1.1775764682091671E-2</v>
+        <v>1.1793125041316056E-2</v>
       </c>
       <c r="F2157">
         <f t="shared" si="156"/>
-        <v>145.16129032258064</v>
+        <v>161.03059581320449</v>
       </c>
       <c r="G2157">
         <f t="shared" si="157"/>
-        <v>117.75764682091669</v>
+        <v>117.93125041316057</v>
       </c>
     </row>
     <row r="2158" spans="1:7" x14ac:dyDescent="0.3">
@@ -79754,26 +79773,26 @@
         <v>20191127</v>
       </c>
       <c r="B2158" s="4">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2158" s="4">
         <v>11</v>
       </c>
       <c r="D2158" s="7">
         <f t="shared" si="154"/>
-        <v>1.6248153618906941E-2</v>
+        <v>1.6296296296296295E-2</v>
       </c>
       <c r="E2158" s="17">
         <f t="shared" si="155"/>
-        <v>1.1911572701272626E-2</v>
+        <v>1.1931944392151584E-2</v>
       </c>
       <c r="F2158">
         <f t="shared" si="156"/>
-        <v>162.4815361890694</v>
+        <v>162.96296296296296</v>
       </c>
       <c r="G2158">
         <f t="shared" si="157"/>
-        <v>119.11572701272625</v>
+        <v>119.31944392151583</v>
       </c>
     </row>
     <row r="2159" spans="1:7" x14ac:dyDescent="0.3">
@@ -79781,26 +79800,26 @@
         <v>20191128</v>
       </c>
       <c r="B2159" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2159" s="4">
         <v>5</v>
       </c>
       <c r="D2159" s="7">
         <f t="shared" si="154"/>
-        <v>8.5910652920962206E-3</v>
+        <v>8.6058519793459545E-3</v>
       </c>
       <c r="E2159" s="17">
         <f t="shared" si="155"/>
-        <v>1.1738523473898397E-2</v>
+        <v>1.1760090528466171E-2</v>
       </c>
       <c r="F2159">
         <f t="shared" si="156"/>
-        <v>85.910652920962207</v>
+        <v>86.058519793459539</v>
       </c>
       <c r="G2159">
         <f t="shared" si="157"/>
-        <v>117.38523473898397</v>
+        <v>117.60090528466172</v>
       </c>
     </row>
     <row r="2160" spans="1:7" x14ac:dyDescent="0.3">
@@ -79819,7 +79838,7 @@
       </c>
       <c r="E2160" s="17">
         <f t="shared" si="155"/>
-        <v>1.1656378248074887E-2</v>
+        <v>1.1678900412480292E-2</v>
       </c>
       <c r="F2160">
         <f t="shared" si="156"/>
@@ -79827,7 +79846,7 @@
       </c>
       <c r="G2160">
         <f t="shared" si="157"/>
-        <v>116.56378248074888</v>
+        <v>116.78900412480291</v>
       </c>
     </row>
     <row r="2161" spans="1:7" x14ac:dyDescent="0.3">
@@ -79835,26 +79854,26 @@
         <v>20191130</v>
       </c>
       <c r="B2161" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C2161" s="4">
         <v>8</v>
       </c>
       <c r="D2161" s="7">
         <f t="shared" si="154"/>
-        <v>1.5810276679841896E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="E2161" s="17">
         <f t="shared" si="155"/>
-        <v>1.1570469036035669E-2</v>
+        <v>1.1601091511141979E-2</v>
       </c>
       <c r="F2161">
         <f t="shared" si="156"/>
-        <v>158.10276679841894</v>
+        <v>158.73015873015873</v>
       </c>
       <c r="G2161">
         <f t="shared" si="157"/>
-        <v>115.70469036035669</v>
+        <v>116.01091511141979</v>
       </c>
     </row>
     <row r="2162" spans="1:7" x14ac:dyDescent="0.3">
@@ -79862,26 +79881,26 @@
         <v>20191201</v>
       </c>
       <c r="B2162" s="4">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C2162" s="4">
         <v>9</v>
       </c>
       <c r="D2162" s="7">
         <f t="shared" si="154"/>
-        <v>1.1842105263157895E-2</v>
+        <v>1.1749347258485639E-2</v>
       </c>
       <c r="E2162" s="17">
         <f t="shared" si="155"/>
-        <v>1.1485275686168857E-2</v>
+        <v>1.1513433587514157E-2</v>
       </c>
       <c r="F2162">
         <f t="shared" si="156"/>
-        <v>118.42105263157893</v>
+        <v>117.49347258485639</v>
       </c>
       <c r="G2162">
         <f t="shared" si="157"/>
-        <v>114.85275686168856</v>
+        <v>115.13433587514157</v>
       </c>
     </row>
     <row r="2163" spans="1:7" x14ac:dyDescent="0.3">
@@ -79889,26 +79908,26 @@
         <v>20191202</v>
       </c>
       <c r="B2163" s="4">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C2163" s="4">
         <v>6</v>
       </c>
       <c r="D2163" s="7">
         <f t="shared" si="154"/>
-        <v>1.1090573012939002E-2</v>
+        <v>1.1049723756906077E-2</v>
       </c>
       <c r="E2163" s="17">
         <f t="shared" si="155"/>
-        <v>1.15071353663103E-2</v>
+        <v>1.1532717573128303E-2</v>
       </c>
       <c r="F2163">
         <f t="shared" si="156"/>
-        <v>110.90573012939002</v>
+        <v>110.49723756906076</v>
       </c>
       <c r="G2163">
         <f t="shared" si="157"/>
-        <v>115.071353663103</v>
+        <v>115.32717573128303</v>
       </c>
     </row>
     <row r="2164" spans="1:7" x14ac:dyDescent="0.3">
@@ -79916,26 +79935,26 @@
         <v>20191203</v>
       </c>
       <c r="B2164" s="4">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2164" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2164" s="7">
         <f t="shared" si="154"/>
-        <v>2.9126213592233011E-2</v>
+        <v>3.0694668820678513E-2</v>
       </c>
       <c r="E2164" s="17">
         <f t="shared" si="155"/>
-        <v>1.223200669269347E-2</v>
+        <v>1.2311970761459864E-2</v>
       </c>
       <c r="F2164">
         <f t="shared" si="156"/>
-        <v>291.26213592233012</v>
+        <v>306.9466882067851</v>
       </c>
       <c r="G2164">
         <f t="shared" si="157"/>
-        <v>122.32006692693471</v>
+        <v>123.11970761459862</v>
       </c>
     </row>
     <row r="2165" spans="1:7" x14ac:dyDescent="0.3">
@@ -79943,26 +79962,26 @@
         <v>20191204</v>
       </c>
       <c r="B2165" s="4">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C2165" s="4">
         <v>25</v>
       </c>
       <c r="D2165" s="7">
         <f t="shared" si="154"/>
-        <v>3.4674063800277391E-2</v>
+        <v>3.4530386740331494E-2</v>
       </c>
       <c r="E2165" s="17">
         <f t="shared" si="155"/>
-        <v>1.3225734265074405E-2</v>
+        <v>1.330195305699104E-2</v>
       </c>
       <c r="F2165">
         <f t="shared" si="156"/>
-        <v>346.74063800277389</v>
+        <v>345.30386740331494</v>
       </c>
       <c r="G2165">
         <f t="shared" si="157"/>
-        <v>132.25734265074405</v>
+        <v>133.01953056991042</v>
       </c>
     </row>
     <row r="2166" spans="1:7" x14ac:dyDescent="0.3">
@@ -79970,26 +79989,26 @@
         <v>20191205</v>
       </c>
       <c r="B2166" s="4">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C2166" s="4">
         <v>9</v>
       </c>
       <c r="D2166" s="7">
         <f t="shared" si="154"/>
-        <v>1.2295081967213115E-2</v>
+        <v>1.2228260869565218E-2</v>
       </c>
       <c r="E2166" s="17">
         <f t="shared" si="155"/>
-        <v>1.3042258572287874E-2</v>
+        <v>1.3118163903180852E-2</v>
       </c>
       <c r="F2166">
         <f t="shared" si="156"/>
-        <v>122.95081967213115</v>
+        <v>122.28260869565217</v>
       </c>
       <c r="G2166">
         <f t="shared" si="157"/>
-        <v>130.42258572287875</v>
+        <v>131.18163903180852</v>
       </c>
     </row>
     <row r="2167" spans="1:7" x14ac:dyDescent="0.3">
@@ -79997,26 +80016,26 @@
         <v>20191206</v>
       </c>
       <c r="B2167" s="4">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2167" s="4">
         <v>8</v>
       </c>
       <c r="D2167" s="7">
         <f t="shared" si="154"/>
-        <v>1.0512483574244415E-2</v>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="E2167" s="17">
         <f t="shared" si="155"/>
-        <v>1.2843772495820572E-2</v>
+        <v>1.2919315958732022E-2</v>
       </c>
       <c r="F2167">
         <f t="shared" si="156"/>
-        <v>105.12483574244416</v>
+        <v>105.26315789473684</v>
       </c>
       <c r="G2167">
         <f t="shared" si="157"/>
-        <v>128.43772495820571</v>
+        <v>129.1931595873202</v>
       </c>
     </row>
     <row r="2168" spans="1:7" x14ac:dyDescent="0.3">
@@ -80024,26 +80043,26 @@
         <v>20191207</v>
       </c>
       <c r="B2168" s="4">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C2168" s="4">
         <v>6</v>
       </c>
       <c r="D2168" s="7">
         <f t="shared" si="154"/>
-        <v>1.0084033613445379E-2</v>
+        <v>1.0067114093959731E-2</v>
       </c>
       <c r="E2168" s="17">
         <f t="shared" si="155"/>
-        <v>1.2740668296600617E-2</v>
+        <v>1.2816930224151118E-2</v>
       </c>
       <c r="F2168">
         <f t="shared" si="156"/>
-        <v>100.84033613445378</v>
+        <v>100.67114093959731</v>
       </c>
       <c r="G2168">
         <f t="shared" si="157"/>
-        <v>127.40668296600617</v>
+        <v>128.16930224151116</v>
       </c>
     </row>
     <row r="2169" spans="1:7" x14ac:dyDescent="0.3">
@@ -80051,26 +80070,26 @@
         <v>20191208</v>
       </c>
       <c r="B2169" s="4">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C2169" s="4">
         <v>9</v>
       </c>
       <c r="D2169" s="7">
         <f t="shared" si="154"/>
-        <v>1.0882708585247884E-2</v>
+        <v>1.0817307692307692E-2</v>
       </c>
       <c r="E2169" s="17">
         <f t="shared" si="155"/>
-        <v>1.2591916298035565E-2</v>
+        <v>1.2666651463958565E-2</v>
       </c>
       <c r="F2169">
         <f t="shared" si="156"/>
-        <v>108.82708585247885</v>
+        <v>108.17307692307692</v>
       </c>
       <c r="G2169">
         <f t="shared" si="157"/>
-        <v>125.91916298035564</v>
+        <v>126.66651463958564</v>
       </c>
     </row>
     <row r="2170" spans="1:7" x14ac:dyDescent="0.3">
@@ -80078,26 +80097,26 @@
         <v>20191209</v>
       </c>
       <c r="B2170" s="4">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C2170" s="4">
         <v>1</v>
       </c>
       <c r="D2170" s="7">
         <f t="shared" si="154"/>
-        <v>2E-3</v>
+        <v>1.9920318725099601E-3</v>
       </c>
       <c r="E2170" s="17">
         <f t="shared" si="155"/>
-        <v>1.1828215230419908E-2</v>
+        <v>1.1901204635704144E-2</v>
       </c>
       <c r="F2170">
         <f t="shared" si="156"/>
-        <v>20</v>
+        <v>19.920318725099602</v>
       </c>
       <c r="G2170">
         <f t="shared" si="157"/>
-        <v>118.28215230419907</v>
+        <v>119.01204635704144</v>
       </c>
     </row>
     <row r="2171" spans="1:7" x14ac:dyDescent="0.3">
@@ -80105,26 +80124,26 @@
         <v>20191210</v>
       </c>
       <c r="B2171" s="4">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2171" s="4">
         <v>8</v>
       </c>
       <c r="D2171" s="7">
         <f t="shared" si="154"/>
-        <v>1.3223140495867768E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="E2171" s="17">
         <f t="shared" si="155"/>
-        <v>1.182561697125355E-2</v>
+        <v>1.1903057458082003E-2</v>
       </c>
       <c r="F2171">
         <f t="shared" si="156"/>
-        <v>132.2314049586777</v>
+        <v>132.4503311258278</v>
       </c>
       <c r="G2171">
         <f t="shared" si="157"/>
-        <v>118.2561697125355</v>
+        <v>119.03057458082003</v>
       </c>
     </row>
     <row r="2172" spans="1:7" x14ac:dyDescent="0.3">
@@ -80132,26 +80151,26 @@
         <v>20191211</v>
       </c>
       <c r="B2172" s="4">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C2172" s="4">
         <v>16</v>
       </c>
       <c r="D2172" s="7">
         <f t="shared" si="154"/>
-        <v>2.318840579710145E-2</v>
+        <v>2.3154848046309694E-2</v>
       </c>
       <c r="E2172" s="17">
         <f t="shared" si="155"/>
-        <v>1.2248301134134163E-2</v>
+        <v>1.232584558667627E-2</v>
       </c>
       <c r="F2172">
         <f t="shared" si="156"/>
-        <v>231.8840579710145</v>
+        <v>231.54848046309695</v>
       </c>
       <c r="G2172">
         <f t="shared" si="157"/>
-        <v>122.48301134134164</v>
+        <v>123.25845586676269</v>
       </c>
     </row>
     <row r="2173" spans="1:7" x14ac:dyDescent="0.3">
@@ -80159,26 +80178,26 @@
         <v>20191212</v>
       </c>
       <c r="B2173" s="4">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C2173" s="4">
         <v>10</v>
       </c>
       <c r="D2173" s="7">
         <f t="shared" si="154"/>
-        <v>1.3966480446927373E-2</v>
+        <v>1.3908205841446454E-2</v>
       </c>
       <c r="E2173" s="17">
         <f t="shared" si="155"/>
-        <v>1.2184749953264547E-2</v>
+        <v>1.2263690092642467E-2</v>
       </c>
       <c r="F2173">
         <f t="shared" si="156"/>
-        <v>139.66480446927375</v>
+        <v>139.08205841446454</v>
       </c>
       <c r="G2173">
         <f t="shared" si="157"/>
-        <v>121.84749953264546</v>
+        <v>122.63690092642467</v>
       </c>
     </row>
     <row r="2174" spans="1:7" x14ac:dyDescent="0.3">
@@ -80186,26 +80205,26 @@
         <v>20191213</v>
       </c>
       <c r="B2174" s="4">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C2174" s="4">
         <v>18</v>
       </c>
       <c r="D2174" s="7">
         <f t="shared" si="154"/>
-        <v>2.3778071334214002E-2</v>
+        <v>2.356020942408377E-2</v>
       </c>
       <c r="E2174" s="17">
         <f t="shared" si="155"/>
-        <v>1.2544451898171247E-2</v>
+        <v>1.2617995924019972E-2</v>
       </c>
       <c r="F2174">
         <f t="shared" si="156"/>
-        <v>237.78071334213999</v>
+        <v>235.60209424083772</v>
       </c>
       <c r="G2174">
         <f t="shared" si="157"/>
-        <v>125.44451898171248</v>
+        <v>126.17995924019971</v>
       </c>
     </row>
     <row r="2175" spans="1:7" x14ac:dyDescent="0.3">
@@ -80213,26 +80232,26 @@
         <v>20191214</v>
       </c>
       <c r="B2175" s="4">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C2175" s="4">
         <v>18</v>
       </c>
       <c r="D2175" s="7">
         <f t="shared" si="154"/>
-        <v>3.3027522935779818E-2</v>
+        <v>3.2846715328467155E-2</v>
       </c>
       <c r="E2175" s="17">
         <f t="shared" si="155"/>
-        <v>1.3212468896463474E-2</v>
+        <v>1.3280687623515608E-2</v>
       </c>
       <c r="F2175">
         <f t="shared" si="156"/>
-        <v>330.2752293577982</v>
+        <v>328.46715328467155</v>
       </c>
       <c r="G2175">
         <f t="shared" si="157"/>
-        <v>132.12468896463474</v>
+        <v>132.80687623515607</v>
       </c>
     </row>
     <row r="2176" spans="1:7" x14ac:dyDescent="0.3">
@@ -80240,26 +80259,26 @@
         <v>20191215</v>
       </c>
       <c r="B2176" s="4">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="C2176" s="4">
         <v>10</v>
       </c>
       <c r="D2176" s="7">
         <f t="shared" si="154"/>
-        <v>1.3333333333333334E-2</v>
+        <v>1.3071895424836602E-2</v>
       </c>
       <c r="E2176" s="17">
         <f t="shared" si="155"/>
-        <v>1.335525421571938E-2</v>
+        <v>1.3414758345821624E-2</v>
       </c>
       <c r="F2176">
         <f t="shared" si="156"/>
-        <v>133.33333333333334</v>
+        <v>130.718954248366</v>
       </c>
       <c r="G2176">
         <f t="shared" si="157"/>
-        <v>133.55254215719381</v>
+        <v>134.14758345821622</v>
       </c>
     </row>
     <row r="2177" spans="1:7" x14ac:dyDescent="0.3">
@@ -80267,26 +80286,26 @@
         <v>20191216</v>
       </c>
       <c r="B2177" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C2177" s="4">
         <v>13</v>
       </c>
       <c r="D2177" s="7">
         <f t="shared" si="154"/>
-        <v>2.663934426229508E-2</v>
+        <v>2.6584867075664622E-2</v>
       </c>
       <c r="E2177" s="17">
         <f t="shared" si="155"/>
-        <v>1.4131187539868714E-2</v>
+        <v>1.4188307969064498E-2</v>
       </c>
       <c r="F2177">
         <f t="shared" si="156"/>
-        <v>266.39344262295077</v>
+        <v>265.84867075664624</v>
       </c>
       <c r="G2177">
         <f t="shared" si="157"/>
-        <v>141.31187539868714</v>
+        <v>141.88307969064496</v>
       </c>
     </row>
     <row r="2178" spans="1:7" x14ac:dyDescent="0.3">
@@ -80294,26 +80313,26 @@
         <v>20191217</v>
       </c>
       <c r="B2178" s="4">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C2178" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2178" s="7">
         <f t="shared" si="154"/>
-        <v>8.0645161290322578E-3</v>
+        <v>9.5846645367412137E-3</v>
       </c>
       <c r="E2178" s="17">
         <f t="shared" si="155"/>
-        <v>1.4167446604634905E-2</v>
+        <v>1.4277647189717668E-2</v>
       </c>
       <c r="F2178">
         <f t="shared" si="156"/>
-        <v>80.645161290322577</v>
+        <v>95.846645367412137</v>
       </c>
       <c r="G2178">
         <f t="shared" si="157"/>
-        <v>141.67446604634904</v>
+        <v>142.77647189717669</v>
       </c>
     </row>
     <row r="2179" spans="1:7" x14ac:dyDescent="0.3">
@@ -80321,26 +80340,26 @@
         <v>20191218</v>
       </c>
       <c r="B2179" s="4">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C2179" s="4">
         <v>9</v>
       </c>
       <c r="D2179" s="7">
         <f t="shared" si="154"/>
-        <v>1.3493253373313344E-2</v>
+        <v>1.3473053892215569E-2</v>
       </c>
       <c r="E2179" s="17">
         <f t="shared" si="155"/>
-        <v>1.4317999694337809E-2</v>
+        <v>1.4430189081024026E-2</v>
       </c>
       <c r="F2179">
         <f t="shared" si="156"/>
-        <v>134.93253373313343</v>
+        <v>134.73053892215569</v>
       </c>
       <c r="G2179">
         <f t="shared" si="157"/>
-        <v>143.17999694337809</v>
+        <v>144.30189081024025</v>
       </c>
     </row>
     <row r="2180" spans="1:7" x14ac:dyDescent="0.3">
@@ -80359,7 +80378,7 @@
       </c>
       <c r="E2180" s="17">
         <f t="shared" si="155"/>
-        <v>1.4381768282202783E-2</v>
+        <v>1.4496225036928177E-2</v>
       </c>
       <c r="F2180">
         <f t="shared" si="156"/>
@@ -80367,7 +80386,7 @@
       </c>
       <c r="G2180">
         <f t="shared" si="157"/>
-        <v>143.81768282202782</v>
+        <v>144.96225036928178</v>
       </c>
     </row>
     <row r="2181" spans="1:7" x14ac:dyDescent="0.3">
@@ -80375,26 +80394,26 @@
         <v>20191220</v>
       </c>
       <c r="B2181" s="4">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2181" s="4">
         <v>5</v>
       </c>
       <c r="D2181" s="7">
         <f t="shared" si="154"/>
-        <v>6.9348127600554789E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E2181" s="17">
         <f t="shared" si="155"/>
-        <v>1.4243584293872224E-2</v>
+        <v>1.4359382393179455E-2</v>
       </c>
       <c r="F2181">
         <f t="shared" si="156"/>
-        <v>69.34812760055479</v>
+        <v>69.444444444444443</v>
       </c>
       <c r="G2181">
         <f t="shared" si="157"/>
-        <v>142.43584293872223</v>
+        <v>143.59382393179453</v>
       </c>
     </row>
     <row r="2182" spans="1:7" x14ac:dyDescent="0.3">
@@ -80402,26 +80421,26 @@
         <v>20191221</v>
       </c>
       <c r="B2182" s="4">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C2182" s="4">
         <v>2</v>
       </c>
       <c r="D2182" s="7">
         <f t="shared" si="154"/>
-        <v>3.7593984962406013E-3</v>
+        <v>3.7735849056603774E-3</v>
       </c>
       <c r="E2182" s="17">
         <f t="shared" si="155"/>
-        <v>1.4029256626085581E-2</v>
+        <v>1.4147004305493739E-2</v>
       </c>
       <c r="F2182">
         <f t="shared" si="156"/>
-        <v>37.593984962406012</v>
+        <v>37.735849056603769</v>
       </c>
       <c r="G2182">
         <f t="shared" si="157"/>
-        <v>140.29256626085581</v>
+        <v>141.47004305493738</v>
       </c>
     </row>
     <row r="2183" spans="1:7" x14ac:dyDescent="0.3">
@@ -80429,26 +80448,26 @@
         <v>20191222</v>
       </c>
       <c r="B2183" s="4">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C2183" s="4">
         <v>6</v>
       </c>
       <c r="D2183" s="7">
         <f t="shared" si="154"/>
-        <v>7.7619663648124193E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="E2183" s="17">
         <f t="shared" si="155"/>
-        <v>1.4064575075958237E-2</v>
+        <v>1.4182585839023289E-2</v>
       </c>
       <c r="F2183">
         <f t="shared" si="156"/>
-        <v>77.619663648124188</v>
+        <v>77.519379844961236</v>
       </c>
       <c r="G2183">
         <f t="shared" si="157"/>
-        <v>140.64575075958237</v>
+        <v>141.8258583902329</v>
       </c>
     </row>
     <row r="2184" spans="1:7" x14ac:dyDescent="0.3">
@@ -80456,26 +80475,26 @@
         <v>20191223</v>
       </c>
       <c r="B2184" s="4">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C2184" s="4">
         <v>5</v>
       </c>
       <c r="D2184" s="7">
         <f t="shared" si="154"/>
-        <v>9.8619329388560158E-3</v>
+        <v>9.823182711198428E-3</v>
       </c>
       <c r="E2184" s="17">
         <f t="shared" si="155"/>
-        <v>1.3993077471804611E-2</v>
+        <v>1.4107726412155189E-2</v>
       </c>
       <c r="F2184">
         <f t="shared" si="156"/>
-        <v>98.619329388560161</v>
+        <v>98.231827111984288</v>
       </c>
       <c r="G2184">
         <f t="shared" si="157"/>
-        <v>139.93077471804611</v>
+        <v>141.07726412155188</v>
       </c>
     </row>
     <row r="2185" spans="1:7" x14ac:dyDescent="0.3">
@@ -80483,26 +80502,26 @@
         <v>20191224</v>
       </c>
       <c r="B2185" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C2185" s="4">
         <v>3</v>
       </c>
       <c r="D2185" s="7">
         <f t="shared" si="154"/>
-        <v>5.859375E-3</v>
+        <v>5.8708414872798431E-3</v>
       </c>
       <c r="E2185" s="17">
         <f t="shared" si="155"/>
-        <v>1.3790142261728942E-2</v>
+        <v>1.3908476420656934E-2</v>
       </c>
       <c r="F2185">
         <f t="shared" si="156"/>
-        <v>58.59375</v>
+        <v>58.708414872798429</v>
       </c>
       <c r="G2185">
         <f t="shared" si="157"/>
-        <v>137.90142261728943</v>
+        <v>139.08476420656933</v>
       </c>
     </row>
     <row r="2186" spans="1:7" x14ac:dyDescent="0.3">
@@ -80521,7 +80540,7 @@
       </c>
       <c r="E2186" s="17">
         <f t="shared" si="155"/>
-        <v>1.3820384026388051E-2</v>
+        <v>1.3939131464385834E-2</v>
       </c>
       <c r="F2186">
         <f t="shared" si="156"/>
@@ -80529,7 +80548,7 @@
       </c>
       <c r="G2186">
         <f t="shared" si="157"/>
-        <v>138.20384026388049</v>
+        <v>139.39131464385835</v>
       </c>
     </row>
     <row r="2187" spans="1:7" x14ac:dyDescent="0.3">
@@ -80537,26 +80556,26 @@
         <v>20191226</v>
       </c>
       <c r="B2187" s="4">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C2187" s="4">
         <v>8</v>
       </c>
       <c r="D2187" s="7">
         <f t="shared" si="154"/>
-        <v>1.9900497512437811E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="E2187" s="17">
         <f t="shared" si="155"/>
-        <v>1.3999862975727377E-2</v>
+        <v>1.4055957582916983E-2</v>
       </c>
       <c r="F2187">
         <f t="shared" si="156"/>
-        <v>199.00497512437809</v>
+        <v>196.07843137254901</v>
       </c>
       <c r="G2187">
         <f t="shared" si="157"/>
-        <v>139.99862975727376</v>
+        <v>140.55957582916983</v>
       </c>
     </row>
     <row r="2188" spans="1:7" x14ac:dyDescent="0.3">
@@ -80564,26 +80583,26 @@
         <v>20191227</v>
       </c>
       <c r="B2188" s="4">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C2188" s="4">
         <v>10</v>
       </c>
       <c r="D2188" s="7">
         <f t="shared" si="154"/>
-        <v>1.65016501650165E-2</v>
+        <v>1.6474464579901153E-2</v>
       </c>
       <c r="E2188" s="17">
         <f t="shared" si="155"/>
-        <v>1.4008312860597694E-2</v>
+        <v>1.4061896525703811E-2</v>
       </c>
       <c r="F2188">
         <f t="shared" si="156"/>
-        <v>165.016501650165</v>
+        <v>164.74464579901152</v>
       </c>
       <c r="G2188">
         <f t="shared" si="157"/>
-        <v>140.08312860597692</v>
+        <v>140.6189652570381</v>
       </c>
     </row>
     <row r="2189" spans="1:7" x14ac:dyDescent="0.3">
@@ -80591,26 +80610,26 @@
         <v>20191228</v>
       </c>
       <c r="B2189" s="4">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2189" s="4">
         <v>6</v>
       </c>
       <c r="D2189" s="7">
         <f t="shared" si="154"/>
-        <v>1.2121212121212121E-2</v>
+        <v>1.2170385395537525E-2</v>
       </c>
       <c r="E2189" s="17">
         <f t="shared" si="155"/>
-        <v>1.4125984421568226E-2</v>
+        <v>1.4180714306243533E-2</v>
       </c>
       <c r="F2189">
         <f t="shared" si="156"/>
-        <v>121.21212121212122</v>
+        <v>121.70385395537524</v>
       </c>
       <c r="G2189">
         <f t="shared" si="157"/>
-        <v>141.25984421568225</v>
+        <v>141.8071430624353</v>
       </c>
     </row>
     <row r="2190" spans="1:7" x14ac:dyDescent="0.3">
@@ -80629,7 +80648,7 @@
       </c>
       <c r="E2190" s="17">
         <f t="shared" si="155"/>
-        <v>1.4312437695448843E-2</v>
+        <v>1.4367167580124147E-2</v>
       </c>
       <c r="F2190">
         <f t="shared" si="156"/>
@@ -80637,7 +80656,7 @@
       </c>
       <c r="G2190">
         <f t="shared" si="157"/>
-        <v>143.12437695448844</v>
+        <v>143.67167580124146</v>
       </c>
     </row>
     <row r="2191" spans="1:7" x14ac:dyDescent="0.3">
@@ -80645,26 +80664,26 @@
         <v>20191230</v>
       </c>
       <c r="B2191" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C2191" s="4">
         <v>3</v>
       </c>
       <c r="D2191" s="7">
         <f t="shared" si="154"/>
-        <v>6.5359477124183009E-3</v>
+        <v>6.5502183406113534E-3</v>
       </c>
       <c r="E2191" s="17">
         <f t="shared" si="155"/>
-        <v>1.4003293396534722E-2</v>
+        <v>1.4056407662377332E-2</v>
       </c>
       <c r="F2191">
         <f t="shared" si="156"/>
-        <v>65.359477124183002</v>
+        <v>65.502183406113531</v>
       </c>
       <c r="G2191">
         <f t="shared" si="157"/>
-        <v>140.03293396534721</v>
+        <v>140.5640766237733</v>
       </c>
     </row>
     <row r="2192" spans="1:7" x14ac:dyDescent="0.3">
@@ -80683,7 +80702,7 @@
       </c>
       <c r="E2192" s="17">
         <f t="shared" si="155"/>
-        <v>1.3924213120086024E-2</v>
+        <v>1.3980419319417708E-2</v>
       </c>
       <c r="F2192">
         <f t="shared" si="156"/>
@@ -80691,7 +80710,7 @@
       </c>
       <c r="G2192">
         <f t="shared" si="157"/>
-        <v>139.24213120086023</v>
+        <v>139.80419319417706</v>
       </c>
     </row>
     <row r="2193" spans="1:7" x14ac:dyDescent="0.3">
@@ -80699,26 +80718,26 @@
         <v>20200101</v>
       </c>
       <c r="B2193" s="4">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="C2193" s="4">
         <v>6</v>
       </c>
       <c r="D2193" s="7">
         <f t="shared" si="154"/>
-        <v>1.3186813186813187E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="E2193" s="17">
         <f t="shared" si="155"/>
-        <v>1.3994087792548496E-2</v>
+        <v>1.4036723644293659E-2</v>
       </c>
       <c r="F2193">
         <f t="shared" si="156"/>
-        <v>131.86813186813185</v>
+        <v>127.38853503184713</v>
       </c>
       <c r="G2193">
         <f t="shared" si="157"/>
-        <v>139.94087792548495</v>
+        <v>140.36723644293659</v>
       </c>
     </row>
     <row r="2194" spans="1:7" x14ac:dyDescent="0.3">
@@ -80726,26 +80745,26 @@
         <v>20200102</v>
       </c>
       <c r="B2194" s="4">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="C2194" s="4">
         <v>8</v>
       </c>
       <c r="D2194" s="7">
         <f t="shared" si="154"/>
-        <v>1.50093808630394E-2</v>
+        <v>1.4625228519195612E-2</v>
       </c>
       <c r="E2194" s="17">
         <f t="shared" si="155"/>
-        <v>1.3523526701575377E-2</v>
+        <v>1.3501075634244231E-2</v>
       </c>
       <c r="F2194">
         <f t="shared" si="156"/>
-        <v>150.09380863039399</v>
+        <v>146.25228519195613</v>
       </c>
       <c r="G2194">
         <f t="shared" si="157"/>
-        <v>135.23526701575378</v>
+        <v>135.01075634244231</v>
       </c>
     </row>
     <row r="2195" spans="1:7" x14ac:dyDescent="0.3">
@@ -80753,26 +80772,26 @@
         <v>20200103</v>
       </c>
       <c r="B2195" s="4">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C2195" s="4">
         <v>1</v>
       </c>
       <c r="D2195" s="7">
         <f t="shared" si="154"/>
-        <v>1.5290519877675841E-3</v>
+        <v>1.483679525222552E-3</v>
       </c>
       <c r="E2195" s="17">
         <f t="shared" si="155"/>
-        <v>1.2418692974491717E-2</v>
+        <v>1.2399518727073932E-2</v>
       </c>
       <c r="F2195">
         <f t="shared" si="156"/>
-        <v>15.290519877675839</v>
+        <v>14.836795252225521</v>
       </c>
       <c r="G2195">
         <f t="shared" si="157"/>
-        <v>124.18692974491717</v>
+        <v>123.99518727073932</v>
       </c>
     </row>
     <row r="2196" spans="1:7" x14ac:dyDescent="0.3">
@@ -80780,26 +80799,26 @@
         <v>20200104</v>
       </c>
       <c r="B2196" s="4">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C2196" s="4">
         <v>8</v>
       </c>
       <c r="D2196" s="7">
         <f t="shared" si="154"/>
-        <v>1.5122873345935728E-2</v>
+        <v>1.4414414414414415E-2</v>
       </c>
       <c r="E2196" s="17">
         <f t="shared" si="155"/>
-        <v>1.2512952687115803E-2</v>
+        <v>1.2472390511902241E-2</v>
       </c>
       <c r="F2196">
         <f t="shared" si="156"/>
-        <v>151.22873345935727</v>
+        <v>144.14414414414415</v>
       </c>
       <c r="G2196">
         <f t="shared" si="157"/>
-        <v>125.12952687115802</v>
+        <v>124.7239051190224</v>
       </c>
     </row>
     <row r="2197" spans="1:7" x14ac:dyDescent="0.3">
@@ -80807,26 +80826,26 @@
         <v>20200105</v>
       </c>
       <c r="B2197" s="4">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="C2197" s="4">
         <v>2</v>
       </c>
       <c r="D2197" s="7">
         <f t="shared" si="154"/>
-        <v>2.7894002789400278E-3</v>
+        <v>2.6666666666666666E-3</v>
       </c>
       <c r="E2197" s="17">
         <f t="shared" si="155"/>
-        <v>1.2255516577272323E-2</v>
+        <v>1.2210402207808672E-2</v>
       </c>
       <c r="F2197">
         <f t="shared" si="156"/>
-        <v>27.894002789400279</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G2197">
         <f t="shared" si="157"/>
-        <v>122.55516577272323</v>
+        <v>122.1040220780867</v>
       </c>
     </row>
     <row r="2198" spans="1:7" x14ac:dyDescent="0.3">
@@ -80834,26 +80853,26 @@
         <v>20200106</v>
       </c>
       <c r="B2198" s="4">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C2198" s="4">
         <v>5</v>
       </c>
       <c r="D2198" s="7">
         <f t="shared" si="154"/>
-        <v>1.0141987829614604E-2</v>
+        <v>1.002004008016032E-2</v>
       </c>
       <c r="E2198" s="17">
         <f t="shared" si="155"/>
-        <v>1.2257448384477962E-2</v>
+        <v>1.220883307401536E-2</v>
       </c>
       <c r="F2198">
         <f t="shared" si="156"/>
-        <v>101.41987829614605</v>
+        <v>100.20040080160319</v>
       </c>
       <c r="G2198">
         <f t="shared" si="157"/>
-        <v>122.57448384477962</v>
+        <v>122.08833074015359</v>
       </c>
     </row>
     <row r="2199" spans="1:7" x14ac:dyDescent="0.3">
@@ -80861,26 +80880,26 @@
         <v>20200107</v>
       </c>
       <c r="B2199" s="4">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C2199" s="4">
         <v>8</v>
       </c>
       <c r="D2199" s="7">
         <f t="shared" si="154"/>
-        <v>1.340033500837521E-2</v>
+        <v>1.3114754098360656E-2</v>
       </c>
       <c r="E2199" s="17">
         <f t="shared" si="155"/>
-        <v>1.2341369265248875E-2</v>
+        <v>1.2285414620883792E-2</v>
       </c>
       <c r="F2199">
         <f t="shared" si="156"/>
-        <v>134.00335008375208</v>
+        <v>131.14754098360655</v>
       </c>
       <c r="G2199">
         <f t="shared" si="157"/>
-        <v>123.41369265248873</v>
+        <v>122.85414620883792</v>
       </c>
     </row>
     <row r="2200" spans="1:7" x14ac:dyDescent="0.3">
@@ -80888,26 +80907,26 @@
         <v>20200108</v>
       </c>
       <c r="B2200" s="4">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="C2200" s="4">
         <v>14</v>
       </c>
       <c r="D2200" s="7">
         <f t="shared" si="154"/>
-        <v>2.0319303338171262E-2</v>
+        <v>1.9914651493598862E-2</v>
       </c>
       <c r="E2200" s="17">
         <f t="shared" si="155"/>
-        <v>1.2952012709854584E-2</v>
+        <v>1.2882835274920091E-2</v>
       </c>
       <c r="F2200">
         <f t="shared" si="156"/>
-        <v>203.19303338171261</v>
+        <v>199.14651493598859</v>
       </c>
       <c r="G2200">
         <f t="shared" si="157"/>
-        <v>129.52012709854583</v>
+        <v>128.82835274920092</v>
       </c>
     </row>
     <row r="2201" spans="1:7" x14ac:dyDescent="0.3">
@@ -80915,26 +80934,26 @@
         <v>20200109</v>
       </c>
       <c r="B2201" s="4">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C2201" s="4">
         <v>6</v>
       </c>
       <c r="D2201" s="7">
         <f t="shared" si="154"/>
-        <v>8.771929824561403E-3</v>
+        <v>8.5836909871244635E-3</v>
       </c>
       <c r="E2201" s="17">
         <f t="shared" si="155"/>
-        <v>1.2803639020811037E-2</v>
+        <v>1.2727457204071478E-2</v>
       </c>
       <c r="F2201">
         <f t="shared" si="156"/>
-        <v>87.719298245614027</v>
+        <v>85.836909871244643</v>
       </c>
       <c r="G2201">
         <f t="shared" si="157"/>
-        <v>128.03639020811036</v>
+        <v>127.27457204071477</v>
       </c>
     </row>
     <row r="2202" spans="1:7" x14ac:dyDescent="0.3">
@@ -80942,26 +80961,863 @@
         <v>20200110</v>
       </c>
       <c r="B2202" s="4">
-        <v>607</v>
+        <v>746</v>
       </c>
       <c r="C2202" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2202" s="7">
         <f t="shared" si="154"/>
-        <v>8.2372322899505763E-3</v>
+        <v>9.3833780160857902E-3</v>
       </c>
       <c r="E2202" s="17">
         <f t="shared" si="155"/>
-        <v>1.2305266570572676E-2</v>
+        <v>1.2268408203064017E-2</v>
       </c>
       <c r="F2202">
         <f t="shared" si="156"/>
-        <v>82.372322899505761</v>
+        <v>93.833780160857899</v>
       </c>
       <c r="G2202">
         <f t="shared" si="157"/>
-        <v>123.05266570572677</v>
+        <v>122.68408203064016</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2203" s="4">
+        <v>20200111</v>
+      </c>
+      <c r="B2203" s="4">
+        <v>554</v>
+      </c>
+      <c r="C2203" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2203" s="7">
+        <f t="shared" ref="D2203:D2209" si="158">C2203/B2203</f>
+        <v>1.0830324909747292E-2</v>
+      </c>
+      <c r="E2203" s="17">
+        <f t="shared" ref="E2203:E2209" si="159">AVERAGE(D2174:D2203)</f>
+        <v>1.2165812172007377E-2</v>
+      </c>
+      <c r="F2203">
+        <f t="shared" ref="F2203:F2209" si="160">D2203/0.01*100</f>
+        <v>108.30324909747291</v>
+      </c>
+      <c r="G2203">
+        <f t="shared" ref="G2203:G2209" si="161">E2203/0.01*100</f>
+        <v>121.65812172007378</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2204" s="4">
+        <v>20200112</v>
+      </c>
+      <c r="B2204" s="4">
+        <v>726</v>
+      </c>
+      <c r="C2204" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2204" s="7">
+        <f t="shared" si="158"/>
+        <v>5.5096418732782371E-3</v>
+      </c>
+      <c r="E2204" s="17">
+        <f t="shared" si="159"/>
+        <v>1.1564126586980526E-2</v>
+      </c>
+      <c r="F2204">
+        <f t="shared" si="160"/>
+        <v>55.096418732782368</v>
+      </c>
+      <c r="G2204">
+        <f t="shared" si="161"/>
+        <v>115.64126586980525</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2205" s="4">
+        <v>20200113</v>
+      </c>
+      <c r="B2205" s="4">
+        <v>525</v>
+      </c>
+      <c r="C2205" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2205" s="7">
+        <f t="shared" si="158"/>
+        <v>7.619047619047619E-3</v>
+      </c>
+      <c r="E2205" s="17">
+        <f t="shared" si="159"/>
+        <v>1.0723204329999875E-2</v>
+      </c>
+      <c r="F2205">
+        <f t="shared" si="160"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="G2205">
+        <f t="shared" si="161"/>
+        <v>107.23204329999874</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2206" s="4">
+        <v>20200114</v>
+      </c>
+      <c r="B2206" s="4">
+        <v>614</v>
+      </c>
+      <c r="C2206" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2206" s="7">
+        <f t="shared" si="158"/>
+        <v>1.4657980456026058E-2</v>
+      </c>
+      <c r="E2206" s="17">
+        <f t="shared" si="159"/>
+        <v>1.0776073831039524E-2</v>
+      </c>
+      <c r="F2206">
+        <f t="shared" si="160"/>
+        <v>146.57980456026058</v>
+      </c>
+      <c r="G2206">
+        <f t="shared" si="161"/>
+        <v>107.76073831039523</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2207" s="4">
+        <v>20200115</v>
+      </c>
+      <c r="B2207" s="4">
+        <v>696</v>
+      </c>
+      <c r="C2207" s="4">
+        <v>25</v>
+      </c>
+      <c r="D2207" s="7">
+        <f t="shared" si="158"/>
+        <v>3.5919540229885055E-2</v>
+      </c>
+      <c r="E2207" s="17">
+        <f t="shared" si="159"/>
+        <v>1.108722960284687E-2</v>
+      </c>
+      <c r="F2207">
+        <f t="shared" si="160"/>
+        <v>359.19540229885058</v>
+      </c>
+      <c r="G2207">
+        <f t="shared" si="161"/>
+        <v>110.87229602846871</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2208" s="4">
+        <v>20200116</v>
+      </c>
+      <c r="B2208" s="4">
+        <v>700</v>
+      </c>
+      <c r="C2208" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2208" s="7">
+        <f t="shared" si="158"/>
+        <v>0.03</v>
+      </c>
+      <c r="E2208" s="17">
+        <f t="shared" si="159"/>
+        <v>1.1767740784955497E-2</v>
+      </c>
+      <c r="F2208">
+        <f t="shared" si="160"/>
+        <v>300</v>
+      </c>
+      <c r="G2208">
+        <f t="shared" si="161"/>
+        <v>117.67740784955495</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2209" s="4">
+        <v>20200117</v>
+      </c>
+      <c r="B2209" s="4">
+        <v>770</v>
+      </c>
+      <c r="C2209" s="4">
+        <v>17</v>
+      </c>
+      <c r="D2209" s="7">
+        <f t="shared" si="158"/>
+        <v>2.2077922077922078E-2</v>
+      </c>
+      <c r="E2209" s="17">
+        <f t="shared" si="159"/>
+        <v>1.2054569724479049E-2</v>
+      </c>
+      <c r="F2209">
+        <f t="shared" si="160"/>
+        <v>220.77922077922079</v>
+      </c>
+      <c r="G2209">
+        <f t="shared" si="161"/>
+        <v>120.54569724479049</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2210" s="4">
+        <v>20200118</v>
+      </c>
+      <c r="B2210" s="4">
+        <v>576</v>
+      </c>
+      <c r="C2210" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2210" s="7">
+        <f t="shared" ref="D2210:D2233" si="162">C2210/B2210</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E2210" s="17">
+        <f t="shared" ref="E2210:E2233" si="163">AVERAGE(D2181:D2210)</f>
+        <v>1.200018552099846E-2</v>
+      </c>
+      <c r="F2210">
+        <f t="shared" ref="F2210:F2233" si="164">D2210/0.01*100</f>
+        <v>104.16666666666666</v>
+      </c>
+      <c r="G2210">
+        <f t="shared" ref="G2210:G2233" si="165">E2210/0.01*100</f>
+        <v>120.00185520998458</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2211" s="4">
+        <v>20200119</v>
+      </c>
+      <c r="B2211" s="4">
+        <v>756</v>
+      </c>
+      <c r="C2211" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2211" s="7">
+        <f t="shared" si="162"/>
+        <v>1.4550264550264549E-2</v>
+      </c>
+      <c r="E2211" s="17">
+        <f t="shared" si="163"/>
+        <v>1.2253712857859129E-2</v>
+      </c>
+      <c r="F2211">
+        <f t="shared" si="164"/>
+        <v>145.50264550264549</v>
+      </c>
+      <c r="G2211">
+        <f t="shared" si="165"/>
+        <v>122.53712857859129</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2212" s="4">
+        <v>20200120</v>
+      </c>
+      <c r="B2212" s="4">
+        <v>451</v>
+      </c>
+      <c r="C2212" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2212" s="7">
+        <f t="shared" si="162"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="E2212" s="17">
+        <f t="shared" si="163"/>
+        <v>1.2940934824418418E-2</v>
+      </c>
+      <c r="F2212">
+        <f t="shared" si="164"/>
+        <v>243.90243902439025</v>
+      </c>
+      <c r="G2212">
+        <f t="shared" si="165"/>
+        <v>129.40934824418417</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2213" s="4">
+        <v>20200121</v>
+      </c>
+      <c r="B2213" s="4">
+        <v>557</v>
+      </c>
+      <c r="C2213" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2213" s="7">
+        <f t="shared" si="162"/>
+        <v>2.1543985637342909E-2</v>
+      </c>
+      <c r="E2213" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3400669746179978E-2</v>
+      </c>
+      <c r="F2213">
+        <f t="shared" si="164"/>
+        <v>215.43985637342908</v>
+      </c>
+      <c r="G2213">
+        <f t="shared" si="165"/>
+        <v>134.00669746179977</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2214" s="4">
+        <v>20200122</v>
+      </c>
+      <c r="B2214" s="4">
+        <v>702</v>
+      </c>
+      <c r="C2214" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2214" s="7">
+        <f t="shared" si="162"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="E2214" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3690514273090648E-2</v>
+      </c>
+      <c r="F2214">
+        <f t="shared" si="164"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="G2214">
+        <f t="shared" si="165"/>
+        <v>136.90514273090648</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2215" s="4">
+        <v>20200123</v>
+      </c>
+      <c r="B2215" s="4">
+        <v>706</v>
+      </c>
+      <c r="C2215" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2215" s="7">
+        <f t="shared" si="162"/>
+        <v>1.5580736543909348E-2</v>
+      </c>
+      <c r="E2215" s="17">
+        <f t="shared" si="163"/>
+        <v>1.4014177441644963E-2</v>
+      </c>
+      <c r="F2215">
+        <f t="shared" si="164"/>
+        <v>155.80736543909347</v>
+      </c>
+      <c r="G2215">
+        <f t="shared" si="165"/>
+        <v>140.14177441644961</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2216" s="4">
+        <v>20200124</v>
+      </c>
+      <c r="B2216" s="4">
+        <v>753</v>
+      </c>
+      <c r="C2216" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2216" s="7">
+        <f t="shared" si="162"/>
+        <v>1.3280212483399735E-2</v>
+      </c>
+      <c r="E2216" s="17">
+        <f t="shared" si="163"/>
+        <v>1.430903153107684E-2</v>
+      </c>
+      <c r="F2216">
+        <f t="shared" si="164"/>
+        <v>132.80212483399734</v>
+      </c>
+      <c r="G2216">
+        <f t="shared" si="165"/>
+        <v>143.0903153107684</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2217" s="4">
+        <v>20200125</v>
+      </c>
+      <c r="B2217" s="4">
+        <v>536</v>
+      </c>
+      <c r="C2217" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2217" s="7">
+        <f t="shared" si="162"/>
+        <v>9.3283582089552231E-3</v>
+      </c>
+      <c r="E2217" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3966382033466848E-2</v>
+      </c>
+      <c r="F2217">
+        <f t="shared" si="164"/>
+        <v>93.283582089552226</v>
+      </c>
+      <c r="G2217">
+        <f t="shared" si="165"/>
+        <v>139.66382033466849</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2218" s="4">
+        <v>20200126</v>
+      </c>
+      <c r="B2218" s="4">
+        <v>756</v>
+      </c>
+      <c r="C2218" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2218" s="7">
+        <f t="shared" si="162"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="E2218" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3946333743237341E-2</v>
+      </c>
+      <c r="F2218">
+        <f t="shared" si="164"/>
+        <v>158.73015873015873</v>
+      </c>
+      <c r="G2218">
+        <f t="shared" si="165"/>
+        <v>139.46333743237341</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2219" s="4">
+        <v>20200127</v>
+      </c>
+      <c r="B2219" s="4">
+        <v>512</v>
+      </c>
+      <c r="C2219" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2219" s="7">
+        <f t="shared" si="162"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E2219" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3670862563386088E-2</v>
+      </c>
+      <c r="F2219">
+        <f t="shared" si="164"/>
+        <v>39.0625</v>
+      </c>
+      <c r="G2219">
+        <f t="shared" si="165"/>
+        <v>136.70862563386089</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2220" s="4">
+        <v>20200128</v>
+      </c>
+      <c r="B2220" s="4">
+        <v>639</v>
+      </c>
+      <c r="C2220" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2220" s="7">
+        <f t="shared" si="162"/>
+        <v>3.1298904538341159E-3</v>
+      </c>
+      <c r="E2220" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3336595753952487E-2</v>
+      </c>
+      <c r="F2220">
+        <f t="shared" si="164"/>
+        <v>31.298904538341159</v>
+      </c>
+      <c r="G2220">
+        <f t="shared" si="165"/>
+        <v>133.36595753952486</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2221" s="4">
+        <v>20200129</v>
+      </c>
+      <c r="B2221" s="4">
+        <v>701</v>
+      </c>
+      <c r="C2221" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2221" s="7">
+        <f t="shared" si="162"/>
+        <v>5.7061340941512127E-3</v>
+      </c>
+      <c r="E2221" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3308459612403817E-2</v>
+      </c>
+      <c r="F2221">
+        <f t="shared" si="164"/>
+        <v>57.061340941512128</v>
+      </c>
+      <c r="G2221">
+        <f t="shared" si="165"/>
+        <v>133.08459612403817</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2222" s="4">
+        <v>20200130</v>
+      </c>
+      <c r="B2222" s="4">
+        <v>719</v>
+      </c>
+      <c r="C2222" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2222" s="7">
+        <f t="shared" si="162"/>
+        <v>1.2517385257301807E-2</v>
+      </c>
+      <c r="E2222" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3410049221990647E-2</v>
+      </c>
+      <c r="F2222">
+        <f t="shared" si="164"/>
+        <v>125.17385257301808</v>
+      </c>
+      <c r="G2222">
+        <f t="shared" si="165"/>
+        <v>134.10049221990644</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2223" s="4">
+        <v>20200131</v>
+      </c>
+      <c r="B2223" s="4">
+        <v>788</v>
+      </c>
+      <c r="C2223" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2223" s="7">
+        <f t="shared" si="162"/>
+        <v>1.5228426395939087E-2</v>
+      </c>
+      <c r="E2223" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3493034985082458E-2</v>
+      </c>
+      <c r="F2223">
+        <f t="shared" si="164"/>
+        <v>152.28426395939087</v>
+      </c>
+      <c r="G2223">
+        <f t="shared" si="165"/>
+        <v>134.93034985082457</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2224" s="4">
+        <v>20200201</v>
+      </c>
+      <c r="B2224" s="4">
+        <v>559</v>
+      </c>
+      <c r="C2224" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2224" s="7">
+        <f t="shared" si="162"/>
+        <v>7.1556350626118068E-3</v>
+      </c>
+      <c r="E2224" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3244048536529662E-2</v>
+      </c>
+      <c r="F2224">
+        <f t="shared" si="164"/>
+        <v>71.556350626118075</v>
+      </c>
+      <c r="G2224">
+        <f t="shared" si="165"/>
+        <v>132.44048536529661</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2225" s="4">
+        <v>20200202</v>
+      </c>
+      <c r="B2225" s="4">
+        <v>814</v>
+      </c>
+      <c r="C2225" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2225" s="7">
+        <f t="shared" si="162"/>
+        <v>2.4570024570024569E-3</v>
+      </c>
+      <c r="E2225" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3276492634255659E-2</v>
+      </c>
+      <c r="F2225">
+        <f t="shared" si="164"/>
+        <v>24.570024570024568</v>
+      </c>
+      <c r="G2225">
+        <f t="shared" si="165"/>
+        <v>132.76492634255658</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2226" s="4">
+        <v>20200203</v>
+      </c>
+      <c r="B2226" s="4">
+        <v>528</v>
+      </c>
+      <c r="C2226" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2226" s="7">
+        <f t="shared" si="162"/>
+        <v>9.46969696969697E-3</v>
+      </c>
+      <c r="E2226" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3111668719431747E-2</v>
+      </c>
+      <c r="F2226">
+        <f t="shared" si="164"/>
+        <v>94.696969696969703</v>
+      </c>
+      <c r="G2226">
+        <f t="shared" si="165"/>
+        <v>131.11668719431745</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2227" s="4">
+        <v>20200204</v>
+      </c>
+      <c r="B2227" s="4">
+        <v>612</v>
+      </c>
+      <c r="C2227" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2227" s="7">
+        <f t="shared" si="162"/>
+        <v>2.1241830065359478E-2</v>
+      </c>
+      <c r="E2227" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3730840832721504E-2</v>
+      </c>
+      <c r="F2227">
+        <f t="shared" si="164"/>
+        <v>212.41830065359477</v>
+      </c>
+      <c r="G2227">
+        <f t="shared" si="165"/>
+        <v>137.30840832721503</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2228" s="4">
+        <v>20200205</v>
+      </c>
+      <c r="B2228" s="4">
+        <v>727</v>
+      </c>
+      <c r="C2228" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2228" s="7">
+        <f t="shared" si="162"/>
+        <v>1.5130674002751032E-2</v>
+      </c>
+      <c r="E2228" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3901195296807861E-2</v>
+      </c>
+      <c r="F2228">
+        <f t="shared" si="164"/>
+        <v>151.30674002751033</v>
+      </c>
+      <c r="G2228">
+        <f t="shared" si="165"/>
+        <v>139.01195296807859</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2229" s="4">
+        <v>20200206</v>
+      </c>
+      <c r="B2229" s="4">
+        <v>649</v>
+      </c>
+      <c r="C2229" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2229" s="7">
+        <f t="shared" si="162"/>
+        <v>1.386748844375963E-2</v>
+      </c>
+      <c r="E2229" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3926286441654495E-2</v>
+      </c>
+      <c r="F2229">
+        <f t="shared" si="164"/>
+        <v>138.67488443759629</v>
+      </c>
+      <c r="G2229">
+        <f t="shared" si="165"/>
+        <v>139.26286441654497</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2230" s="4">
+        <v>20200207</v>
+      </c>
+      <c r="B2230" s="4">
+        <v>754</v>
+      </c>
+      <c r="C2230" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2230" s="7">
+        <f t="shared" si="162"/>
+        <v>1.1936339522546418E-2</v>
+      </c>
+      <c r="E2230" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3660342709286078E-2</v>
+      </c>
+      <c r="F2230">
+        <f t="shared" si="164"/>
+        <v>119.36339522546417</v>
+      </c>
+      <c r="G2230">
+        <f t="shared" si="165"/>
+        <v>136.60342709286078</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2231" s="4">
+        <v>20200208</v>
+      </c>
+      <c r="B2231" s="4">
+        <v>541</v>
+      </c>
+      <c r="C2231" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2231" s="7">
+        <f t="shared" si="162"/>
+        <v>9.242144177449169E-3</v>
+      </c>
+      <c r="E2231" s="17">
+        <f t="shared" si="163"/>
+        <v>1.368229114896357E-2</v>
+      </c>
+      <c r="F2231">
+        <f t="shared" si="164"/>
+        <v>92.421441774491683</v>
+      </c>
+      <c r="G2231">
+        <f t="shared" si="165"/>
+        <v>136.82291148963571</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2232" s="4">
+        <v>20200209</v>
+      </c>
+      <c r="B2232" s="4">
+        <v>725</v>
+      </c>
+      <c r="C2232" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2232" s="7">
+        <f t="shared" si="162"/>
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="E2232" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3599396939231973E-2</v>
+      </c>
+      <c r="F2232">
+        <f t="shared" si="164"/>
+        <v>68.965517241379303</v>
+      </c>
+      <c r="G2232">
+        <f t="shared" si="165"/>
+        <v>135.99396939231974</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2233" s="4">
+        <v>20200210</v>
+      </c>
+      <c r="B2233" s="4">
+        <v>456</v>
+      </c>
+      <c r="C2233" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2233" s="7">
+        <f t="shared" si="162"/>
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="E2233" s="17">
+        <f t="shared" si="163"/>
+        <v>1.3896280845749169E-2</v>
+      </c>
+      <c r="F2233">
+        <f t="shared" si="164"/>
+        <v>197.36842105263156</v>
+      </c>
+      <c r="G2233">
+        <f t="shared" si="165"/>
+        <v>138.96280845749169</v>
       </c>
     </row>
   </sheetData>
@@ -80974,11 +81830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C246" sqref="C246"/>
+      <selection pane="bottomRight" activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83555,7 +84411,7 @@
         <v>252</v>
       </c>
       <c r="B234" s="10">
-        <v>130.26074378661042</v>
+        <v>130.26666205661638</v>
       </c>
       <c r="C234" s="12">
         <v>3.0356263004538999E-2</v>
@@ -83607,7 +84463,7 @@
         <v>257</v>
       </c>
       <c r="B239" s="10">
-        <v>182.44186339248392</v>
+        <v>182.402262811969</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -83615,7 +84471,7 @@
         <v>261</v>
       </c>
       <c r="B240" s="10">
-        <v>179.24859563603138</v>
+        <v>179.00241451595943</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -83623,15 +84479,15 @@
         <v>2294</v>
       </c>
       <c r="B241" s="10">
-        <v>135.22449284284031</v>
+        <v>135.3469475976438</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>2295</v>
       </c>
-      <c r="B242">
-        <v>109.7752221641401</v>
+      <c r="B242" s="10">
+        <v>128.31157832792027</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="2296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="2297">
   <si>
     <t>DATE</t>
   </si>
@@ -6916,6 +6916,9 @@
   </si>
   <si>
     <t>DATEQ - quarterly from 1985-2020</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
   </si>
 </sst>
 </file>
@@ -7315,7 +7318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -7542,13 +7545,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F724"/>
+  <dimension ref="A1:F725"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B690" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B714" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G721" sqref="G721"/>
+      <selection pane="bottomRight" activeCell="H727" sqref="H727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21562,18 +21565,18 @@
         <v>43647</v>
       </c>
       <c r="B716" s="4">
-        <v>19353</v>
+        <v>19359</v>
       </c>
       <c r="C716" s="4">
         <v>281</v>
       </c>
       <c r="D716" s="7">
         <f t="shared" si="22"/>
-        <v>1.4519712706040407E-2</v>
+        <v>1.4515212562632367E-2</v>
       </c>
       <c r="E716" s="8">
         <f t="shared" si="23"/>
-        <v>145.19712706040406</v>
+        <v>145.15212562632368</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.35">
@@ -21581,18 +21584,18 @@
         <v>43678</v>
       </c>
       <c r="B717" s="4">
-        <v>19774</v>
+        <v>19784</v>
       </c>
       <c r="C717" s="4">
         <v>503</v>
       </c>
       <c r="D717" s="7">
         <f t="shared" si="22"/>
-        <v>2.5437443107110345E-2</v>
+        <v>2.542458552365548E-2</v>
       </c>
       <c r="E717" s="8">
         <f t="shared" si="23"/>
-        <v>254.37443107110346</v>
+        <v>254.24585523655477</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.35">
@@ -21600,18 +21603,18 @@
         <v>43709</v>
       </c>
       <c r="B718" s="4">
-        <v>20067</v>
+        <v>20076</v>
       </c>
       <c r="C718" s="4">
         <v>275</v>
       </c>
       <c r="D718" s="7">
         <f t="shared" ref="D718" si="24">C718/B718</f>
-        <v>1.3704091294164548E-2</v>
+        <v>1.3697947798366208E-2</v>
       </c>
       <c r="E718" s="8">
         <f t="shared" ref="E718" si="25">D718/0.01*100</f>
-        <v>137.0409129416455</v>
+        <v>136.97947798366209</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.35">
@@ -21619,18 +21622,18 @@
         <v>43739</v>
       </c>
       <c r="B719" s="4">
-        <v>20593</v>
+        <v>20604</v>
       </c>
       <c r="C719" s="4">
         <v>287</v>
       </c>
       <c r="D719" s="7">
         <f t="shared" ref="D719" si="26">C719/B719</f>
-        <v>1.3936774632156559E-2</v>
+        <v>1.3929334109881576E-2</v>
       </c>
       <c r="E719" s="8">
         <f t="shared" ref="E719" si="27">D719/0.01*100</f>
-        <v>139.36774632156559</v>
+        <v>139.29334109881574</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.35">
@@ -21638,18 +21641,18 @@
         <v>43770</v>
       </c>
       <c r="B720" s="4">
-        <v>19162</v>
+        <v>19171</v>
       </c>
       <c r="C720" s="4">
         <v>230</v>
       </c>
       <c r="D720" s="7">
         <f t="shared" ref="D720" si="28">C720/B720</f>
-        <v>1.2002922450683644E-2</v>
+        <v>1.1997287569766835E-2</v>
       </c>
       <c r="E720" s="8">
         <f t="shared" ref="E720" si="29">D720/0.01*100</f>
-        <v>120.02922450683644</v>
+        <v>119.97287569766834</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.35">
@@ -21657,18 +21660,18 @@
         <v>43800</v>
       </c>
       <c r="B721" s="4">
-        <v>18568</v>
+        <v>18577</v>
       </c>
       <c r="C721" s="4">
         <v>272</v>
       </c>
       <c r="D721" s="7">
         <f t="shared" ref="D721:D722" si="30">C721/B721</f>
-        <v>1.4648858250753986E-2</v>
+        <v>1.4641761317758519E-2</v>
       </c>
       <c r="E721" s="8">
         <f t="shared" ref="E721:E722" si="31">D721/0.01*100</f>
-        <v>146.48858250753986</v>
+        <v>146.4176131775852</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
@@ -21676,18 +21679,18 @@
         <v>43831</v>
       </c>
       <c r="B722" s="4">
-        <v>19385</v>
+        <v>19416</v>
       </c>
       <c r="C722" s="4">
         <v>271</v>
       </c>
       <c r="D722" s="7">
         <f t="shared" si="30"/>
-        <v>1.3979881351560485E-2</v>
+        <v>1.3957560774618872E-2</v>
       </c>
       <c r="E722" s="8">
         <f t="shared" si="31"/>
-        <v>139.79881351560485</v>
+        <v>139.57560774618872</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
@@ -21695,18 +21698,18 @@
         <v>43862</v>
       </c>
       <c r="B723" s="4">
-        <v>18440</v>
+        <v>18472</v>
       </c>
       <c r="C723" s="4">
         <v>177</v>
       </c>
       <c r="D723" s="7">
         <f t="shared" ref="D723" si="32">C723/B723</f>
-        <v>9.5986984815618227E-3</v>
+        <v>9.5820701602425291E-3</v>
       </c>
       <c r="E723" s="8">
         <f t="shared" ref="E723" si="33">D723/0.01*100</f>
-        <v>95.986984815618229</v>
+        <v>95.820701602425288</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
@@ -21714,18 +21717,37 @@
         <v>43891</v>
       </c>
       <c r="B724" s="4">
-        <v>6946</v>
+        <v>19141</v>
       </c>
       <c r="C724" s="4">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D724" s="7">
         <f t="shared" ref="D724" si="34">C724/B724</f>
-        <v>8.2061618197523754E-3</v>
+        <v>6.1647771798756593E-3</v>
       </c>
       <c r="E724" s="8">
         <f t="shared" ref="E724" si="35">D724/0.01*100</f>
-        <v>82.061618197523757</v>
+        <v>61.647771798756587</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A725" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B725" s="4">
+        <v>5573</v>
+      </c>
+      <c r="C725" s="4">
+        <v>29</v>
+      </c>
+      <c r="D725" s="7">
+        <f t="shared" ref="D725" si="36">C725/B725</f>
+        <v>5.2036605060111251E-3</v>
+      </c>
+      <c r="E725" s="8">
+        <f t="shared" ref="E725" si="37">D725/0.01*100</f>
+        <v>52.036605060111249</v>
       </c>
     </row>
   </sheetData>
@@ -21739,7 +21761,7 @@
   <dimension ref="A1:G2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q2244" sqref="Q2244"/>
@@ -82630,13 +82652,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D240" sqref="D240"/>
+      <selection pane="bottomRight" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -85273,7 +85295,7 @@
         <v>259</v>
       </c>
       <c r="B240" s="10">
-        <v>178.87082369105099</v>
+        <v>178.79248628218019</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -85281,7 +85303,7 @@
         <v>2292</v>
       </c>
       <c r="B241" s="10">
-        <v>135.29518444531396</v>
+        <v>135.22794332468976</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -85289,7 +85311,15 @@
         <v>2293</v>
       </c>
       <c r="B242" s="10">
-        <v>105.94913884291562</v>
+        <v>99.014693715790202</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B243" s="10">
+        <v>52.036605060111249</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7319,7 +7319,7 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7545,13 +7545,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F725"/>
+  <dimension ref="A1:F726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B714" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H727" sqref="H727"/>
+      <selection pane="bottomRight" activeCell="G725" sqref="G725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21457,11 +21457,9 @@
         <v>249</v>
       </c>
       <c r="D710" s="7">
-        <f t="shared" si="22"/>
         <v>1.4171077343349837E-2</v>
       </c>
       <c r="E710" s="8">
-        <f t="shared" si="23"/>
         <v>141.71077343349836</v>
       </c>
     </row>
@@ -21476,11 +21474,9 @@
         <v>205</v>
       </c>
       <c r="D711" s="7">
-        <f t="shared" si="22"/>
         <v>1.2746378163277996E-2</v>
       </c>
       <c r="E711" s="8">
-        <f t="shared" si="23"/>
         <v>127.46378163277996</v>
       </c>
     </row>
@@ -21495,11 +21491,9 @@
         <v>202</v>
       </c>
       <c r="D712" s="7">
-        <f t="shared" si="22"/>
         <v>9.4097917734196675E-3</v>
       </c>
       <c r="E712" s="8">
-        <f t="shared" si="23"/>
         <v>94.097917734196685</v>
       </c>
     </row>
@@ -21514,11 +21508,9 @@
         <v>189</v>
       </c>
       <c r="D713" s="7">
-        <f t="shared" si="22"/>
         <v>9.115902184922588E-3</v>
       </c>
       <c r="E713" s="8">
-        <f t="shared" si="23"/>
         <v>91.15902184922588</v>
       </c>
     </row>
@@ -21533,11 +21525,9 @@
         <v>405</v>
       </c>
       <c r="D714" s="7">
-        <f t="shared" si="22"/>
         <v>1.898022307620208E-2</v>
       </c>
       <c r="E714" s="8">
-        <f t="shared" si="23"/>
         <v>189.8022307620208</v>
       </c>
     </row>
@@ -21552,11 +21542,9 @@
         <v>541</v>
       </c>
       <c r="D715" s="7">
-        <f t="shared" si="22"/>
         <v>2.6600452355197167E-2</v>
       </c>
       <c r="E715" s="8">
-        <f t="shared" si="23"/>
         <v>266.00452355197166</v>
       </c>
     </row>
@@ -21571,11 +21559,9 @@
         <v>281</v>
       </c>
       <c r="D716" s="7">
-        <f t="shared" si="22"/>
         <v>1.4515212562632367E-2</v>
       </c>
       <c r="E716" s="8">
-        <f t="shared" si="23"/>
         <v>145.15212562632368</v>
       </c>
     </row>
@@ -21590,11 +21576,9 @@
         <v>503</v>
       </c>
       <c r="D717" s="7">
-        <f t="shared" si="22"/>
         <v>2.542458552365548E-2</v>
       </c>
       <c r="E717" s="8">
-        <f t="shared" si="23"/>
         <v>254.24585523655477</v>
       </c>
     </row>
@@ -21609,11 +21593,9 @@
         <v>275</v>
       </c>
       <c r="D718" s="7">
-        <f t="shared" ref="D718" si="24">C718/B718</f>
         <v>1.3697947798366208E-2</v>
       </c>
       <c r="E718" s="8">
-        <f t="shared" ref="E718" si="25">D718/0.01*100</f>
         <v>136.97947798366209</v>
       </c>
     </row>
@@ -21628,11 +21610,9 @@
         <v>287</v>
       </c>
       <c r="D719" s="7">
-        <f t="shared" ref="D719" si="26">C719/B719</f>
         <v>1.3929334109881576E-2</v>
       </c>
       <c r="E719" s="8">
-        <f t="shared" ref="E719" si="27">D719/0.01*100</f>
         <v>139.29334109881574</v>
       </c>
     </row>
@@ -21647,11 +21627,9 @@
         <v>230</v>
       </c>
       <c r="D720" s="7">
-        <f t="shared" ref="D720" si="28">C720/B720</f>
         <v>1.1997287569766835E-2</v>
       </c>
       <c r="E720" s="8">
-        <f t="shared" ref="E720" si="29">D720/0.01*100</f>
         <v>119.97287569766834</v>
       </c>
     </row>
@@ -21666,11 +21644,9 @@
         <v>272</v>
       </c>
       <c r="D721" s="7">
-        <f t="shared" ref="D721:D722" si="30">C721/B721</f>
         <v>1.4641761317758519E-2</v>
       </c>
       <c r="E721" s="8">
-        <f t="shared" ref="E721:E722" si="31">D721/0.01*100</f>
         <v>146.4176131775852</v>
       </c>
     </row>
@@ -21685,11 +21661,9 @@
         <v>271</v>
       </c>
       <c r="D722" s="7">
-        <f t="shared" si="30"/>
         <v>1.3957560774618872E-2</v>
       </c>
       <c r="E722" s="8">
-        <f t="shared" si="31"/>
         <v>139.57560774618872</v>
       </c>
     </row>
@@ -21704,11 +21678,9 @@
         <v>177</v>
       </c>
       <c r="D723" s="7">
-        <f t="shared" ref="D723" si="32">C723/B723</f>
         <v>9.5820701602425291E-3</v>
       </c>
       <c r="E723" s="8">
-        <f t="shared" ref="E723" si="33">D723/0.01*100</f>
         <v>95.820701602425288</v>
       </c>
     </row>
@@ -21717,18 +21689,16 @@
         <v>43891</v>
       </c>
       <c r="B724" s="4">
-        <v>19141</v>
+        <v>19137</v>
       </c>
       <c r="C724" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D724" s="7">
-        <f t="shared" ref="D724" si="34">C724/B724</f>
-        <v>6.1647771798756593E-3</v>
+        <v>6.1138109421539424E-3</v>
       </c>
       <c r="E724" s="8">
-        <f t="shared" ref="E724" si="35">D724/0.01*100</f>
-        <v>61.647771798756587</v>
+        <v>61.138109421539419</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.35">
@@ -21736,18 +21706,33 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>5573</v>
+        <v>17226</v>
       </c>
       <c r="C725" s="4">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D725" s="7">
-        <f t="shared" ref="D725" si="36">C725/B725</f>
-        <v>5.2036605060111251E-3</v>
+        <v>5.5729710902124698E-3</v>
       </c>
       <c r="E725" s="8">
-        <f t="shared" ref="E725" si="37">D725/0.01*100</f>
-        <v>52.036605060111249</v>
+        <v>55.729710902124694</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A726" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B726" s="4">
+        <v>6241</v>
+      </c>
+      <c r="C726" s="4">
+        <v>37</v>
+      </c>
+      <c r="D726" s="7">
+        <v>5.9285370934145168E-3</v>
+      </c>
+      <c r="E726" s="8">
+        <v>59.285370934145163</v>
       </c>
     </row>
   </sheetData>
@@ -82654,11 +82639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D242" sqref="D242"/>
+      <selection pane="bottomRight" activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -85311,7 +85296,7 @@
         <v>2293</v>
       </c>
       <c r="B242" s="10">
-        <v>99.014693715790202</v>
+        <v>98.844806256717817</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -85319,7 +85304,7 @@
         <v>2296</v>
       </c>
       <c r="B243" s="10">
-        <v>52.036605060111249</v>
+        <v>57.507540918134922</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7545,13 +7545,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F726"/>
+  <dimension ref="A1:F727"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B714" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B710" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G725" sqref="G725"/>
+      <selection pane="bottomRight" activeCell="D722" sqref="D722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21400,11 +21400,11 @@
         <v>286</v>
       </c>
       <c r="D707" s="7">
-        <f t="shared" ref="D707:D717" si="22">C707/B707</f>
+        <f t="shared" ref="D707:D709" si="22">C707/B707</f>
         <v>1.5520703315786618E-2</v>
       </c>
       <c r="E707" s="8">
-        <f t="shared" ref="E707:E717" si="23">D707/0.01*100</f>
+        <f t="shared" ref="E707:E709" si="23">D707/0.01*100</f>
         <v>155.20703315786616</v>
       </c>
     </row>
@@ -21519,16 +21519,16 @@
         <v>43586</v>
       </c>
       <c r="B714" s="4">
-        <v>21338</v>
+        <v>21339</v>
       </c>
       <c r="C714" s="4">
         <v>405</v>
       </c>
       <c r="D714" s="7">
-        <v>1.898022307620208E-2</v>
+        <v>1.8979333614508646E-2</v>
       </c>
       <c r="E714" s="8">
-        <v>189.8022307620208</v>
+        <v>189.79333614508647</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.35">
@@ -21587,16 +21587,16 @@
         <v>43709</v>
       </c>
       <c r="B718" s="4">
-        <v>20076</v>
+        <v>20077</v>
       </c>
       <c r="C718" s="4">
         <v>275</v>
       </c>
       <c r="D718" s="7">
-        <v>1.3697947798366208E-2</v>
+        <v>1.3697265527718284E-2</v>
       </c>
       <c r="E718" s="8">
-        <v>136.97947798366209</v>
+        <v>136.97265527718284</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.35">
@@ -21655,16 +21655,16 @@
         <v>43831</v>
       </c>
       <c r="B722" s="4">
-        <v>19416</v>
+        <v>19417</v>
       </c>
       <c r="C722" s="4">
         <v>271</v>
       </c>
       <c r="D722" s="7">
-        <v>1.3957560774618872E-2</v>
+        <v>1.3956841942627595E-2</v>
       </c>
       <c r="E722" s="8">
-        <v>139.57560774618872</v>
+        <v>139.56841942627597</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
@@ -21689,16 +21689,16 @@
         <v>43891</v>
       </c>
       <c r="B724" s="4">
-        <v>19137</v>
+        <v>19132</v>
       </c>
       <c r="C724" s="4">
         <v>117</v>
       </c>
       <c r="D724" s="7">
-        <v>6.1138109421539424E-3</v>
+        <v>6.1154087392849676E-3</v>
       </c>
       <c r="E724" s="8">
-        <v>61.138109421539419</v>
+        <v>61.154087392849675</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.35">
@@ -21706,16 +21706,16 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>17226</v>
+        <v>17222</v>
       </c>
       <c r="C725" s="4">
         <v>96</v>
       </c>
       <c r="D725" s="7">
-        <v>5.5729710902124698E-3</v>
+        <v>5.5742654743932184E-3</v>
       </c>
       <c r="E725" s="8">
-        <v>55.729710902124694</v>
+        <v>55.742654743932185</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
@@ -21723,16 +21723,33 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>6241</v>
+        <v>17670</v>
       </c>
       <c r="C726" s="4">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D726" s="7">
-        <v>5.9285370934145168E-3</v>
+        <v>6.7345783814374647E-3</v>
       </c>
       <c r="E726" s="8">
-        <v>59.285370934145163</v>
+        <v>67.345783814374656</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A727" s="9">
+        <v>43983</v>
+      </c>
+      <c r="B727" s="4">
+        <v>5880</v>
+      </c>
+      <c r="C727" s="4">
+        <v>38</v>
+      </c>
+      <c r="D727" s="7">
+        <v>6.4625850340136052E-3</v>
+      </c>
+      <c r="E727" s="8">
+        <v>64.625850340136054</v>
       </c>
     </row>
   </sheetData>
@@ -82639,11 +82656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F244" sqref="F244"/>
+      <selection pane="bottomRight" activeCell="I240" sqref="I240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -85272,7 +85289,7 @@
         <v>255</v>
       </c>
       <c r="B239" s="10">
-        <v>182.32192538773947</v>
+        <v>182.31896051542799</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -85280,7 +85297,7 @@
         <v>259</v>
       </c>
       <c r="B240" s="10">
-        <v>178.79248628218019</v>
+        <v>178.79021204668709</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -85296,7 +85313,7 @@
         <v>2293</v>
       </c>
       <c r="B242" s="10">
-        <v>98.844806256717817</v>
+        <v>98.847736140516972</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -85304,7 +85321,7 @@
         <v>2296</v>
       </c>
       <c r="B243" s="10">
-        <v>57.507540918134922</v>
+        <v>62.571429632814294</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="2297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="2298">
   <si>
     <t>DATE</t>
   </si>
@@ -6919,6 +6919,9 @@
   </si>
   <si>
     <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
   </si>
 </sst>
 </file>
@@ -7545,13 +7548,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F727"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B710" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D722" sqref="D722"/>
+      <selection pane="bottomRight" activeCell="H727" sqref="H727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21621,7 +21624,7 @@
         <v>43770</v>
       </c>
       <c r="B720" s="4">
-        <v>19171</v>
+        <v>19170</v>
       </c>
       <c r="C720" s="4">
         <v>230</v>
@@ -21672,7 +21675,7 @@
         <v>43862</v>
       </c>
       <c r="B723" s="4">
-        <v>18472</v>
+        <v>18470</v>
       </c>
       <c r="C723" s="4">
         <v>177</v>
@@ -21689,7 +21692,7 @@
         <v>43891</v>
       </c>
       <c r="B724" s="4">
-        <v>19132</v>
+        <v>19131</v>
       </c>
       <c r="C724" s="4">
         <v>117</v>
@@ -21706,7 +21709,7 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>17222</v>
+        <v>17221</v>
       </c>
       <c r="C725" s="4">
         <v>96</v>
@@ -21723,7 +21726,7 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17670</v>
+        <v>17696</v>
       </c>
       <c r="C726" s="4">
         <v>119</v>
@@ -21740,16 +21743,33 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>5880</v>
+        <v>16663</v>
       </c>
       <c r="C727" s="4">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D727" s="7">
         <v>6.4625850340136052E-3</v>
       </c>
       <c r="E727" s="8">
         <v>64.625850340136054</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A728" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B728" s="4">
+        <v>5474</v>
+      </c>
+      <c r="C728" s="4">
+        <v>36</v>
+      </c>
+      <c r="D728" s="7">
+        <v>1.0064625850340101</v>
+      </c>
+      <c r="E728" s="8">
+        <v>65.625850340136097</v>
       </c>
     </row>
   </sheetData>
@@ -82654,13 +82674,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I240" sqref="I240"/>
+      <selection pane="bottomRight" activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -85281,7 +85301,7 @@
         <v>254</v>
       </c>
       <c r="B238" s="10">
-        <v>121.09082426682501</v>
+        <v>121.09346622225409</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -85297,7 +85317,7 @@
         <v>259</v>
       </c>
       <c r="B240" s="10">
-        <v>178.79021204668709</v>
+        <v>178.79271148060977</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -85305,7 +85325,7 @@
         <v>2292</v>
       </c>
       <c r="B241" s="10">
-        <v>135.22794332468976</v>
+        <v>135.23002944668067</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -85313,7 +85333,7 @@
         <v>2293</v>
       </c>
       <c r="B242" s="10">
-        <v>98.847736140516972</v>
+        <v>98.852260279486842</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -85321,7 +85341,15 @@
         <v>2296</v>
       </c>
       <c r="B243" s="10">
-        <v>62.571429632814294</v>
+        <v>60.801932654184569</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B244" s="10">
+        <v>65.765436609426374</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7548,13 +7548,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F728"/>
+  <dimension ref="A1:F727"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B710" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B722" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q728" sqref="Q728"/>
+      <selection pane="bottomRight" activeCell="A728" sqref="A728:XFD728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21403,11 +21403,11 @@
         <v>286</v>
       </c>
       <c r="D707" s="7">
-        <f t="shared" ref="D707:D728" si="22">C707/B707</f>
+        <f t="shared" ref="D707:D727" si="22">C707/B707</f>
         <v>1.5520703315786618E-2</v>
       </c>
       <c r="E707" s="8">
-        <f t="shared" ref="E707:E728" si="23">D707/0.01*100</f>
+        <f t="shared" ref="E707:E727" si="23">D707/0.01*100</f>
         <v>155.20703315786616</v>
       </c>
     </row>
@@ -21789,25 +21789,6 @@
       <c r="E727" s="8">
         <f t="shared" si="23"/>
         <v>59.413070875592624</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="9">
-        <v>44013</v>
-      </c>
-      <c r="B728" s="4">
-        <v>5474</v>
-      </c>
-      <c r="C728" s="4">
-        <v>36</v>
-      </c>
-      <c r="D728" s="7">
-        <f t="shared" si="22"/>
-        <v>6.5765436609426381E-3</v>
-      </c>
-      <c r="E728" s="8">
-        <f t="shared" si="23"/>
-        <v>65.765436609426374</v>
       </c>
     </row>
   </sheetData>
@@ -82714,11 +82695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J238" sqref="J238"/>
+      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -7548,13 +7548,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F727"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B722" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B709" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A728" sqref="A728:XFD728"/>
+      <selection pane="bottomRight" activeCell="F729" sqref="F729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21403,11 +21403,11 @@
         <v>286</v>
       </c>
       <c r="D707" s="7">
-        <f t="shared" ref="D707:D727" si="22">C707/B707</f>
+        <f t="shared" ref="D707:D728" si="22">C707/B707</f>
         <v>1.5520703315786618E-2</v>
       </c>
       <c r="E707" s="8">
-        <f t="shared" ref="E707:E727" si="23">D707/0.01*100</f>
+        <f t="shared" ref="E707:E728" si="23">D707/0.01*100</f>
         <v>155.20703315786616</v>
       </c>
     </row>
@@ -21473,18 +21473,18 @@
         <v>43497</v>
       </c>
       <c r="B711" s="4">
-        <v>16083</v>
+        <v>16082</v>
       </c>
       <c r="C711" s="4">
         <v>205</v>
       </c>
       <c r="D711" s="7">
         <f t="shared" si="22"/>
-        <v>1.2746378163277996E-2</v>
+        <v>1.2747170749906727E-2</v>
       </c>
       <c r="E711" s="8">
         <f t="shared" si="23"/>
-        <v>127.46378163277996</v>
+        <v>127.47170749906726</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -21568,18 +21568,18 @@
         <v>43647</v>
       </c>
       <c r="B716" s="4">
-        <v>19359</v>
+        <v>19364</v>
       </c>
       <c r="C716" s="4">
         <v>281</v>
       </c>
       <c r="D716" s="7">
         <f t="shared" si="22"/>
-        <v>1.4515212562632367E-2</v>
+        <v>1.451146457343524E-2</v>
       </c>
       <c r="E716" s="8">
         <f t="shared" si="23"/>
-        <v>145.15212562632368</v>
+        <v>145.11464573435239</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
@@ -21587,18 +21587,18 @@
         <v>43678</v>
       </c>
       <c r="B717" s="4">
-        <v>19784</v>
+        <v>19786</v>
       </c>
       <c r="C717" s="4">
         <v>503</v>
       </c>
       <c r="D717" s="7">
         <f t="shared" si="22"/>
-        <v>2.542458552365548E-2</v>
+        <v>2.5422015566562216E-2</v>
       </c>
       <c r="E717" s="8">
         <f t="shared" si="23"/>
-        <v>254.24585523655477</v>
+        <v>254.22015566562214</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -21606,18 +21606,18 @@
         <v>43709</v>
       </c>
       <c r="B718" s="4">
-        <v>20077</v>
+        <v>20083</v>
       </c>
       <c r="C718" s="4">
         <v>275</v>
       </c>
       <c r="D718" s="7">
         <f t="shared" si="22"/>
-        <v>1.3697265527718284E-2</v>
+        <v>1.3693173330677688E-2</v>
       </c>
       <c r="E718" s="8">
         <f t="shared" si="23"/>
-        <v>136.97265527718284</v>
+        <v>136.93173330677689</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -21625,18 +21625,18 @@
         <v>43739</v>
       </c>
       <c r="B719" s="4">
-        <v>20604</v>
+        <v>20608</v>
       </c>
       <c r="C719" s="4">
         <v>287</v>
       </c>
       <c r="D719" s="7">
         <f t="shared" si="22"/>
-        <v>1.3929334109881576E-2</v>
+        <v>1.3926630434782608E-2</v>
       </c>
       <c r="E719" s="8">
         <f t="shared" si="23"/>
-        <v>139.29334109881574</v>
+        <v>139.26630434782606</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -21644,18 +21644,18 @@
         <v>43770</v>
       </c>
       <c r="B720" s="4">
-        <v>19170</v>
+        <v>19193</v>
       </c>
       <c r="C720" s="4">
         <v>230</v>
       </c>
       <c r="D720" s="7">
         <f t="shared" si="22"/>
-        <v>1.1997913406364111E-2</v>
+        <v>1.1983535664044183E-2</v>
       </c>
       <c r="E720" s="8">
         <f t="shared" si="23"/>
-        <v>119.97913406364111</v>
+        <v>119.83535664044183</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -21663,18 +21663,18 @@
         <v>43800</v>
       </c>
       <c r="B721" s="4">
-        <v>18577</v>
+        <v>18590</v>
       </c>
       <c r="C721" s="4">
         <v>272</v>
       </c>
       <c r="D721" s="7">
         <f t="shared" si="22"/>
-        <v>1.4641761317758519E-2</v>
+        <v>1.4631522323830016E-2</v>
       </c>
       <c r="E721" s="8">
         <f t="shared" si="23"/>
-        <v>146.4176131775852</v>
+        <v>146.31522323830015</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -21682,18 +21682,18 @@
         <v>43831</v>
       </c>
       <c r="B722" s="4">
-        <v>19417</v>
+        <v>19407</v>
       </c>
       <c r="C722" s="4">
         <v>271</v>
       </c>
       <c r="D722" s="7">
         <f t="shared" si="22"/>
-        <v>1.3956841942627595E-2</v>
+        <v>1.396403359612511E-2</v>
       </c>
       <c r="E722" s="8">
         <f t="shared" si="23"/>
-        <v>139.56841942627597</v>
+        <v>139.64033596125108</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -21701,18 +21701,18 @@
         <v>43862</v>
       </c>
       <c r="B723" s="4">
-        <v>18470</v>
+        <v>18488</v>
       </c>
       <c r="C723" s="4">
         <v>177</v>
       </c>
       <c r="D723" s="7">
         <f t="shared" si="22"/>
-        <v>9.5831077422847862E-3</v>
+        <v>9.5737775854608399E-3</v>
       </c>
       <c r="E723" s="8">
         <f t="shared" si="23"/>
-        <v>95.831077422847855</v>
+        <v>95.737775854608401</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -21720,18 +21720,18 @@
         <v>43891</v>
       </c>
       <c r="B724" s="4">
-        <v>19131</v>
+        <v>19097</v>
       </c>
       <c r="C724" s="4">
         <v>117</v>
       </c>
       <c r="D724" s="7">
         <f t="shared" si="22"/>
-        <v>6.1157283989336682E-3</v>
+        <v>6.1266167460857727E-3</v>
       </c>
       <c r="E724" s="8">
         <f t="shared" si="23"/>
-        <v>61.157283989336683</v>
+        <v>61.266167460857723</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -21739,18 +21739,18 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>17221</v>
+        <v>17239</v>
       </c>
       <c r="C725" s="4">
         <v>96</v>
       </c>
       <c r="D725" s="7">
         <f t="shared" si="22"/>
-        <v>5.5745891643923118E-3</v>
+        <v>5.5687684900516269E-3</v>
       </c>
       <c r="E725" s="8">
         <f t="shared" si="23"/>
-        <v>55.745891643923116</v>
+        <v>55.687684900516267</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -21758,18 +21758,18 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17696</v>
+        <v>17732</v>
       </c>
       <c r="C726" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D726" s="7">
         <f t="shared" si="22"/>
-        <v>6.7246835443037977E-3</v>
+        <v>6.6546356868937518E-3</v>
       </c>
       <c r="E726" s="8">
         <f t="shared" si="23"/>
-        <v>67.24683544303798</v>
+        <v>66.546356868937522</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -21777,18 +21777,37 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>16663</v>
+        <v>16701</v>
       </c>
       <c r="C727" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D727" s="7">
         <f t="shared" si="22"/>
-        <v>5.9413070875592626E-3</v>
+        <v>5.9876654092569309E-3</v>
       </c>
       <c r="E727" s="8">
         <f t="shared" si="23"/>
-        <v>59.413070875592624</v>
+        <v>59.876654092569304</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B728" s="4">
+        <v>18046</v>
+      </c>
+      <c r="C728" s="4">
+        <v>104</v>
+      </c>
+      <c r="D728" s="7">
+        <f t="shared" si="22"/>
+        <v>5.7630499833758175E-3</v>
+      </c>
+      <c r="E728" s="8">
+        <f t="shared" si="23"/>
+        <v>57.630499833758172</v>
       </c>
     </row>
   </sheetData>
@@ -82696,10 +82715,10 @@
   <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85336,7 +85355,7 @@
         <v>259</v>
       </c>
       <c r="B240" s="10">
-        <v>178.79271148060977</v>
+        <v>178.75551156891714</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -85344,7 +85363,7 @@
         <v>2292</v>
       </c>
       <c r="B241" s="10">
-        <v>135.23002944668067</v>
+        <v>135.13896140885601</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -85352,7 +85371,7 @@
         <v>2293</v>
       </c>
       <c r="B242" s="10">
-        <v>98.852260279486842</v>
+        <v>98.8814264255724</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -85360,7 +85379,7 @@
         <v>2296</v>
       </c>
       <c r="B243" s="10">
-        <v>60.801932654184569</v>
+        <v>60.703565287341036</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -85368,7 +85387,7 @@
         <v>2297</v>
       </c>
       <c r="B244" s="10">
-        <v>65.765436609426374</v>
+        <v>61.23766770289113</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -7548,13 +7548,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F729"/>
+  <dimension ref="A1:F730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B721" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G728" sqref="G728"/>
+      <selection pane="bottomRight" activeCell="G736" sqref="G736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20310,16 +20310,16 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17740</v>
+        <v>17739</v>
       </c>
       <c r="C726" s="4">
         <v>118</v>
       </c>
       <c r="D726" s="7">
-        <v>6.6516347237880495E-3</v>
+        <v>6.6520096961497268E-3</v>
       </c>
       <c r="E726" s="8">
-        <v>66.516347237880495</v>
+        <v>66.520096961497259</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -20327,16 +20327,16 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>16718</v>
+        <v>16717</v>
       </c>
       <c r="C727" s="4">
         <v>100</v>
       </c>
       <c r="D727" s="7">
-        <v>5.9815767436296212E-3</v>
+        <v>5.9819345576359395E-3</v>
       </c>
       <c r="E727" s="8">
-        <v>59.815767436296206</v>
+        <v>59.819345576359396</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -20344,16 +20344,16 @@
         <v>44013</v>
       </c>
       <c r="B728" s="4">
-        <v>18105</v>
+        <v>18114</v>
       </c>
       <c r="C728" s="4">
         <v>104</v>
       </c>
       <c r="D728" s="7">
-        <v>5.7442695388014364E-3</v>
+        <v>5.7414154797394285E-3</v>
       </c>
       <c r="E728" s="8">
-        <v>57.442695388014364</v>
+        <v>57.414154797394282</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
@@ -20361,16 +20361,33 @@
         <v>44044</v>
       </c>
       <c r="B729" s="4">
-        <v>18869</v>
+        <v>18905</v>
       </c>
       <c r="C729" s="4">
         <v>127</v>
       </c>
       <c r="D729" s="7">
-        <v>6.7306163548677723E-3</v>
+        <v>6.7177995239354671E-3</v>
       </c>
       <c r="E729" s="8">
-        <v>67.306163548677716</v>
+        <v>67.177995239354672</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A730" s="9">
+        <v>44075</v>
+      </c>
+      <c r="B730" s="4">
+        <v>18311</v>
+      </c>
+      <c r="C730" s="4">
+        <v>124</v>
+      </c>
+      <c r="D730" s="7">
+        <v>6.7718857517339304E-3</v>
+      </c>
+      <c r="E730" s="8">
+        <v>67.718857517339302</v>
       </c>
     </row>
   </sheetData>
@@ -81278,10 +81295,10 @@
   <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B244"/>
+      <selection pane="bottomRight" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -83949,8 +83966,8 @@
       <c r="A244" t="s">
         <v>2297</v>
       </c>
-      <c r="B244" s="10">
-        <v>70.66764074621986</v>
+      <c r="B244" s="8">
+        <v>64.103669184696088</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\GPR_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7548,13 +7548,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F730"/>
+  <dimension ref="A1:F731"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B721" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B720" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G736" sqref="G736"/>
+      <selection pane="bottomRight" activeCell="E732" sqref="E732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20388,6 +20388,11 @@
       </c>
       <c r="E730" s="8">
         <v>67.718857517339302</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A731" s="9">
+        <v>44105</v>
       </c>
     </row>
   </sheetData>
@@ -81294,7 +81299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -7551,10 +7551,10 @@
   <dimension ref="A1:F731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B720" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B705" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E732" sqref="E732"/>
+      <selection pane="bottomRight" activeCell="C732" sqref="B732:C732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20259,16 +20259,16 @@
         <v>43862</v>
       </c>
       <c r="B723" s="4">
-        <v>18488</v>
+        <v>18487</v>
       </c>
       <c r="C723" s="4">
         <v>177</v>
       </c>
       <c r="D723" s="7">
-        <v>9.5737775854608399E-3</v>
+        <v>9.5742954508573584E-3</v>
       </c>
       <c r="E723" s="8">
-        <v>95.737775854608401</v>
+        <v>95.74295450857359</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
@@ -20310,16 +20310,16 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17739</v>
+        <v>17741</v>
       </c>
       <c r="C726" s="4">
         <v>118</v>
       </c>
       <c r="D726" s="7">
-        <v>6.6520096961497268E-3</v>
+        <v>6.6512597936982136E-3</v>
       </c>
       <c r="E726" s="8">
-        <v>66.520096961497259</v>
+        <v>66.512597936982132</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -20327,16 +20327,16 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>16717</v>
+        <v>16716</v>
       </c>
       <c r="C727" s="4">
         <v>100</v>
       </c>
       <c r="D727" s="7">
-        <v>5.9819345576359395E-3</v>
+        <v>5.9822924144532184E-3</v>
       </c>
       <c r="E727" s="8">
-        <v>59.819345576359396</v>
+        <v>59.822924144532188</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -20344,16 +20344,16 @@
         <v>44013</v>
       </c>
       <c r="B728" s="4">
-        <v>18114</v>
+        <v>18117</v>
       </c>
       <c r="C728" s="4">
         <v>104</v>
       </c>
       <c r="D728" s="7">
-        <v>5.7414154797394285E-3</v>
+        <v>5.7404647568581992E-3</v>
       </c>
       <c r="E728" s="8">
-        <v>57.414154797394282</v>
+        <v>57.404647568581993</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
@@ -20361,16 +20361,16 @@
         <v>44044</v>
       </c>
       <c r="B729" s="4">
-        <v>18905</v>
+        <v>18874</v>
       </c>
       <c r="C729" s="4">
         <v>127</v>
       </c>
       <c r="D729" s="7">
-        <v>6.7177995239354671E-3</v>
+        <v>6.7288333156723537E-3</v>
       </c>
       <c r="E729" s="8">
-        <v>67.177995239354672</v>
+        <v>67.288333156723539</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
@@ -20378,21 +20378,33 @@
         <v>44075</v>
       </c>
       <c r="B730" s="4">
-        <v>18311</v>
+        <v>18266</v>
       </c>
       <c r="C730" s="4">
         <v>124</v>
       </c>
       <c r="D730" s="7">
-        <v>6.7718857517339304E-3</v>
+        <v>6.7885689258732071E-3</v>
       </c>
       <c r="E730" s="8">
-        <v>67.718857517339302</v>
+        <v>67.885689258732071</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="9">
         <v>44105</v>
+      </c>
+      <c r="B731" s="4">
+        <v>18264</v>
+      </c>
+      <c r="C731" s="4">
+        <v>130</v>
+      </c>
+      <c r="D731" s="7">
+        <v>7.1178274200613227E-3</v>
+      </c>
+      <c r="E731" s="8">
+        <v>71.178274200613217</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\GPR_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2299">
   <si>
     <t>DATE</t>
   </si>
@@ -6922,6 +6922,9 @@
   </si>
   <si>
     <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
   </si>
 </sst>
 </file>
@@ -7548,13 +7551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F731"/>
+  <dimension ref="A1:F732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B705" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B714" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C732" sqref="B732:C732"/>
+      <selection pane="bottomRight" activeCell="I729" sqref="I729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20242,7 +20245,7 @@
         <v>43831</v>
       </c>
       <c r="B722" s="4">
-        <v>19407</v>
+        <v>19408</v>
       </c>
       <c r="C722" s="4">
         <v>271</v>
@@ -20293,16 +20296,16 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>17302</v>
+        <v>17303</v>
       </c>
       <c r="C725" s="4">
         <v>96</v>
       </c>
       <c r="D725" s="7">
-        <v>5.5484915038723848E-3</v>
+        <v>5.5481708374270355E-3</v>
       </c>
       <c r="E725" s="8">
-        <v>55.484915038723848</v>
+        <v>55.481708374270355</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
@@ -20361,16 +20364,16 @@
         <v>44044</v>
       </c>
       <c r="B729" s="4">
-        <v>18874</v>
+        <v>18872</v>
       </c>
       <c r="C729" s="4">
         <v>127</v>
       </c>
       <c r="D729" s="7">
-        <v>6.7288333156723537E-3</v>
+        <v>6.7295464179737176E-3</v>
       </c>
       <c r="E729" s="8">
-        <v>67.288333156723539</v>
+        <v>67.295464179737181</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
@@ -20395,16 +20398,33 @@
         <v>44105</v>
       </c>
       <c r="B731" s="4">
-        <v>18264</v>
+        <v>19025</v>
       </c>
       <c r="C731" s="4">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D731" s="7">
-        <v>7.1178274200613227E-3</v>
+        <v>7.0433639947437583E-3</v>
       </c>
       <c r="E731" s="8">
-        <v>71.178274200613217</v>
+        <v>70.43363994743757</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A732" s="9">
+        <v>44136</v>
+      </c>
+      <c r="B732" s="4">
+        <v>17845</v>
+      </c>
+      <c r="C732" s="4">
+        <v>125</v>
+      </c>
+      <c r="D732" s="7">
+        <v>7.0047632390025216E-3</v>
+      </c>
+      <c r="E732" s="8">
+        <v>70.047632390025214</v>
       </c>
     </row>
   </sheetData>
@@ -81309,13 +81329,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E246" sqref="E246"/>
+      <selection pane="bottomRight" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -83987,6 +84007,11 @@
         <v>64.103669184696088</v>
       </c>
     </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>2298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\GPR_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7551,13 +7551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F732"/>
+  <dimension ref="A1:F733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B714" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B723" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I729" sqref="I729"/>
+      <selection pane="bottomRight" activeCell="J737" sqref="J737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20296,7 +20296,7 @@
         <v>43922</v>
       </c>
       <c r="B725" s="4">
-        <v>17303</v>
+        <v>17304</v>
       </c>
       <c r="C725" s="4">
         <v>96</v>
@@ -20313,7 +20313,7 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17741</v>
+        <v>17749</v>
       </c>
       <c r="C726" s="4">
         <v>118</v>
@@ -20330,7 +20330,7 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>16716</v>
+        <v>16722</v>
       </c>
       <c r="C727" s="4">
         <v>100</v>
@@ -20347,7 +20347,7 @@
         <v>44013</v>
       </c>
       <c r="B728" s="4">
-        <v>18117</v>
+        <v>18122</v>
       </c>
       <c r="C728" s="4">
         <v>104</v>
@@ -20364,7 +20364,7 @@
         <v>44044</v>
       </c>
       <c r="B729" s="4">
-        <v>18872</v>
+        <v>18880</v>
       </c>
       <c r="C729" s="4">
         <v>127</v>
@@ -20381,7 +20381,7 @@
         <v>44075</v>
       </c>
       <c r="B730" s="4">
-        <v>18266</v>
+        <v>18271</v>
       </c>
       <c r="C730" s="4">
         <v>124</v>
@@ -20398,7 +20398,7 @@
         <v>44105</v>
       </c>
       <c r="B731" s="4">
-        <v>19025</v>
+        <v>19024</v>
       </c>
       <c r="C731" s="4">
         <v>134</v>
@@ -20415,7 +20415,7 @@
         <v>44136</v>
       </c>
       <c r="B732" s="4">
-        <v>17845</v>
+        <v>17859</v>
       </c>
       <c r="C732" s="4">
         <v>125</v>
@@ -20425,6 +20425,23 @@
       </c>
       <c r="E732" s="8">
         <v>70.047632390025214</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A733" s="9">
+        <v>44166</v>
+      </c>
+      <c r="B733" s="4">
+        <v>17725</v>
+      </c>
+      <c r="C733" s="4">
+        <v>174</v>
+      </c>
+      <c r="D733" s="7">
+        <v>7.1617596996691396E-3</v>
+      </c>
+      <c r="E733" s="8">
+        <v>71.617596996691404</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\GPR_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7557,7 +7557,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B723" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J737" sqref="J737"/>
+      <selection pane="bottomRight" activeCell="G735" sqref="G735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20404,10 +20404,10 @@
         <v>134</v>
       </c>
       <c r="D731" s="7">
-        <v>7.0433639947437583E-3</v>
+        <v>7.043734230445753E-3</v>
       </c>
       <c r="E731" s="8">
-        <v>70.43363994743757</v>
+        <v>70.43734230445753</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
@@ -20421,10 +20421,10 @@
         <v>125</v>
       </c>
       <c r="D732" s="7">
-        <v>7.0047632390025216E-3</v>
+        <v>6.999272075704127E-3</v>
       </c>
       <c r="E732" s="8">
-        <v>70.047632390025214</v>
+        <v>69.992720757041269</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
@@ -20438,10 +20438,10 @@
         <v>174</v>
       </c>
       <c r="D733" s="7">
-        <v>7.1617596996691396E-3</v>
+        <v>9.8166431593794071E-3</v>
       </c>
       <c r="E733" s="8">
-        <v>71.617596996691404</v>
+        <v>98.166431593794073</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -6994,7 +6994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7040,6 +7040,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7551,13 +7554,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F733"/>
+  <dimension ref="A1:F734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B723" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B717" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G735" sqref="G735"/>
+      <selection pane="bottomRight" activeCell="E725" sqref="E725:E734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20247,11 +20250,11 @@
       <c r="B722" s="4">
         <v>19408</v>
       </c>
-      <c r="C722" s="4">
+      <c r="C722" s="18">
         <v>271</v>
       </c>
       <c r="D722" s="7">
-        <v>1.396403359612511E-2</v>
+        <v>1.3963314097279472E-2</v>
       </c>
       <c r="E722" s="8">
         <v>139.64033596125108</v>
@@ -20262,16 +20265,16 @@
         <v>43862</v>
       </c>
       <c r="B723" s="4">
-        <v>18487</v>
-      </c>
-      <c r="C723" s="4">
+        <v>18488</v>
+      </c>
+      <c r="C723" s="18">
         <v>177</v>
       </c>
       <c r="D723" s="7">
-        <v>9.5742954508573584E-3</v>
+        <v>9.5737775854608399E-3</v>
       </c>
       <c r="E723" s="8">
-        <v>95.74295450857359</v>
+        <v>95.737775854608401</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
@@ -20281,7 +20284,7 @@
       <c r="B724" s="4">
         <v>19107</v>
       </c>
-      <c r="C724" s="4">
+      <c r="C724" s="18">
         <v>117</v>
       </c>
       <c r="D724" s="7">
@@ -20298,14 +20301,14 @@
       <c r="B725" s="4">
         <v>17304</v>
       </c>
-      <c r="C725" s="4">
+      <c r="C725" s="18">
         <v>96</v>
       </c>
       <c r="D725" s="7">
-        <v>5.5481708374270355E-3</v>
+        <v>5.5478502080443829E-3</v>
       </c>
       <c r="E725" s="8">
-        <v>55.481708374270355</v>
+        <v>55.478502080443825</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
@@ -20313,16 +20316,16 @@
         <v>43952</v>
       </c>
       <c r="B726" s="4">
-        <v>17749</v>
-      </c>
-      <c r="C726" s="4">
+        <v>17739</v>
+      </c>
+      <c r="C726" s="18">
         <v>118</v>
       </c>
       <c r="D726" s="7">
-        <v>6.6512597936982136E-3</v>
+        <v>6.6520096961497268E-3</v>
       </c>
       <c r="E726" s="8">
-        <v>66.512597936982132</v>
+        <v>66.520096961497259</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -20330,16 +20333,16 @@
         <v>43983</v>
       </c>
       <c r="B727" s="4">
-        <v>16722</v>
-      </c>
-      <c r="C727" s="4">
+        <v>16708</v>
+      </c>
+      <c r="C727" s="18">
         <v>100</v>
       </c>
       <c r="D727" s="7">
-        <v>5.9822924144532184E-3</v>
+        <v>5.9851568111084514E-3</v>
       </c>
       <c r="E727" s="8">
-        <v>59.822924144532188</v>
+        <v>59.851568111084511</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -20347,16 +20350,16 @@
         <v>44013</v>
       </c>
       <c r="B728" s="4">
-        <v>18122</v>
-      </c>
-      <c r="C728" s="4">
+        <v>18112</v>
+      </c>
+      <c r="C728" s="18">
         <v>104</v>
       </c>
       <c r="D728" s="7">
-        <v>5.7404647568581992E-3</v>
+        <v>5.7420494699646643E-3</v>
       </c>
       <c r="E728" s="8">
-        <v>57.404647568581993</v>
+        <v>57.420494699646639</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
@@ -20364,16 +20367,16 @@
         <v>44044</v>
       </c>
       <c r="B729" s="4">
-        <v>18880</v>
-      </c>
-      <c r="C729" s="4">
+        <v>18895</v>
+      </c>
+      <c r="C729" s="18">
         <v>127</v>
       </c>
       <c r="D729" s="7">
-        <v>6.7295464179737176E-3</v>
+        <v>6.7213548557819528E-3</v>
       </c>
       <c r="E729" s="8">
-        <v>67.295464179737181</v>
+        <v>67.213548557819522</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
@@ -20381,16 +20384,16 @@
         <v>44075</v>
       </c>
       <c r="B730" s="4">
-        <v>18271</v>
-      </c>
-      <c r="C730" s="4">
+        <v>18282</v>
+      </c>
+      <c r="C730" s="18">
         <v>124</v>
       </c>
       <c r="D730" s="7">
-        <v>6.7885689258732071E-3</v>
+        <v>6.7826277212558799E-3</v>
       </c>
       <c r="E730" s="8">
-        <v>67.885689258732071</v>
+        <v>67.826277212558793</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
@@ -20398,16 +20401,16 @@
         <v>44105</v>
       </c>
       <c r="B731" s="4">
-        <v>19024</v>
-      </c>
-      <c r="C731" s="4">
+        <v>19037</v>
+      </c>
+      <c r="C731" s="18">
         <v>134</v>
       </c>
       <c r="D731" s="7">
-        <v>7.043734230445753E-3</v>
+        <v>7.0389242002416351E-3</v>
       </c>
       <c r="E731" s="8">
-        <v>70.43734230445753</v>
+        <v>70.389242002416353</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
@@ -20415,16 +20418,16 @@
         <v>44136</v>
       </c>
       <c r="B732" s="4">
-        <v>17859</v>
-      </c>
-      <c r="C732" s="4">
+        <v>17878</v>
+      </c>
+      <c r="C732" s="18">
         <v>125</v>
       </c>
       <c r="D732" s="7">
-        <v>6.999272075704127E-3</v>
+        <v>6.9918335384271174E-3</v>
       </c>
       <c r="E732" s="8">
-        <v>69.992720757041269</v>
+        <v>69.918335384271174</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
@@ -20432,16 +20435,33 @@
         <v>44166</v>
       </c>
       <c r="B733" s="4">
-        <v>17725</v>
-      </c>
-      <c r="C733" s="4">
+        <v>17743</v>
+      </c>
+      <c r="C733" s="18">
         <v>174</v>
       </c>
       <c r="D733" s="7">
-        <v>9.8166431593794071E-3</v>
+        <v>9.806684326213155E-3</v>
       </c>
       <c r="E733" s="8">
-        <v>98.166431593794073</v>
+        <v>98.066843262131556</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A734" s="9">
+        <v>44197</v>
+      </c>
+      <c r="B734" s="4">
+        <v>18215</v>
+      </c>
+      <c r="C734" s="18">
+        <v>138</v>
+      </c>
+      <c r="D734" s="7">
+        <v>7.5761734833928078E-3</v>
+      </c>
+      <c r="E734" s="8">
+        <v>75.761734833928074</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C38171-A0A2-44A1-853E-AC34B1D3E4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13520" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="2040" yWindow="1020" windowWidth="14400" windowHeight="8500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -18,10 +19,18 @@
     <sheet name="TPU_DAILY" sheetId="8" r:id="rId4"/>
     <sheet name="TPU_QUARTERLY" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6930,12 +6939,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6972,16 +6981,308 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6989,12 +7290,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7044,10 +7500,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="25" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="31" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="34" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="29" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="32" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="35" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="44" xr:uid="{4A16DD3C-E64B-4719-8CDE-D67DF0230054}"/>
+    <cellStyle name="60% - Accent1 3" xfId="37" xr:uid="{E613D727-CAE4-47D5-AB55-0C6EFE4651B0}"/>
+    <cellStyle name="60% - Accent2 2" xfId="45" xr:uid="{F0BE3E22-B446-4BCF-8652-0A43DC91D884}"/>
+    <cellStyle name="60% - Accent2 3" xfId="38" xr:uid="{464F42A0-F1CE-422E-902D-053DAC01B80C}"/>
+    <cellStyle name="60% - Accent3 2" xfId="46" xr:uid="{64192ED1-B939-4564-AAAA-8C8593A3BC68}"/>
+    <cellStyle name="60% - Accent3 3" xfId="39" xr:uid="{BF7AFBA0-9351-4A11-8796-FBDE35C6B2F3}"/>
+    <cellStyle name="60% - Accent4 2" xfId="47" xr:uid="{1C9C46A1-8CB1-4A23-B79D-52819BEF9D7F}"/>
+    <cellStyle name="60% - Accent4 3" xfId="40" xr:uid="{B113EACB-D5D5-44D6-9483-196224F696CA}"/>
+    <cellStyle name="60% - Accent5 2" xfId="48" xr:uid="{705172DF-34A4-4A82-92A0-2F5DBB416C96}"/>
+    <cellStyle name="60% - Accent5 3" xfId="41" xr:uid="{2989C943-4B4D-4D29-9BC8-51FEBF6DB1E3}"/>
+    <cellStyle name="60% - Accent6 2" xfId="49" xr:uid="{6A6C334E-DD4C-4BC3-8623-96C08662E0A0}"/>
+    <cellStyle name="60% - Accent6 3" xfId="42" xr:uid="{76F32FAC-6C9C-40DD-A4C4-904DD5CB8148}"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="24" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="30" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="33" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="43" xr:uid="{E80F4EFC-1A37-42DA-9F6A-6BCDF62B27C9}"/>
+    <cellStyle name="Neutral 3" xfId="36" xr:uid="{4311EE74-EFAF-441E-AF00-6707D5169EDF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7324,7 +7834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -7467,7 +7977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7553,14 +8063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F734"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F736"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B717" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B721" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E725" sqref="E725:E734"/>
+      <selection pane="bottomRight" activeCell="H729" sqref="H729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20315,154 +20825,175 @@
       <c r="A726" s="9">
         <v>43952</v>
       </c>
-      <c r="B726" s="4">
+      <c r="B726" s="20">
         <v>17739</v>
       </c>
       <c r="C726" s="18">
         <v>118</v>
       </c>
       <c r="D726" s="7">
-        <v>6.6520096961497268E-3</v>
+        <v>6.6499999999999997E-3</v>
       </c>
       <c r="E726" s="8">
-        <v>66.520096961497259</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" s="9">
         <v>43983</v>
       </c>
-      <c r="B727" s="4">
+      <c r="B727" s="20">
         <v>16708</v>
       </c>
       <c r="C727" s="18">
         <v>100</v>
       </c>
       <c r="D727" s="7">
-        <v>5.9851568111084514E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="E727" s="8">
-        <v>59.851568111084511</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" s="9">
         <v>44013</v>
       </c>
-      <c r="B728" s="4">
-        <v>18112</v>
+      <c r="B728" s="20">
+        <v>18111</v>
       </c>
       <c r="C728" s="18">
         <v>104</v>
       </c>
       <c r="D728" s="7">
-        <v>5.7420494699646643E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="E728" s="8">
-        <v>57.420494699646639</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="9">
         <v>44044</v>
       </c>
-      <c r="B729" s="4">
+      <c r="B729" s="20">
         <v>18895</v>
       </c>
       <c r="C729" s="18">
         <v>127</v>
       </c>
       <c r="D729" s="7">
-        <v>6.7213548557819528E-3</v>
+        <v>6.7200000000000003E-3</v>
       </c>
       <c r="E729" s="8">
-        <v>67.213548557819522</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="9">
         <v>44075</v>
       </c>
-      <c r="B730" s="4">
-        <v>18282</v>
+      <c r="B730" s="20">
+        <v>18290</v>
       </c>
       <c r="C730" s="18">
         <v>124</v>
       </c>
       <c r="D730" s="7">
-        <v>6.7826277212558799E-3</v>
+        <v>6.7799999999999996E-3</v>
       </c>
       <c r="E730" s="8">
-        <v>67.826277212558793</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="9">
         <v>44105</v>
       </c>
-      <c r="B731" s="4">
-        <v>19037</v>
+      <c r="B731" s="20">
+        <v>19075</v>
       </c>
       <c r="C731" s="18">
         <v>134</v>
       </c>
       <c r="D731" s="7">
-        <v>7.0389242002416351E-3</v>
+        <v>7.0200000000000002E-3</v>
       </c>
       <c r="E731" s="8">
-        <v>70.389242002416353</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="9">
         <v>44136</v>
       </c>
-      <c r="B732" s="4">
-        <v>17878</v>
+      <c r="B732" s="20">
+        <v>17889</v>
       </c>
       <c r="C732" s="18">
         <v>125</v>
       </c>
       <c r="D732" s="7">
-        <v>6.9918335384271174E-3</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="E732" s="8">
-        <v>69.918335384271174</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="9">
         <v>44166</v>
       </c>
-      <c r="B733" s="4">
-        <v>17743</v>
+      <c r="B733" s="20">
+        <v>17752</v>
       </c>
       <c r="C733" s="18">
         <v>174</v>
       </c>
       <c r="D733" s="7">
-        <v>9.806684326213155E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E733" s="8">
-        <v>98.066843262131556</v>
+        <v>98</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="9">
         <v>44197</v>
       </c>
-      <c r="B734" s="4">
-        <v>18215</v>
+      <c r="B734" s="20">
+        <v>18281</v>
       </c>
       <c r="C734" s="18">
         <v>138</v>
       </c>
       <c r="D734" s="7">
-        <v>7.5761734833928078E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="E734" s="8">
-        <v>75.761734833928074</v>
-      </c>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A735" s="19">
+        <v>44228</v>
+      </c>
+      <c r="B735" s="20">
+        <v>17076</v>
+      </c>
+      <c r="C735" s="18">
+        <v>63</v>
+      </c>
+      <c r="D735" s="17">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="E735" s="4">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D736"/>
+      <c r="E736"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20471,7 +21002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81365,7 +81896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -84051,5 +84582,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C38171-A0A2-44A1-853E-AC34B1D3E4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D78214F-059B-4454-92D5-40E849035C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1020" windowWidth="14400" windowHeight="8500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="16380" windowHeight="8150" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -6940,9 +6940,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -7450,7 +7451,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7500,10 +7501,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8064,13 +8078,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F736"/>
+  <dimension ref="A1:F737"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B721" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H729" sqref="H729"/>
+      <selection pane="bottomRight" activeCell="I736" sqref="I736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20825,7 +20839,7 @@
       <c r="A726" s="9">
         <v>43952</v>
       </c>
-      <c r="B726" s="20">
+      <c r="B726" s="19">
         <v>17739</v>
       </c>
       <c r="C726" s="18">
@@ -20842,7 +20856,7 @@
       <c r="A727" s="9">
         <v>43983</v>
       </c>
-      <c r="B727" s="20">
+      <c r="B727" s="19">
         <v>16708</v>
       </c>
       <c r="C727" s="18">
@@ -20859,7 +20873,7 @@
       <c r="A728" s="9">
         <v>44013</v>
       </c>
-      <c r="B728" s="20">
+      <c r="B728" s="19">
         <v>18111</v>
       </c>
       <c r="C728" s="18">
@@ -20876,7 +20890,7 @@
       <c r="A729" s="9">
         <v>44044</v>
       </c>
-      <c r="B729" s="20">
+      <c r="B729" s="19">
         <v>18895</v>
       </c>
       <c r="C729" s="18">
@@ -20893,7 +20907,7 @@
       <c r="A730" s="9">
         <v>44075</v>
       </c>
-      <c r="B730" s="20">
+      <c r="B730" s="19">
         <v>18290</v>
       </c>
       <c r="C730" s="18">
@@ -20907,93 +20921,110 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A731" s="9">
+      <c r="A731" s="21">
         <v>44105</v>
       </c>
-      <c r="B731" s="20">
+      <c r="B731" s="18">
         <v>19075</v>
       </c>
       <c r="C731" s="18">
         <v>134</v>
       </c>
-      <c r="D731" s="7">
-        <v>7.0200000000000002E-3</v>
-      </c>
-      <c r="E731" s="8">
-        <v>70.2</v>
+      <c r="D731" s="23">
+        <v>7.0249017038007859E-3</v>
+      </c>
+      <c r="E731" s="25">
+        <v>70.24901703800785</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A732" s="9">
+      <c r="A732" s="21">
         <v>44136</v>
       </c>
-      <c r="B732" s="20">
+      <c r="B732" s="18">
         <v>17889</v>
       </c>
       <c r="C732" s="18">
         <v>125</v>
       </c>
-      <c r="D732" s="7">
-        <v>6.9899999999999997E-3</v>
-      </c>
-      <c r="E732" s="8">
-        <v>69.900000000000006</v>
+      <c r="D732" s="23">
+        <v>6.9875342389177711E-3</v>
+      </c>
+      <c r="E732" s="25">
+        <v>69.875342389177703</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A733" s="9">
+      <c r="A733" s="21">
         <v>44166</v>
       </c>
-      <c r="B733" s="20">
-        <v>17752</v>
+      <c r="B733" s="18">
+        <v>17753</v>
       </c>
       <c r="C733" s="18">
         <v>174</v>
       </c>
-      <c r="D733" s="7">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="E733" s="8">
-        <v>98</v>
+      <c r="D733" s="23">
+        <v>9.8011603672618717E-3</v>
+      </c>
+      <c r="E733" s="25">
+        <v>98.011603672618719</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A734" s="9">
+      <c r="A734" s="21">
         <v>44197</v>
       </c>
-      <c r="B734" s="20">
-        <v>18281</v>
+      <c r="B734" s="18">
+        <v>18280</v>
       </c>
       <c r="C734" s="18">
         <v>138</v>
       </c>
-      <c r="D734" s="7">
-        <v>7.5500000000000003E-3</v>
-      </c>
-      <c r="E734" s="8">
-        <v>75.5</v>
+      <c r="D734" s="23">
+        <v>7.5492341356673959E-3</v>
+      </c>
+      <c r="E734" s="25">
+        <v>75.492341356673947</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A735" s="19">
+      <c r="A735" s="21">
         <v>44228</v>
       </c>
-      <c r="B735" s="20">
-        <v>17076</v>
-      </c>
-      <c r="C735" s="18">
+      <c r="B735" s="22">
+        <v>17074</v>
+      </c>
+      <c r="C735" s="22">
         <v>63</v>
       </c>
-      <c r="D735" s="17">
-        <v>3.6900000000000001E-3</v>
-      </c>
-      <c r="E735" s="4">
-        <v>36.9</v>
+      <c r="D735" s="24">
+        <v>3.6898207801335362E-3</v>
+      </c>
+      <c r="E735" s="25">
+        <v>36.898207801335367</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D736"/>
-      <c r="E736"/>
+      <c r="A736" s="21">
+        <v>44256</v>
+      </c>
+      <c r="B736" s="22">
+        <v>18523</v>
+      </c>
+      <c r="C736" s="22">
+        <v>87</v>
+      </c>
+      <c r="D736" s="23">
+        <v>4.6968633590671058E-3</v>
+      </c>
+      <c r="E736" s="25">
+        <v>46.968633590671054</v>
+      </c>
+    </row>
+    <row r="737" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D737" s="20"/>
+      <c r="E737"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D78214F-059B-4454-92D5-40E849035C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1EA5DEE-BD05-4FBB-8C53-27EBA1FC30FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="16380" windowHeight="8150" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45975" yWindow="1470" windowWidth="8505" windowHeight="10185" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -6940,10 +6940,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -7451,7 +7450,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7504,7 +7503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8078,13 +8076,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F737"/>
+  <dimension ref="A1:F738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B721" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I736" sqref="I736"/>
+      <selection pane="bottomRight" activeCell="D744" sqref="D744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20921,7 +20919,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A731" s="21">
+      <c r="A731" s="20">
         <v>44105</v>
       </c>
       <c r="B731" s="18">
@@ -20930,101 +20928,131 @@
       <c r="C731" s="18">
         <v>134</v>
       </c>
-      <c r="D731" s="23">
+      <c r="D731" s="22">
         <v>7.0249017038007859E-3</v>
       </c>
-      <c r="E731" s="25">
+      <c r="E731" s="24">
         <v>70.24901703800785</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A732" s="21">
+      <c r="A732" s="20">
         <v>44136</v>
       </c>
       <c r="B732" s="18">
-        <v>17889</v>
+        <v>17892</v>
       </c>
       <c r="C732" s="18">
         <v>125</v>
       </c>
-      <c r="D732" s="23">
+      <c r="D732" s="22">
         <v>6.9875342389177711E-3</v>
       </c>
-      <c r="E732" s="25">
+      <c r="E732" s="24">
         <v>69.875342389177703</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A733" s="21">
+      <c r="A733" s="20">
         <v>44166</v>
       </c>
       <c r="B733" s="18">
-        <v>17753</v>
+        <v>17757</v>
       </c>
       <c r="C733" s="18">
         <v>174</v>
       </c>
-      <c r="D733" s="23">
+      <c r="D733" s="22">
         <v>9.8011603672618717E-3</v>
       </c>
-      <c r="E733" s="25">
+      <c r="E733" s="24">
         <v>98.011603672618719</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A734" s="21">
+      <c r="A734" s="20">
         <v>44197</v>
       </c>
       <c r="B734" s="18">
-        <v>18280</v>
+        <v>18284</v>
       </c>
       <c r="C734" s="18">
         <v>138</v>
       </c>
-      <c r="D734" s="23">
-        <v>7.5492341356673959E-3</v>
-      </c>
-      <c r="E734" s="25">
-        <v>75.492341356673947</v>
+      <c r="D734" s="22">
+        <v>7.5488211804605873E-3</v>
+      </c>
+      <c r="E734" s="24">
+        <v>75.488211804605882</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A735" s="21">
+      <c r="A735" s="20">
         <v>44228</v>
       </c>
-      <c r="B735" s="22">
-        <v>17074</v>
-      </c>
-      <c r="C735" s="22">
+      <c r="B735" s="21">
+        <v>17078</v>
+      </c>
+      <c r="C735" s="21">
         <v>63</v>
       </c>
-      <c r="D735" s="24">
-        <v>3.6898207801335362E-3</v>
-      </c>
-      <c r="E735" s="25">
-        <v>36.898207801335367</v>
+      <c r="D735" s="23">
+        <v>3.6896046852122988E-3</v>
+      </c>
+      <c r="E735" s="24">
+        <v>36.896046852122986</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A736" s="21">
+      <c r="A736" s="20">
         <v>44256</v>
       </c>
-      <c r="B736" s="22">
-        <v>18523</v>
-      </c>
-      <c r="C736" s="22">
-        <v>87</v>
-      </c>
-      <c r="D736" s="23">
-        <v>4.6968633590671058E-3</v>
-      </c>
-      <c r="E736" s="25">
-        <v>46.968633590671054</v>
-      </c>
-    </row>
-    <row r="737" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D737" s="20"/>
-      <c r="E737"/>
+      <c r="B736" s="21">
+        <v>18565</v>
+      </c>
+      <c r="C736" s="21">
+        <v>86</v>
+      </c>
+      <c r="D736" s="22">
+        <v>4.6953424361811215E-3</v>
+      </c>
+      <c r="E736" s="24">
+        <v>46.953424361811216</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A737" s="20">
+        <v>44287</v>
+      </c>
+      <c r="B737" s="4">
+        <v>17477</v>
+      </c>
+      <c r="C737" s="4">
+        <v>84</v>
+      </c>
+      <c r="D737" s="17">
+        <v>4.8101700738704687E-3</v>
+      </c>
+      <c r="E737" s="8">
+        <v>48.101700738704686</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A738" s="9">
+        <v>44317</v>
+      </c>
+      <c r="B738" s="4">
+        <v>18029</v>
+      </c>
+      <c r="C738" s="4">
+        <v>89</v>
+      </c>
+      <c r="D738" s="7">
+        <v>5.2594979919867203E-3</v>
+      </c>
+      <c r="E738" s="8">
+        <v>52.5949799198672</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1EA5DEE-BD05-4FBB-8C53-27EBA1FC30FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06C9973-FC3F-466B-90A3-9D8A39349244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45975" yWindow="1470" windowWidth="8505" windowHeight="10185" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="840" windowWidth="14510" windowHeight="8700" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7101,7 +7101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7279,6 +7279,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7506,9 +7512,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7517,6 +7520,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -8076,13 +8082,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F738"/>
+  <dimension ref="A1:F739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D744" sqref="D744"/>
+      <selection pane="bottomRight" activeCell="M733" sqref="M733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20928,10 +20934,10 @@
       <c r="C731" s="18">
         <v>134</v>
       </c>
-      <c r="D731" s="22">
+      <c r="D731" s="21">
         <v>7.0249017038007859E-3</v>
       </c>
-      <c r="E731" s="24">
+      <c r="E731" s="23">
         <v>70.24901703800785</v>
       </c>
     </row>
@@ -20945,10 +20951,10 @@
       <c r="C732" s="18">
         <v>125</v>
       </c>
-      <c r="D732" s="22">
+      <c r="D732" s="21">
         <v>6.9875342389177711E-3</v>
       </c>
-      <c r="E732" s="24">
+      <c r="E732" s="23">
         <v>69.875342389177703</v>
       </c>
     </row>
@@ -20962,10 +20968,10 @@
       <c r="C733" s="18">
         <v>174</v>
       </c>
-      <c r="D733" s="22">
+      <c r="D733" s="21">
         <v>9.8011603672618717E-3</v>
       </c>
-      <c r="E733" s="24">
+      <c r="E733" s="23">
         <v>98.011603672618719</v>
       </c>
     </row>
@@ -20973,85 +20979,102 @@
       <c r="A734" s="20">
         <v>44197</v>
       </c>
-      <c r="B734" s="18">
+      <c r="B734" s="24">
         <v>18284</v>
       </c>
-      <c r="C734" s="18">
+      <c r="C734" s="24">
         <v>138</v>
       </c>
-      <c r="D734" s="22">
-        <v>7.5488211804605873E-3</v>
-      </c>
-      <c r="E734" s="24">
-        <v>75.488211804605882</v>
+      <c r="D734" s="21">
+        <v>7.5475825858674255E-3</v>
+      </c>
+      <c r="E734" s="23">
+        <v>75.475825858674256</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" s="20">
         <v>44228</v>
       </c>
-      <c r="B735" s="21">
-        <v>17078</v>
-      </c>
-      <c r="C735" s="21">
+      <c r="B735">
+        <v>17079</v>
+      </c>
+      <c r="C735">
         <v>63</v>
       </c>
-      <c r="D735" s="23">
-        <v>3.6896046852122988E-3</v>
-      </c>
-      <c r="E735" s="24">
-        <v>36.896046852122986</v>
+      <c r="D735" s="22">
+        <v>3.6887405585807132E-3</v>
+      </c>
+      <c r="E735" s="23">
+        <v>36.88740558580713</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" s="20">
         <v>44256</v>
       </c>
-      <c r="B736" s="21">
-        <v>18565</v>
-      </c>
-      <c r="C736" s="21">
+      <c r="B736">
+        <v>18564</v>
+      </c>
+      <c r="C736">
         <v>86</v>
       </c>
-      <c r="D736" s="22">
-        <v>4.6953424361811215E-3</v>
-      </c>
-      <c r="E736" s="24">
-        <v>46.953424361811216</v>
+      <c r="D736" s="21">
+        <v>4.6326222796811032E-3</v>
+      </c>
+      <c r="E736" s="23">
+        <v>46.326222796811031</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" s="20">
         <v>44287</v>
       </c>
-      <c r="B737" s="4">
-        <v>17477</v>
-      </c>
-      <c r="C737" s="4">
+      <c r="B737">
+        <v>17479</v>
+      </c>
+      <c r="C737">
         <v>84</v>
       </c>
       <c r="D737" s="17">
-        <v>4.8101700738704687E-3</v>
+        <v>4.8057669203043652E-3</v>
       </c>
       <c r="E737" s="8">
-        <v>48.101700738704686</v>
+        <v>48.057669203043652</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" s="9">
         <v>44317</v>
       </c>
-      <c r="B738" s="4">
-        <v>18029</v>
-      </c>
-      <c r="C738" s="4">
+      <c r="B738">
+        <v>18028</v>
+      </c>
+      <c r="C738">
         <v>89</v>
       </c>
       <c r="D738" s="7">
-        <v>5.2594979919867203E-3</v>
+        <v>4.9367650321721765E-3</v>
       </c>
       <c r="E738" s="8">
-        <v>52.5949799198672</v>
+        <v>49.367650321721761</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A739" s="20">
+        <v>44348</v>
+      </c>
+      <c r="B739">
+        <v>17385</v>
+      </c>
+      <c r="C739">
+        <v>86</v>
+      </c>
+      <c r="D739" s="17">
+        <v>4.9467932125395455E-3</v>
+      </c>
+      <c r="E739" s="8">
+        <v>49.46793212539545</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06C9973-FC3F-466B-90A3-9D8A39349244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95C4C71-5E55-470A-99AF-396D97DB0572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="840" windowWidth="14510" windowHeight="8700" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="590" yWindow="930" windowWidth="18220" windowHeight="8700" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -8082,13 +8082,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F739"/>
+  <dimension ref="A1:F741"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M733" sqref="M733"/>
+      <selection pane="bottomRight" activeCell="E736" sqref="E736:E740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20945,10 +20945,10 @@
       <c r="A732" s="20">
         <v>44136</v>
       </c>
-      <c r="B732" s="18">
+      <c r="B732" s="24">
         <v>17892</v>
       </c>
-      <c r="C732" s="18">
+      <c r="C732" s="24">
         <v>125</v>
       </c>
       <c r="D732" s="21">
@@ -20962,10 +20962,10 @@
       <c r="A733" s="20">
         <v>44166</v>
       </c>
-      <c r="B733" s="18">
+      <c r="B733" s="24">
         <v>17757</v>
       </c>
-      <c r="C733" s="18">
+      <c r="C733" s="24">
         <v>174</v>
       </c>
       <c r="D733" s="21">
@@ -20980,7 +20980,7 @@
         <v>44197</v>
       </c>
       <c r="B734" s="24">
-        <v>18284</v>
+        <v>18283</v>
       </c>
       <c r="C734" s="24">
         <v>138</v>
@@ -21065,7 +21065,7 @@
         <v>44348</v>
       </c>
       <c r="B739">
-        <v>17385</v>
+        <v>17387</v>
       </c>
       <c r="C739">
         <v>86</v>
@@ -21076,6 +21076,26 @@
       <c r="E739" s="8">
         <v>49.46793212539545</v>
       </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A740" s="20">
+        <v>44378</v>
+      </c>
+      <c r="B740">
+        <v>17795</v>
+      </c>
+      <c r="C740">
+        <v>102</v>
+      </c>
+      <c r="D740" s="21">
+        <v>4.1843722176667202E-3</v>
+      </c>
+      <c r="E740" s="23">
+        <v>41.8437221766672</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C741"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95C4C71-5E55-470A-99AF-396D97DB0572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C244F6-23A4-47F0-95A9-75B5D67BD02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="590" yWindow="930" windowWidth="18220" windowHeight="8700" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17330" windowHeight="9380" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7991,6 +7991,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // FRSONLY&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8077,6 +8080,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // FRSONLY&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8088,7 +8094,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E736" sqref="E736:E740"/>
+      <selection pane="bottomRight" activeCell="H738" sqref="H738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21071,10 +21077,10 @@
         <v>86</v>
       </c>
       <c r="D739" s="17">
-        <v>4.9467932125395455E-3</v>
+        <v>4.946224190487146E-3</v>
       </c>
       <c r="E739" s="8">
-        <v>49.46793212539545</v>
+        <v>49.462241904871455</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
@@ -21088,18 +21094,35 @@
         <v>102</v>
       </c>
       <c r="D740" s="21">
-        <v>4.1843722176667202E-3</v>
+        <v>5.7319471761730825E-3</v>
       </c>
       <c r="E740" s="23">
-        <v>41.8437221766672</v>
+        <v>57.319471761730824</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C741"/>
+      <c r="A741" s="20">
+        <v>44409</v>
+      </c>
+      <c r="B741">
+        <v>17781.8</v>
+      </c>
+      <c r="C741">
+        <v>27</v>
+      </c>
+      <c r="D741" s="17">
+        <v>4.1679530719357823E-3</v>
+      </c>
+      <c r="E741" s="8">
+        <v>41.679530719357821</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // FRSONLY&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -81994,6 +82017,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // FRSONLY&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -84685,5 +84711,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // FRSONLY&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C244F6-23A4-47F0-95A9-75B5D67BD02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{315A6302-749B-4474-81A1-761452F2517E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17330" windowHeight="9380" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="530" windowWidth="14400" windowHeight="8840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -6940,9 +6940,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -7456,7 +7457,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7523,6 +7524,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -8088,13 +8095,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F741"/>
+  <dimension ref="A1:F742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B724" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B730" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H738" sqref="H738"/>
+      <selection pane="bottomRight" activeCell="G743" sqref="G743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21054,16 +21061,16 @@
         <v>44317</v>
       </c>
       <c r="B738">
-        <v>18028</v>
+        <v>18035</v>
       </c>
       <c r="C738">
         <v>89</v>
       </c>
       <c r="D738" s="7">
-        <v>4.9367650321721765E-3</v>
-      </c>
-      <c r="E738" s="8">
-        <v>49.367650321721761</v>
+        <v>4.9348489049071253E-3</v>
+      </c>
+      <c r="E738" s="25">
+        <v>49.348489049071254</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
@@ -21071,16 +21078,16 @@
         <v>44348</v>
       </c>
       <c r="B739">
-        <v>17387</v>
+        <v>17401</v>
       </c>
       <c r="C739">
         <v>86</v>
       </c>
       <c r="D739" s="17">
-        <v>4.946224190487146E-3</v>
-      </c>
-      <c r="E739" s="8">
-        <v>49.462241904871455</v>
+        <v>4.9422446985805417E-3</v>
+      </c>
+      <c r="E739" s="25">
+        <v>49.422446985805415</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
@@ -21088,16 +21095,16 @@
         <v>44378</v>
       </c>
       <c r="B740">
-        <v>17795</v>
+        <v>17791</v>
       </c>
       <c r="C740">
         <v>102</v>
       </c>
       <c r="D740" s="21">
-        <v>5.7319471761730825E-3</v>
-      </c>
-      <c r="E740" s="23">
-        <v>57.319471761730824</v>
+        <v>5.7332359057950645E-3</v>
+      </c>
+      <c r="E740" s="26">
+        <v>57.33235905795064</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
@@ -21105,16 +21112,33 @@
         <v>44409</v>
       </c>
       <c r="B741">
-        <v>17781.8</v>
+        <v>17439</v>
       </c>
       <c r="C741">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D741" s="17">
-        <v>4.1679530719357823E-3</v>
-      </c>
-      <c r="E741" s="8">
-        <v>41.679530719357821</v>
+        <v>3.8993061528757385E-3</v>
+      </c>
+      <c r="E741" s="25">
+        <v>38.99306152875738</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A742" s="20">
+        <v>44440</v>
+      </c>
+      <c r="B742">
+        <v>16658</v>
+      </c>
+      <c r="C742">
+        <v>85</v>
+      </c>
+      <c r="D742" s="17">
+        <v>5.1026533797574741E-3</v>
+      </c>
+      <c r="E742" s="25">
+        <v>51.026533797574736</v>
       </c>
     </row>
   </sheetData>

--- a/tpu_files/tpu_web_latest.xlsx
+++ b/tpu_files/tpu_web_latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\Geopolitical_risk\gpr_webpage_matteo\tpu_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\tf\GPR\GPR_python\tpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315A6302-749B-4474-81A1-761452F2517E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA39F914-9452-4389-B293-ACC423CEBF6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="530" windowWidth="14400" windowHeight="8840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="670" windowWidth="17330" windowHeight="9040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -7457,7 +7457,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7514,9 +7514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8095,13 +8092,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F742"/>
+  <dimension ref="A1:F745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B730" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G743" sqref="G743"/>
+      <selection pane="bottomRight" activeCell="I741" sqref="I741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20950,7 +20947,7 @@
       <c r="D731" s="21">
         <v>7.0249017038007859E-3</v>
       </c>
-      <c r="E731" s="23">
+      <c r="E731" s="22">
         <v>70.24901703800785</v>
       </c>
     </row>
@@ -20958,16 +20955,16 @@
       <c r="A732" s="20">
         <v>44136</v>
       </c>
-      <c r="B732" s="24">
+      <c r="B732" s="23">
         <v>17892</v>
       </c>
-      <c r="C732" s="24">
+      <c r="C732" s="23">
         <v>125</v>
       </c>
       <c r="D732" s="21">
         <v>6.9875342389177711E-3</v>
       </c>
-      <c r="E732" s="23">
+      <c r="E732" s="22">
         <v>69.875342389177703</v>
       </c>
     </row>
@@ -20975,16 +20972,16 @@
       <c r="A733" s="20">
         <v>44166</v>
       </c>
-      <c r="B733" s="24">
+      <c r="B733" s="23">
         <v>17757</v>
       </c>
-      <c r="C733" s="24">
+      <c r="C733" s="23">
         <v>174</v>
       </c>
       <c r="D733" s="21">
         <v>9.8011603672618717E-3</v>
       </c>
-      <c r="E733" s="23">
+      <c r="E733" s="22">
         <v>98.011603672618719</v>
       </c>
     </row>
@@ -20992,17 +20989,17 @@
       <c r="A734" s="20">
         <v>44197</v>
       </c>
-      <c r="B734" s="24">
-        <v>18283</v>
-      </c>
-      <c r="C734" s="24">
+      <c r="B734">
+        <v>18282</v>
+      </c>
+      <c r="C734">
         <v>138</v>
       </c>
       <c r="D734" s="21">
-        <v>7.5475825858674255E-3</v>
-      </c>
-      <c r="E734" s="23">
-        <v>75.475825858674256</v>
+        <v>7.5484081E-3</v>
+      </c>
+      <c r="E734" s="25">
+        <v>75.484076999999999</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
@@ -21015,11 +21012,11 @@
       <c r="C735">
         <v>63</v>
       </c>
-      <c r="D735" s="22">
-        <v>3.6887405585807132E-3</v>
-      </c>
-      <c r="E735" s="23">
-        <v>36.88740558580713</v>
+      <c r="D735" s="21">
+        <v>3.6887405E-3</v>
+      </c>
+      <c r="E735" s="25">
+        <v>36.887405000000001</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
@@ -21027,16 +21024,16 @@
         <v>44256</v>
       </c>
       <c r="B736">
-        <v>18564</v>
+        <v>18565</v>
       </c>
       <c r="C736">
         <v>86</v>
       </c>
       <c r="D736" s="21">
-        <v>4.6326222796811032E-3</v>
-      </c>
-      <c r="E736" s="23">
-        <v>46.326222796811031</v>
+        <v>4.6323728999999999E-3</v>
+      </c>
+      <c r="E736" s="25">
+        <v>46.323729999999998</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
@@ -21044,16 +21041,16 @@
         <v>44287</v>
       </c>
       <c r="B737">
-        <v>17479</v>
+        <v>17484</v>
       </c>
       <c r="C737">
         <v>84</v>
       </c>
-      <c r="D737" s="17">
-        <v>4.8057669203043652E-3</v>
-      </c>
-      <c r="E737" s="8">
-        <v>48.057669203043652</v>
+      <c r="D737" s="7">
+        <v>4.8043927999999996E-3</v>
+      </c>
+      <c r="E737" s="24">
+        <v>48.043925999999999</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
@@ -21061,16 +21058,16 @@
         <v>44317</v>
       </c>
       <c r="B738">
-        <v>18035</v>
+        <v>18037</v>
       </c>
       <c r="C738">
         <v>89</v>
       </c>
       <c r="D738" s="7">
-        <v>4.9348489049071253E-3</v>
-      </c>
-      <c r="E738" s="25">
-        <v>49.348489049071254</v>
+        <v>4.9343015999999996E-3</v>
+      </c>
+      <c r="E738" s="24">
+        <v>49.343018000000001</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
@@ -21078,16 +21075,16 @@
         <v>44348</v>
       </c>
       <c r="B739">
-        <v>17401</v>
+        <v>17402</v>
       </c>
       <c r="C739">
         <v>86</v>
       </c>
-      <c r="D739" s="17">
-        <v>4.9422446985805417E-3</v>
-      </c>
-      <c r="E739" s="25">
-        <v>49.422446985805415</v>
+      <c r="D739" s="7">
+        <v>4.9419607999999999E-3</v>
+      </c>
+      <c r="E739" s="24">
+        <v>49.419609000000001</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
@@ -21095,16 +21092,16 @@
         <v>44378</v>
       </c>
       <c r="B740">
-        <v>17791</v>
+        <v>17793</v>
       </c>
       <c r="C740">
         <v>102</v>
       </c>
       <c r="D740" s="21">
-        <v>5.7332359057950645E-3</v>
-      </c>
-      <c r="E740" s="26">
-        <v>57.33235905795064</v>
+        <v>5.7325913000000001E-3</v>
+      </c>
+      <c r="E740" s="25">
+        <v>57.325912000000002</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
@@ -21117,11 +21114,11 @@
       <c r="C741">
         <v>68</v>
       </c>
-      <c r="D741" s="17">
-        <v>3.8993061528757385E-3</v>
-      </c>
-      <c r="E741" s="25">
-        <v>38.99306152875738</v>
+      <c r="D741" s="7">
+        <v>3.8993061E-3</v>
+      </c>
+      <c r="E741" s="24">
+        <v>38.993060999999997</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.35">
@@ -21129,16 +21126,64 @@
         <v>44440</v>
       </c>
       <c r="B742">
-        <v>16658</v>
+        <v>16641</v>
       </c>
       <c r="C742">
         <v>85</v>
       </c>
-      <c r="D742" s="17">
-        <v>5.1026533797574741E-3</v>
-      </c>
-      <c r="E742" s="25">
-        <v>51.026533797574736</v>
+      <c r="D742" s="7">
+        <v>5.1078660999999996E-3</v>
+      </c>
+      <c r="E742" s="24">
+        <v>51.078662999999999</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A743" s="20">
+        <v>44470</v>
+      </c>
+      <c r="B743">
+        <v>16145</v>
+      </c>
+      <c r="C743">
+        <v>91</v>
+      </c>
+      <c r="D743" s="7">
+        <v>5.6364201000000001E-3</v>
+      </c>
+      <c r="E743" s="24">
+        <v>56.364201000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A744" s="20">
+        <v>44501</v>
+      </c>
+      <c r="B744">
+        <v>15426</v>
+      </c>
+      <c r="C744">
+        <v>75</v>
+      </c>
+      <c r="D744" s="7">
+        <v>4.8619214999999997E-3</v>
+      </c>
+      <c r="E744" s="24">
+        <v>48.619216999999999</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B745">
+        <v>7253</v>
+      </c>
+      <c r="C745">
+        <v>18</v>
+      </c>
+      <c r="D745" s="7">
+        <v>2.4817315999999998E-3</v>
+      </c>
+      <c r="E745" s="24">
+        <v>24.817316000000002</v>
       </c>
     </row>
   </sheetData>
